--- a/data/add-ons/add_factors_old_sophia.xlsx
+++ b/data/add-ons/add_factors_old_sophia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3C0502C-FC58-4492-A55D-4D6A183ED256}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0B2CDF-1BDD-4301-B563-65227E2F3576}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
@@ -66,6 +66,7 @@
     <author>tc={A0B72D47-4ADC-4971-B431-B9EA6C91AE60}</author>
     <author>tc={2D81BDF9-A0D8-4A1A-915B-91D32E8E61FF}</author>
     <author>tc={33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}</author>
+    <author>tc={40167970-C0F0-4C09-9098-80E03CD0CE14}</author>
     <author>tc={8D1CFFB8-D62F-4FA1-AB58-5320D39AA096}</author>
     <author>tc={DA48DE65-66E5-4DD8-819A-2F757A61D389}</author>
     <author>tc={1FC8F5D3-F5DD-4502-A8BF-AD36B99CFAF5}</author>
@@ -532,7 +533,17 @@
     we're comfortable leaving this as is</t>
       </text>
     </comment>
-    <comment ref="O82" authorId="15" shapeId="0" xr:uid="{8D1CFFB8-D62F-4FA1-AB58-5320D39AA096}">
+    <comment ref="L78" authorId="15" shapeId="0" xr:uid="{40167970-C0F0-4C09-9098-80E03CD0CE14}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CBO indicated 17 for q2? why do we split the quarter 3 payments into q2?
+Reply:
+    we're comfortable leaving this as is</t>
+      </text>
+    </comment>
+    <comment ref="O82" authorId="16" shapeId="0" xr:uid="{8D1CFFB8-D62F-4FA1-AB58-5320D39AA096}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -540,7 +551,7 @@
     CRFB estimates $29B ($45 minus $16B for airline which is inn subsidies). MPC is 100% over 12 quarters. And then annualized</t>
       </text>
     </comment>
-    <comment ref="O83" authorId="16" shapeId="0" xr:uid="{DA48DE65-66E5-4DD8-819A-2F757A61D389}">
+    <comment ref="O83" authorId="17" shapeId="0" xr:uid="{DA48DE65-66E5-4DD8-819A-2F757A61D389}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -548,7 +559,7 @@
     CRFB: estimates $82B. According to the Louise x Wendy, MPC is 100% over 3 years.</t>
       </text>
     </comment>
-    <comment ref="O84" authorId="17" shapeId="0" xr:uid="{1FC8F5D3-F5DD-4502-A8BF-AD36B99CFAF5}">
+    <comment ref="O84" authorId="18" shapeId="0" xr:uid="{1FC8F5D3-F5DD-4502-A8BF-AD36B99CFAF5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -556,7 +567,7 @@
     CRFB: estimates $63B. MPC is 100% over 12 quarters and then annualize</t>
       </text>
     </comment>
-    <comment ref="O85" authorId="18" shapeId="0" xr:uid="{99D44059-B7C8-4B13-A311-FD754252DDFC}">
+    <comment ref="O85" authorId="19" shapeId="0" xr:uid="{99D44059-B7C8-4B13-A311-FD754252DDFC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -589,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N101" authorId="19" shapeId="0" xr:uid="{11731043-8530-4DAC-9476-3C98D0D836BB}">
+    <comment ref="N101" authorId="20" shapeId="0" xr:uid="{11731043-8530-4DAC-9476-3C98D0D836BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -630,7 +641,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O113" authorId="20" shapeId="0" xr:uid="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
+    <comment ref="O113" authorId="21" shapeId="0" xr:uid="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -640,7 +651,7 @@
     cbo proected it will be 2.3%. should we still ovverride with 4%?</t>
       </text>
     </comment>
-    <comment ref="P113" authorId="21" shapeId="0" xr:uid="{3B711313-D2C6-42FC-83C8-BA827015079B}">
+    <comment ref="P113" authorId="22" shapeId="0" xr:uid="{3B711313-D2C6-42FC-83C8-BA827015079B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -2150,7 +2161,7 @@
     <numFmt numFmtId="171" formatCode="0.000%"/>
     <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2372,6 +2383,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="19">
@@ -3496,6 +3513,29 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3571,6 +3611,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3592,56 +3647,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4092,6 +4109,12 @@
   <threadedComment ref="L77" dT="2020-10-28T16:31:53.35" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{1079BF34-6E2F-4888-8715-72B28B28D9AA}" parentId="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
     <text>we're comfortable leaving this as is</text>
   </threadedComment>
+  <threadedComment ref="L78" dT="2020-10-27T15:26:37.39" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{40167970-C0F0-4C09-9098-80E03CD0CE14}">
+    <text>CBO indicated 17 for q2? why do we split the quarter 3 payments into q2?</text>
+  </threadedComment>
+  <threadedComment ref="L78" dT="2020-10-28T16:31:53.35" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{E1C08428-8D2F-4F91-B16A-33C4F07D6062}" parentId="{40167970-C0F0-4C09-9098-80E03CD0CE14}">
+    <text>we're comfortable leaving this as is</text>
+  </threadedComment>
   <threadedComment ref="O82" dT="2020-12-21T21:08:26.13" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{8D1CFFB8-D62F-4FA1-AB58-5320D39AA096}">
     <text>CRFB estimates $29B ($45 minus $16B for airline which is inn subsidies). MPC is 100% over 12 quarters. And then annualized</text>
   </threadedComment>
@@ -4179,86 +4202,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="342" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="327"/>
+      <c r="B1" s="342"/>
       <c r="C1" s="268"/>
       <c r="D1" s="268"/>
       <c r="E1" s="35"/>
       <c r="N1" t="s">
         <v>373</v>
       </c>
-      <c r="AC1" s="333" t="s">
+      <c r="AC1" s="348" t="s">
         <v>247</v>
       </c>
-      <c r="AD1" s="333"/>
-      <c r="AE1" s="331" t="s">
+      <c r="AD1" s="348"/>
+      <c r="AE1" s="346" t="s">
         <v>245</v>
       </c>
-      <c r="AF1" s="332"/>
+      <c r="AF1" s="347"/>
       <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="329" t="s">
+      <c r="AI1" s="344" t="s">
         <v>278</v>
       </c>
-      <c r="AJ1" s="329"/>
-      <c r="AK1" s="329"/>
-      <c r="AL1" s="329"/>
-      <c r="AM1" s="328" t="s">
+      <c r="AJ1" s="344"/>
+      <c r="AK1" s="344"/>
+      <c r="AL1" s="344"/>
+      <c r="AM1" s="343" t="s">
         <v>276</v>
       </c>
-      <c r="AN1" s="328"/>
-      <c r="AO1" s="328"/>
-      <c r="AP1" s="328"/>
+      <c r="AN1" s="343"/>
+      <c r="AO1" s="343"/>
+      <c r="AP1" s="343"/>
     </row>
     <row r="2" spans="1:43" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="326" t="s">
+      <c r="F2" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="326"/>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326" t="s">
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="341"/>
+      <c r="J2" s="341" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="326"/>
-      <c r="N2" s="326" t="s">
+      <c r="K2" s="341"/>
+      <c r="L2" s="341"/>
+      <c r="M2" s="341"/>
+      <c r="N2" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="326"/>
-      <c r="P2" s="326"/>
-      <c r="Q2" s="326"/>
-      <c r="R2" s="326" t="s">
+      <c r="O2" s="341"/>
+      <c r="P2" s="341"/>
+      <c r="Q2" s="341"/>
+      <c r="R2" s="341" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="326"/>
-      <c r="T2" s="326"/>
-      <c r="U2" s="326"/>
-      <c r="V2" s="326" t="s">
+      <c r="S2" s="341"/>
+      <c r="T2" s="341"/>
+      <c r="U2" s="341"/>
+      <c r="V2" s="341" t="s">
         <v>265</v>
       </c>
-      <c r="W2" s="326"/>
-      <c r="X2" s="326"/>
-      <c r="Y2" s="326"/>
+      <c r="W2" s="341"/>
+      <c r="X2" s="341"/>
+      <c r="Y2" s="341"/>
       <c r="Z2" s="221"/>
       <c r="AA2" s="283"/>
       <c r="AB2" s="221"/>
-      <c r="AC2" s="326" t="s">
+      <c r="AC2" s="341" t="s">
         <v>102</v>
       </c>
-      <c r="AD2" s="326"/>
-      <c r="AE2" s="326"/>
-      <c r="AF2" s="326"/>
-      <c r="AG2" s="326"/>
-      <c r="AH2" s="326"/>
-      <c r="AI2" s="326"/>
-      <c r="AJ2" s="326"/>
-      <c r="AK2" s="326"/>
-      <c r="AL2" s="330"/>
+      <c r="AD2" s="341"/>
+      <c r="AE2" s="341"/>
+      <c r="AF2" s="341"/>
+      <c r="AG2" s="341"/>
+      <c r="AH2" s="341"/>
+      <c r="AI2" s="341"/>
+      <c r="AJ2" s="341"/>
+      <c r="AK2" s="341"/>
+      <c r="AL2" s="345"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="F3" s="197" t="s">
@@ -4365,10 +4388,10 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="325" t="s">
+      <c r="A4" s="340" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="325"/>
+      <c r="B4" s="340"/>
       <c r="C4" s="268"/>
       <c r="D4" s="268"/>
       <c r="F4" s="197"/>
@@ -6393,31 +6416,31 @@
         <v>2925056</v>
       </c>
       <c r="O34" s="133">
-        <f>O35+O40+O51</f>
+        <f t="shared" ref="O34:U34" si="29">O35+O40+O51</f>
         <v>3270456.7169724014</v>
       </c>
       <c r="P34" s="133">
-        <f>P35+P40+P51</f>
+        <f t="shared" si="29"/>
         <v>2708796.7165770018</v>
       </c>
       <c r="Q34" s="133">
-        <f>Q35+Q40+Q51</f>
+        <f t="shared" si="29"/>
         <v>2611509.6718853824</v>
       </c>
       <c r="R34" s="133">
-        <f>R35+R40+R51</f>
+        <f t="shared" si="29"/>
         <v>2678465.9441347551</v>
       </c>
       <c r="S34" s="133">
-        <f>S35+S40+S51</f>
+        <f t="shared" si="29"/>
         <v>2735176.6542439447</v>
       </c>
       <c r="T34" s="133">
-        <f>T35+T40+T51</f>
+        <f t="shared" si="29"/>
         <v>2793300.2519227522</v>
       </c>
       <c r="U34" s="133">
-        <f>U35+U40+U51</f>
+        <f t="shared" si="29"/>
         <v>2852876.3150512893</v>
       </c>
       <c r="V34" s="87"/>
@@ -6795,35 +6818,35 @@
         <v>338269</v>
       </c>
       <c r="O40" s="87">
-        <f t="shared" ref="O40:V40" si="29">O42+O46</f>
+        <f t="shared" ref="O40:V40" si="30">O42+O46</f>
         <v>724000</v>
       </c>
       <c r="P40" s="87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>152000</v>
       </c>
       <c r="Q40" s="87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>44000</v>
       </c>
       <c r="R40" s="87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>44000</v>
       </c>
       <c r="S40" s="87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>44000</v>
       </c>
       <c r="T40" s="87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>44000</v>
       </c>
       <c r="U40" s="87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>44000</v>
       </c>
       <c r="V40" s="87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>44000</v>
       </c>
       <c r="W40" s="44"/>
@@ -6845,7 +6868,7 @@
         <v>314.56725</v>
       </c>
       <c r="AF40" s="45">
-        <f t="shared" ref="AF40:AF51" si="30">AVERAGE(R40:U40)/1000</f>
+        <f t="shared" ref="AF40:AF51" si="31">AVERAGE(R40:U40)/1000</f>
         <v>44</v>
       </c>
       <c r="AH40">
@@ -6944,11 +6967,11 @@
         <v>108000</v>
       </c>
       <c r="Q42" s="87">
-        <f t="shared" ref="Q42" si="31">Q43+Q44+Q45</f>
+        <f t="shared" ref="Q42" si="32">Q43+Q44+Q45</f>
         <v>0</v>
       </c>
       <c r="R42" s="87">
-        <f t="shared" ref="R42" si="32">R43+R44</f>
+        <f t="shared" ref="R42" si="33">R43+R44</f>
         <v>0</v>
       </c>
       <c r="S42" s="87"/>
@@ -7042,7 +7065,7 @@
         <v>139.42500000000001</v>
       </c>
       <c r="AF43" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AG43" s="3"/>
@@ -7208,7 +7231,7 @@
         <v>46.174999999999997</v>
       </c>
       <c r="AF46" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>44</v>
       </c>
       <c r="AG46" s="3"/>
@@ -7219,81 +7242,81 @@
       <c r="AM46" s="182"/>
     </row>
     <row r="47" spans="1:39" s="107" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="368" t="s">
+      <c r="A47" s="325" t="s">
         <v>147</v>
       </c>
-      <c r="F47" s="369"/>
-      <c r="G47" s="369"/>
-      <c r="H47" s="369"/>
-      <c r="I47" s="369"/>
-      <c r="J47" s="369">
+      <c r="F47" s="326"/>
+      <c r="G47" s="326"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326">
         <v>0</v>
       </c>
-      <c r="K47" s="369">
+      <c r="K47" s="326">
         <v>0</v>
       </c>
-      <c r="L47" s="369">
+      <c r="L47" s="326">
         <f>SUM(L48:L50)</f>
         <v>179900</v>
       </c>
-      <c r="M47" s="370">
+      <c r="M47" s="327">
         <v>85400</v>
       </c>
-      <c r="N47" s="371">
+      <c r="N47" s="328">
         <f>SUM(N48:N50)</f>
         <v>45300</v>
       </c>
-      <c r="O47" s="372">
-        <f t="shared" ref="O47:R47" si="33">SUM(O48:O50)</f>
+      <c r="O47" s="329">
+        <f t="shared" ref="O47:R47" si="34">SUM(O48:O50)</f>
         <v>54177.595548489669</v>
       </c>
-      <c r="P47" s="372">
-        <f t="shared" si="33"/>
+      <c r="P47" s="329">
+        <f t="shared" si="34"/>
         <v>43000</v>
       </c>
-      <c r="Q47" s="372">
-        <f t="shared" si="33"/>
+      <c r="Q47" s="329">
+        <f t="shared" si="34"/>
         <v>43000</v>
       </c>
-      <c r="R47" s="372">
-        <f t="shared" si="33"/>
+      <c r="R47" s="329">
+        <f t="shared" si="34"/>
         <v>15000</v>
       </c>
-      <c r="S47" s="372"/>
-      <c r="T47" s="372"/>
-      <c r="U47" s="372"/>
-      <c r="V47" s="373"/>
-      <c r="W47" s="373"/>
-      <c r="X47" s="373"/>
-      <c r="Y47" s="373"/>
-      <c r="Z47" s="373"/>
-      <c r="AA47" s="373"/>
-      <c r="AB47" s="373"/>
-      <c r="AC47" s="373"/>
-      <c r="AD47" s="374">
+      <c r="S47" s="329"/>
+      <c r="T47" s="329"/>
+      <c r="U47" s="329"/>
+      <c r="V47" s="330"/>
+      <c r="W47" s="330"/>
+      <c r="X47" s="330"/>
+      <c r="Y47" s="330"/>
+      <c r="Z47" s="330"/>
+      <c r="AA47" s="330"/>
+      <c r="AB47" s="330"/>
+      <c r="AC47" s="330"/>
+      <c r="AD47" s="331">
         <f>AVERAGE(J47:M47)/1000</f>
         <v>66.325000000000003</v>
       </c>
-      <c r="AE47" s="374">
+      <c r="AE47" s="331">
         <f>AVERAGE(N47:Q47)/1000</f>
         <v>46.369398887122415</v>
       </c>
-      <c r="AF47" s="374">
-        <f t="shared" ref="AF47" si="34">AVERAGE(R47:U47)/1000</f>
+      <c r="AF47" s="331">
+        <f t="shared" ref="AF47" si="35">AVERAGE(R47:U47)/1000</f>
         <v>15</v>
       </c>
-      <c r="AG47" s="373"/>
-      <c r="AI47" s="373">
+      <c r="AG47" s="330"/>
+      <c r="AI47" s="330">
         <f>'figuring out social benefits'!G48</f>
         <v>105</v>
       </c>
-      <c r="AJ47" s="373"/>
-      <c r="AK47" s="373"/>
-      <c r="AL47" s="373"/>
-      <c r="AM47" s="375"/>
+      <c r="AJ47" s="330"/>
+      <c r="AK47" s="330"/>
+      <c r="AL47" s="330"/>
+      <c r="AM47" s="332"/>
     </row>
     <row r="48" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="376" t="s">
+      <c r="A48" s="333" t="s">
         <v>205</v>
       </c>
       <c r="B48" s="107" t="s">
@@ -7302,57 +7325,57 @@
       <c r="C48" s="107" t="s">
         <v>305</v>
       </c>
-      <c r="F48" s="369"/>
-      <c r="G48" s="369"/>
-      <c r="H48" s="369"/>
-      <c r="I48" s="369"/>
-      <c r="J48" s="369"/>
-      <c r="K48" s="369"/>
-      <c r="L48" s="369">
+      <c r="F48" s="326"/>
+      <c r="G48" s="326"/>
+      <c r="H48" s="326"/>
+      <c r="I48" s="326"/>
+      <c r="J48" s="326"/>
+      <c r="K48" s="326"/>
+      <c r="L48" s="326">
         <v>19000</v>
       </c>
-      <c r="M48" s="370">
+      <c r="M48" s="327">
         <v>27000</v>
       </c>
-      <c r="N48" s="371">
+      <c r="N48" s="328">
         <f>VLOOKUP($C$48,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>10800</v>
       </c>
-      <c r="O48" s="372">
+      <c r="O48" s="329">
         <v>377.5955484896661</v>
       </c>
-      <c r="P48" s="372">
+      <c r="P48" s="329">
         <v>0</v>
       </c>
-      <c r="Q48" s="372">
+      <c r="Q48" s="329">
         <v>0</v>
       </c>
-      <c r="R48" s="372">
+      <c r="R48" s="329">
         <v>0</v>
       </c>
-      <c r="S48" s="372"/>
-      <c r="T48" s="372"/>
-      <c r="U48" s="372"/>
-      <c r="V48" s="372"/>
-      <c r="W48" s="372"/>
-      <c r="X48" s="372"/>
-      <c r="Y48" s="372"/>
-      <c r="Z48" s="372"/>
-      <c r="AA48" s="372"/>
-      <c r="AB48" s="372"/>
-      <c r="AC48" s="372"/>
-      <c r="AD48" s="372"/>
-      <c r="AE48" s="372"/>
-      <c r="AF48" s="372"/>
-      <c r="AG48" s="372"/>
-      <c r="AI48" s="373"/>
-      <c r="AJ48" s="373"/>
-      <c r="AK48" s="373"/>
-      <c r="AL48" s="373"/>
-      <c r="AM48" s="375"/>
+      <c r="S48" s="329"/>
+      <c r="T48" s="329"/>
+      <c r="U48" s="329"/>
+      <c r="V48" s="329"/>
+      <c r="W48" s="329"/>
+      <c r="X48" s="329"/>
+      <c r="Y48" s="329"/>
+      <c r="Z48" s="329"/>
+      <c r="AA48" s="329"/>
+      <c r="AB48" s="329"/>
+      <c r="AC48" s="329"/>
+      <c r="AD48" s="329"/>
+      <c r="AE48" s="329"/>
+      <c r="AF48" s="329"/>
+      <c r="AG48" s="329"/>
+      <c r="AI48" s="330"/>
+      <c r="AJ48" s="330"/>
+      <c r="AK48" s="330"/>
+      <c r="AL48" s="330"/>
+      <c r="AM48" s="332"/>
     </row>
     <row r="49" spans="1:41" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="376" t="s">
+      <c r="A49" s="333" t="s">
         <v>382</v>
       </c>
       <c r="B49" s="107" t="s">
@@ -7361,44 +7384,44 @@
       <c r="C49" s="107" t="s">
         <v>305</v>
       </c>
-      <c r="F49" s="369"/>
-      <c r="G49" s="369"/>
-      <c r="H49" s="369"/>
-      <c r="I49" s="369"/>
-      <c r="J49" s="369"/>
-      <c r="K49" s="369"/>
-      <c r="L49" s="369"/>
-      <c r="M49" s="370"/>
-      <c r="N49" s="371"/>
-      <c r="O49" s="372">
+      <c r="F49" s="326"/>
+      <c r="G49" s="326"/>
+      <c r="H49" s="326"/>
+      <c r="I49" s="326"/>
+      <c r="J49" s="326"/>
+      <c r="K49" s="326"/>
+      <c r="L49" s="326"/>
+      <c r="M49" s="327"/>
+      <c r="N49" s="328"/>
+      <c r="O49" s="329">
         <v>10800</v>
       </c>
-      <c r="P49" s="372"/>
-      <c r="Q49" s="372"/>
-      <c r="R49" s="372"/>
-      <c r="S49" s="372"/>
-      <c r="T49" s="372"/>
-      <c r="U49" s="372"/>
-      <c r="V49" s="372"/>
-      <c r="W49" s="372"/>
-      <c r="X49" s="372"/>
-      <c r="Y49" s="372"/>
-      <c r="Z49" s="372"/>
-      <c r="AA49" s="372"/>
-      <c r="AB49" s="372"/>
-      <c r="AC49" s="372"/>
-      <c r="AD49" s="372"/>
-      <c r="AE49" s="372"/>
-      <c r="AF49" s="372"/>
-      <c r="AG49" s="372"/>
-      <c r="AI49" s="373"/>
-      <c r="AJ49" s="373"/>
-      <c r="AK49" s="373"/>
-      <c r="AL49" s="373"/>
-      <c r="AM49" s="375"/>
+      <c r="P49" s="329"/>
+      <c r="Q49" s="329"/>
+      <c r="R49" s="329"/>
+      <c r="S49" s="329"/>
+      <c r="T49" s="329"/>
+      <c r="U49" s="329"/>
+      <c r="V49" s="329"/>
+      <c r="W49" s="329"/>
+      <c r="X49" s="329"/>
+      <c r="Y49" s="329"/>
+      <c r="Z49" s="329"/>
+      <c r="AA49" s="329"/>
+      <c r="AB49" s="329"/>
+      <c r="AC49" s="329"/>
+      <c r="AD49" s="329"/>
+      <c r="AE49" s="329"/>
+      <c r="AF49" s="329"/>
+      <c r="AG49" s="329"/>
+      <c r="AI49" s="330"/>
+      <c r="AJ49" s="330"/>
+      <c r="AK49" s="330"/>
+      <c r="AL49" s="330"/>
+      <c r="AM49" s="332"/>
     </row>
     <row r="50" spans="1:41" s="107" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="376" t="s">
+      <c r="A50" s="333" t="s">
         <v>383</v>
       </c>
       <c r="B50" s="107" t="s">
@@ -7407,54 +7430,54 @@
       <c r="C50" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="F50" s="369"/>
-      <c r="G50" s="369"/>
-      <c r="H50" s="369"/>
-      <c r="I50" s="369"/>
-      <c r="J50" s="369"/>
-      <c r="K50" s="369"/>
-      <c r="L50" s="369">
+      <c r="F50" s="326"/>
+      <c r="G50" s="326"/>
+      <c r="H50" s="326"/>
+      <c r="I50" s="326"/>
+      <c r="J50" s="326"/>
+      <c r="K50" s="326"/>
+      <c r="L50" s="326">
         <v>160900</v>
       </c>
-      <c r="M50" s="370">
+      <c r="M50" s="327">
         <v>58400</v>
       </c>
-      <c r="N50" s="371">
+      <c r="N50" s="328">
         <f>VLOOKUP($C$50,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>34500</v>
       </c>
-      <c r="O50" s="372">
+      <c r="O50" s="329">
         <v>43000</v>
       </c>
-      <c r="P50" s="372">
+      <c r="P50" s="329">
         <v>43000</v>
       </c>
-      <c r="Q50" s="372">
+      <c r="Q50" s="329">
         <v>43000</v>
       </c>
-      <c r="R50" s="372">
+      <c r="R50" s="329">
         <v>15000</v>
       </c>
-      <c r="S50" s="372"/>
-      <c r="T50" s="372"/>
-      <c r="U50" s="372"/>
-      <c r="V50" s="372"/>
-      <c r="W50" s="372"/>
-      <c r="X50" s="372"/>
-      <c r="Y50" s="372"/>
-      <c r="Z50" s="372"/>
-      <c r="AA50" s="372"/>
-      <c r="AB50" s="372"/>
-      <c r="AC50" s="372"/>
-      <c r="AD50" s="372"/>
-      <c r="AE50" s="372"/>
-      <c r="AF50" s="372"/>
-      <c r="AG50" s="372"/>
-      <c r="AI50" s="373"/>
-      <c r="AJ50" s="373"/>
-      <c r="AK50" s="373"/>
-      <c r="AL50" s="373"/>
-      <c r="AM50" s="375"/>
+      <c r="S50" s="329"/>
+      <c r="T50" s="329"/>
+      <c r="U50" s="329"/>
+      <c r="V50" s="329"/>
+      <c r="W50" s="329"/>
+      <c r="X50" s="329"/>
+      <c r="Y50" s="329"/>
+      <c r="Z50" s="329"/>
+      <c r="AA50" s="329"/>
+      <c r="AB50" s="329"/>
+      <c r="AC50" s="329"/>
+      <c r="AD50" s="329"/>
+      <c r="AE50" s="329"/>
+      <c r="AF50" s="329"/>
+      <c r="AG50" s="329"/>
+      <c r="AI50" s="330"/>
+      <c r="AJ50" s="330"/>
+      <c r="AK50" s="330"/>
+      <c r="AL50" s="330"/>
+      <c r="AM50" s="332"/>
     </row>
     <row r="51" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="86" t="s">
@@ -7500,11 +7523,11 @@
         <v>1663323.8025</v>
       </c>
       <c r="P51" s="88">
-        <f t="shared" ref="P51:Q51" si="35">O51*(1+P53)</f>
+        <f t="shared" ref="P51:Q51" si="36">O51*(1+P53)</f>
         <v>1650848.87398125</v>
       </c>
       <c r="Q51" s="88">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1638467.5074263907</v>
       </c>
       <c r="R51" s="88">
@@ -7512,15 +7535,15 @@
         <v>1663044.5200377863</v>
       </c>
       <c r="S51" s="88">
-        <f t="shared" ref="S51:U51" si="36">R51*(1+S53)</f>
+        <f t="shared" ref="S51:U51" si="37">R51*(1+S53)</f>
         <v>1687990.187838353</v>
       </c>
       <c r="T51" s="88">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1713310.0406559282</v>
       </c>
       <c r="U51" s="88">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1739009.691265767</v>
       </c>
       <c r="V51" s="88">
@@ -7546,7 +7569,7 @@
         <v>1657.1332959769102</v>
       </c>
       <c r="AF51" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1700.8386099494589</v>
       </c>
       <c r="AG51" s="3"/>
@@ -7585,30 +7608,30 @@
         <v>4.3899160317375507E-2</v>
       </c>
       <c r="H52" s="227">
-        <f t="shared" ref="H52:L52" si="37">H51/G51-1</f>
+        <f t="shared" ref="H52:L52" si="38">H51/G51-1</f>
         <v>3.4867401440725754E-3</v>
       </c>
       <c r="I52" s="227">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3.5163841628156334E-3</v>
       </c>
       <c r="J52" s="227">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>5.2735975988749129E-3</v>
       </c>
       <c r="K52" s="227">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3.4509222105193249E-2</v>
       </c>
       <c r="L52" s="227">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4.7166587697893059E-2</v>
       </c>
       <c r="M52" s="227">
         <v>1.2783825552366457E-2</v>
       </c>
       <c r="N52" s="227">
-        <f t="shared" ref="N52" si="38">N51/M51-1</f>
+        <f t="shared" ref="N52" si="39">N51/M51-1</f>
         <v>3.6483389338011207E-3</v>
       </c>
       <c r="O52" s="226"/>
@@ -7769,51 +7792,51 @@
         <v>610536</v>
       </c>
       <c r="O55" s="144">
-        <f t="shared" ref="O55:Z55" si="39">O56+AVERAGE($H$55:$K$55)</f>
+        <f t="shared" ref="O55:Z55" si="40">O56+AVERAGE($H$55:$K$55)</f>
         <v>794083.58333333337</v>
       </c>
       <c r="P55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>794083.58333333337</v>
       </c>
       <c r="Q55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>144083.58333333331</v>
       </c>
       <c r="R55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>122750.25</v>
       </c>
       <c r="S55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>77330.25</v>
       </c>
       <c r="T55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>77330.25</v>
       </c>
       <c r="U55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>77330.25</v>
       </c>
       <c r="V55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>77330.25</v>
       </c>
       <c r="W55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>74830.25</v>
       </c>
       <c r="X55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>74830.25</v>
       </c>
       <c r="Y55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>74830.25</v>
       </c>
       <c r="Z55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>74830.25</v>
       </c>
       <c r="AA55" s="44"/>
@@ -7842,7 +7865,7 @@
         <v>1093900</v>
       </c>
       <c r="N56" s="308">
-        <f t="shared" ref="N56" si="40">N58+N59+N64</f>
+        <f t="shared" ref="N56" si="41">N58+N59+N64</f>
         <v>473700</v>
       </c>
       <c r="O56" s="116">
@@ -7850,31 +7873,31 @@
         <v>719253.33333333337</v>
       </c>
       <c r="P56" s="116">
-        <f t="shared" ref="P56:V56" si="41">P58+P59+SUM(P64:P67)</f>
+        <f t="shared" ref="P56:V56" si="42">P58+P59+SUM(P64:P67)</f>
         <v>719253.33333333337</v>
       </c>
       <c r="Q56" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>69253.333333333328</v>
       </c>
       <c r="R56" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>47920</v>
       </c>
       <c r="S56" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2500</v>
       </c>
       <c r="T56" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2500</v>
       </c>
       <c r="U56" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2500</v>
       </c>
       <c r="V56" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2500</v>
       </c>
       <c r="W56" s="44"/>
@@ -8551,31 +8574,31 @@
         <v>227</v>
       </c>
       <c r="F71" s="203">
-        <f t="shared" ref="F71:L71" si="42">F69-F96</f>
+        <f t="shared" ref="F71:L71" si="43">F69-F96</f>
         <v>196851</v>
       </c>
       <c r="G71" s="203">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>189684</v>
       </c>
       <c r="H71" s="203">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>192875</v>
       </c>
       <c r="I71" s="203">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>191507</v>
       </c>
       <c r="J71" s="203">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>203997</v>
       </c>
       <c r="K71" s="203">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>204376</v>
       </c>
       <c r="L71" s="203">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>884250</v>
       </c>
       <c r="M71" s="301">
@@ -8632,47 +8655,47 @@
         <v>197738.804</v>
       </c>
       <c r="P72" s="116">
-        <f t="shared" ref="P72:Z72" si="43">O72*(1+P90)</f>
+        <f t="shared" ref="P72:Z72" si="44">O72*(1+P90)</f>
         <v>198529.75921600001</v>
       </c>
       <c r="Q72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>199323.878252864</v>
       </c>
       <c r="R72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>200121.17376587546</v>
       </c>
       <c r="S72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>200921.65846093895</v>
       </c>
       <c r="T72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>201725.34509478271</v>
       </c>
       <c r="U72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>202532.24647516184</v>
       </c>
       <c r="V72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>203342.37546106247</v>
       </c>
       <c r="W72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>204155.74496290673</v>
       </c>
       <c r="X72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>204972.36794275834</v>
       </c>
       <c r="Y72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>205792.25741452936</v>
       </c>
       <c r="Z72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>206615.42644418747</v>
       </c>
       <c r="AA72" s="44"/>
@@ -8746,62 +8769,62 @@
       <c r="K74" s="202"/>
       <c r="L74" s="206">
         <f>SUM(L76:L79)</f>
-        <v>90400</v>
+        <v>118800</v>
       </c>
       <c r="M74" s="206">
-        <f t="shared" ref="M74:N74" si="44">SUM(M76:M79)</f>
-        <v>87800</v>
+        <f t="shared" ref="M74:N74" si="45">SUM(M76:M79)</f>
+        <v>103600</v>
       </c>
       <c r="N74" s="206">
-        <f t="shared" si="44"/>
-        <v>87200</v>
+        <f t="shared" si="45"/>
+        <v>102400</v>
       </c>
       <c r="O74" s="116">
-        <f t="shared" ref="O74:Z74" si="45">O75+O81</f>
+        <f t="shared" ref="O74:Z74" si="46">O75+O81</f>
         <v>177900</v>
       </c>
       <c r="P74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>121000</v>
       </c>
       <c r="Q74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>121000</v>
       </c>
       <c r="R74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>115000</v>
       </c>
       <c r="S74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>109000</v>
       </c>
       <c r="T74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>109000</v>
       </c>
       <c r="U74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>109000</v>
       </c>
       <c r="V74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>109000</v>
       </c>
       <c r="W74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>109000</v>
       </c>
       <c r="X74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>59000</v>
       </c>
       <c r="Y74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>59000</v>
       </c>
       <c r="Z74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>59000</v>
       </c>
       <c r="AA74" s="116"/>
@@ -8831,47 +8854,47 @@
         <v>118900</v>
       </c>
       <c r="P75" s="116">
-        <f t="shared" ref="P75:Z75" si="46">SUM(P76:P79)</f>
+        <f t="shared" ref="P75:Z75" si="47">SUM(P76:P79)</f>
         <v>62000</v>
       </c>
       <c r="Q75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>62000</v>
       </c>
       <c r="R75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>56000</v>
       </c>
       <c r="S75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50000</v>
       </c>
       <c r="T75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50000</v>
       </c>
       <c r="U75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50000</v>
       </c>
       <c r="V75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50000</v>
       </c>
       <c r="W75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50000</v>
       </c>
       <c r="X75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AA75" s="44"/>
@@ -8948,7 +8971,7 @@
       <c r="AM76" s="233"/>
     </row>
     <row r="77" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="377" t="s">
+      <c r="A77" s="334" t="s">
         <v>381</v>
       </c>
       <c r="B77" s="107" t="s">
@@ -8957,52 +8980,52 @@
       <c r="C77" s="107" t="s">
         <v>378</v>
       </c>
-      <c r="F77" s="378"/>
-      <c r="G77" s="378"/>
-      <c r="H77" s="378"/>
-      <c r="I77" s="369"/>
-      <c r="J77" s="369"/>
-      <c r="K77" s="369"/>
-      <c r="L77" s="369">
+      <c r="F77" s="335"/>
+      <c r="G77" s="335"/>
+      <c r="H77" s="335"/>
+      <c r="I77" s="326"/>
+      <c r="J77" s="326"/>
+      <c r="K77" s="326"/>
+      <c r="L77" s="326">
         <v>28400</v>
       </c>
-      <c r="M77" s="370">
+      <c r="M77" s="327">
         <v>15800</v>
       </c>
-      <c r="N77" s="379">
+      <c r="N77" s="336">
         <v>15200</v>
       </c>
-      <c r="O77" s="380">
+      <c r="O77" s="337">
         <v>18000</v>
       </c>
-      <c r="P77" s="380">
+      <c r="P77" s="337">
         <v>0</v>
       </c>
-      <c r="Q77" s="380">
+      <c r="Q77" s="337">
         <v>0</v>
       </c>
-      <c r="R77" s="380">
+      <c r="R77" s="337">
         <v>0</v>
       </c>
-      <c r="S77" s="373"/>
-      <c r="T77" s="373"/>
-      <c r="U77" s="373"/>
-      <c r="V77" s="373"/>
-      <c r="W77" s="373"/>
-      <c r="X77" s="373"/>
-      <c r="Y77" s="373"/>
-      <c r="Z77" s="373"/>
-      <c r="AA77" s="373"/>
-      <c r="AB77" s="373"/>
-      <c r="AC77" s="373"/>
-      <c r="AD77" s="373"/>
-      <c r="AE77" s="373"/>
-      <c r="AF77" s="373"/>
-      <c r="AG77" s="373"/>
-      <c r="AM77" s="381"/>
+      <c r="S77" s="330"/>
+      <c r="T77" s="330"/>
+      <c r="U77" s="330"/>
+      <c r="V77" s="330"/>
+      <c r="W77" s="330"/>
+      <c r="X77" s="330"/>
+      <c r="Y77" s="330"/>
+      <c r="Z77" s="330"/>
+      <c r="AA77" s="330"/>
+      <c r="AB77" s="330"/>
+      <c r="AC77" s="330"/>
+      <c r="AD77" s="330"/>
+      <c r="AE77" s="330"/>
+      <c r="AF77" s="330"/>
+      <c r="AG77" s="330"/>
+      <c r="AM77" s="338"/>
     </row>
     <row r="78" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="377" t="s">
+      <c r="A78" s="334" t="s">
         <v>384</v>
       </c>
       <c r="B78" s="107" t="s">
@@ -9011,40 +9034,46 @@
       <c r="C78" s="107" t="s">
         <v>378</v>
       </c>
-      <c r="F78" s="378"/>
-      <c r="G78" s="378"/>
-      <c r="H78" s="378"/>
-      <c r="I78" s="369"/>
-      <c r="J78" s="369"/>
-      <c r="K78" s="369"/>
-      <c r="L78" s="369"/>
-      <c r="M78" s="370"/>
-      <c r="N78" s="379"/>
-      <c r="O78" s="380">
+      <c r="F78" s="335"/>
+      <c r="G78" s="335"/>
+      <c r="H78" s="335"/>
+      <c r="I78" s="326"/>
+      <c r="J78" s="326"/>
+      <c r="K78" s="326"/>
+      <c r="L78" s="326">
+        <v>28400</v>
+      </c>
+      <c r="M78" s="327">
+        <v>15800</v>
+      </c>
+      <c r="N78" s="336">
+        <v>15200</v>
+      </c>
+      <c r="O78" s="337">
         <v>28900</v>
       </c>
-      <c r="P78" s="380"/>
-      <c r="Q78" s="380"/>
-      <c r="R78" s="380"/>
-      <c r="S78" s="373"/>
-      <c r="T78" s="373"/>
-      <c r="U78" s="373"/>
-      <c r="V78" s="373"/>
-      <c r="W78" s="373"/>
-      <c r="X78" s="373"/>
-      <c r="Y78" s="373"/>
-      <c r="Z78" s="373"/>
-      <c r="AA78" s="373"/>
-      <c r="AB78" s="373"/>
-      <c r="AC78" s="373"/>
-      <c r="AD78" s="373"/>
-      <c r="AE78" s="373"/>
-      <c r="AF78" s="373"/>
-      <c r="AG78" s="373"/>
-      <c r="AM78" s="381"/>
+      <c r="P78" s="337"/>
+      <c r="Q78" s="337"/>
+      <c r="R78" s="337"/>
+      <c r="S78" s="330"/>
+      <c r="T78" s="330"/>
+      <c r="U78" s="330"/>
+      <c r="V78" s="330"/>
+      <c r="W78" s="330"/>
+      <c r="X78" s="330"/>
+      <c r="Y78" s="330"/>
+      <c r="Z78" s="330"/>
+      <c r="AA78" s="330"/>
+      <c r="AB78" s="330"/>
+      <c r="AC78" s="330"/>
+      <c r="AD78" s="330"/>
+      <c r="AE78" s="330"/>
+      <c r="AF78" s="330"/>
+      <c r="AG78" s="330"/>
+      <c r="AM78" s="338"/>
     </row>
     <row r="79" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="377" t="s">
+      <c r="A79" s="334" t="s">
         <v>201</v>
       </c>
       <c r="B79" s="107" t="s">
@@ -9053,52 +9082,52 @@
       <c r="C79" s="107" t="s">
         <v>379</v>
       </c>
-      <c r="F79" s="378"/>
-      <c r="G79" s="378"/>
-      <c r="H79" s="378"/>
-      <c r="I79" s="369"/>
-      <c r="J79" s="369"/>
-      <c r="K79" s="369"/>
-      <c r="L79" s="369">
+      <c r="F79" s="335"/>
+      <c r="G79" s="335"/>
+      <c r="H79" s="335"/>
+      <c r="I79" s="326"/>
+      <c r="J79" s="326"/>
+      <c r="K79" s="326"/>
+      <c r="L79" s="326">
         <v>27000</v>
       </c>
-      <c r="M79" s="370">
+      <c r="M79" s="327">
         <v>27000</v>
       </c>
-      <c r="N79" s="379">
+      <c r="N79" s="336">
         <v>12000</v>
       </c>
-      <c r="O79" s="380">
+      <c r="O79" s="337">
         <v>12000</v>
       </c>
-      <c r="P79" s="380">
+      <c r="P79" s="337">
         <v>12000</v>
       </c>
-      <c r="Q79" s="380">
+      <c r="Q79" s="337">
         <v>12000</v>
       </c>
-      <c r="R79" s="380">
+      <c r="R79" s="337">
         <v>6000</v>
       </c>
-      <c r="S79" s="373"/>
-      <c r="T79" s="373"/>
-      <c r="U79" s="373"/>
-      <c r="V79" s="373"/>
-      <c r="W79" s="373"/>
-      <c r="X79" s="373"/>
-      <c r="Y79" s="373"/>
-      <c r="Z79" s="373"/>
-      <c r="AA79" s="373"/>
-      <c r="AB79" s="373"/>
-      <c r="AC79" s="373"/>
-      <c r="AD79" s="373"/>
-      <c r="AE79" s="373"/>
-      <c r="AF79" s="373"/>
-      <c r="AG79" s="373"/>
-      <c r="AM79" s="381"/>
+      <c r="S79" s="330"/>
+      <c r="T79" s="330"/>
+      <c r="U79" s="330"/>
+      <c r="V79" s="330"/>
+      <c r="W79" s="330"/>
+      <c r="X79" s="330"/>
+      <c r="Y79" s="330"/>
+      <c r="Z79" s="330"/>
+      <c r="AA79" s="330"/>
+      <c r="AB79" s="330"/>
+      <c r="AC79" s="330"/>
+      <c r="AD79" s="330"/>
+      <c r="AE79" s="330"/>
+      <c r="AF79" s="330"/>
+      <c r="AG79" s="330"/>
+      <c r="AM79" s="338"/>
     </row>
     <row r="80" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="377" t="s">
+      <c r="A80" s="334" t="s">
         <v>385</v>
       </c>
       <c r="B80" s="107" t="s">
@@ -9107,43 +9136,43 @@
       <c r="C80" s="107" t="s">
         <v>379</v>
       </c>
-      <c r="F80" s="378"/>
-      <c r="G80" s="378"/>
-      <c r="H80" s="378"/>
-      <c r="I80" s="369"/>
-      <c r="J80" s="369"/>
-      <c r="K80" s="369"/>
-      <c r="L80" s="369">
+      <c r="F80" s="335"/>
+      <c r="G80" s="335"/>
+      <c r="H80" s="335"/>
+      <c r="I80" s="326"/>
+      <c r="J80" s="326"/>
+      <c r="K80" s="326"/>
+      <c r="L80" s="326">
         <v>64400</v>
       </c>
-      <c r="M80" s="382">
+      <c r="M80" s="339">
         <v>23400</v>
       </c>
-      <c r="N80" s="379">
+      <c r="N80" s="336">
         <v>13800</v>
       </c>
-      <c r="O80" s="380">
+      <c r="O80" s="337">
         <v>17100</v>
       </c>
-      <c r="P80" s="380"/>
-      <c r="Q80" s="380"/>
-      <c r="R80" s="380"/>
-      <c r="S80" s="373"/>
-      <c r="T80" s="373"/>
-      <c r="U80" s="373"/>
-      <c r="V80" s="373"/>
-      <c r="W80" s="373"/>
-      <c r="X80" s="373"/>
-      <c r="Y80" s="373"/>
-      <c r="Z80" s="373"/>
-      <c r="AA80" s="373"/>
-      <c r="AB80" s="373"/>
-      <c r="AC80" s="373"/>
-      <c r="AD80" s="373"/>
-      <c r="AE80" s="373"/>
-      <c r="AF80" s="373"/>
-      <c r="AG80" s="373"/>
-      <c r="AM80" s="381"/>
+      <c r="P80" s="337"/>
+      <c r="Q80" s="337"/>
+      <c r="R80" s="337"/>
+      <c r="S80" s="330"/>
+      <c r="T80" s="330"/>
+      <c r="U80" s="330"/>
+      <c r="V80" s="330"/>
+      <c r="W80" s="330"/>
+      <c r="X80" s="330"/>
+      <c r="Y80" s="330"/>
+      <c r="Z80" s="330"/>
+      <c r="AA80" s="330"/>
+      <c r="AB80" s="330"/>
+      <c r="AC80" s="330"/>
+      <c r="AD80" s="330"/>
+      <c r="AE80" s="330"/>
+      <c r="AF80" s="330"/>
+      <c r="AG80" s="330"/>
+      <c r="AM80" s="338"/>
     </row>
     <row r="81" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="220" t="s">
@@ -9163,47 +9192,47 @@
         <v>59000</v>
       </c>
       <c r="P81" s="116">
-        <f t="shared" ref="P81:Z81" si="47">SUM(P82:P85)</f>
+        <f t="shared" ref="P81:Z81" si="48">SUM(P82:P85)</f>
         <v>59000</v>
       </c>
       <c r="Q81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="R81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="S81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="T81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="U81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="V81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="W81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="X81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="Y81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="Z81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="AA81" s="116"/>
@@ -9512,62 +9541,62 @@
       </c>
       <c r="L86" s="206">
         <f>L72+L74</f>
-        <v>321350</v>
+        <v>349750</v>
       </c>
       <c r="M86" s="206">
         <f>M72+M74</f>
-        <v>291400</v>
+        <v>307200</v>
       </c>
       <c r="N86" s="308">
         <f>N72+N74</f>
-        <v>284151</v>
+        <v>299351</v>
       </c>
       <c r="O86" s="144">
-        <f t="shared" ref="O86:Z86" si="48">O72+O74</f>
+        <f t="shared" ref="O86:Z86" si="49">O72+O74</f>
         <v>375638.804</v>
       </c>
       <c r="P86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>319529.75921599998</v>
       </c>
       <c r="Q86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>320323.878252864</v>
       </c>
       <c r="R86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>315121.17376587546</v>
       </c>
       <c r="S86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>309921.65846093895</v>
       </c>
       <c r="T86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>310725.34509478271</v>
       </c>
       <c r="U86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>311532.24647516187</v>
       </c>
       <c r="V86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>312342.37546106247</v>
       </c>
       <c r="W86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>313155.7449629067</v>
       </c>
       <c r="X86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>263972.36794275837</v>
       </c>
       <c r="Y86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>264792.25741452933</v>
       </c>
       <c r="Z86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>265615.42644418747</v>
       </c>
       <c r="AA86" s="44"/>
@@ -9902,15 +9931,15 @@
         <v>71400</v>
       </c>
       <c r="P92" s="102">
-        <f t="shared" ref="P92:R92" si="49">SUM(P93:P95)</f>
+        <f t="shared" ref="P92:R92" si="50">SUM(P93:P95)</f>
         <v>71400</v>
       </c>
       <c r="Q92" s="102">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>30600</v>
       </c>
       <c r="R92" s="102">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>30600</v>
       </c>
       <c r="S92" s="186"/>
@@ -10116,23 +10145,23 @@
         <v>512193</v>
       </c>
       <c r="O96" s="116">
-        <f t="shared" ref="O96:S96" si="50">O103*0.74</f>
+        <f t="shared" ref="O96:S96" si="51">O103*0.74</f>
         <v>507477.24811825115</v>
       </c>
       <c r="P96" s="116">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>512541.31638321205</v>
       </c>
       <c r="Q96" s="116">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>512541.31638321205</v>
       </c>
       <c r="R96" s="116">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>512541.31638321205</v>
       </c>
       <c r="S96" s="116">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>512541.31638321205</v>
       </c>
       <c r="T96" s="116">
@@ -10194,31 +10223,31 @@
       <c r="B97" s="141"/>
       <c r="E97" s="141"/>
       <c r="F97" s="201">
-        <f>F51+F47+F36+F42</f>
+        <f t="shared" ref="F97:L97" si="52">F51+F47+F36+F42</f>
         <v>1440187</v>
       </c>
       <c r="G97" s="201">
-        <f>G51+G47+G36+G42</f>
+        <f t="shared" si="52"/>
         <v>1503410</v>
       </c>
       <c r="H97" s="201">
-        <f>H51+H47+H36+H42</f>
+        <f t="shared" si="52"/>
         <v>1508652</v>
       </c>
       <c r="I97" s="201">
-        <f>I51+I47+I36+I42</f>
+        <f t="shared" si="52"/>
         <v>1513957</v>
       </c>
       <c r="J97" s="201">
-        <f>J51+J47+J36+J42</f>
+        <f t="shared" si="52"/>
         <v>1521941</v>
       </c>
       <c r="K97" s="201">
-        <f>K51+K47+K36+K42</f>
+        <f t="shared" si="52"/>
         <v>1574462</v>
       </c>
       <c r="L97" s="201">
-        <f>L51+L47+L36+L42</f>
+        <f t="shared" si="52"/>
         <v>3729557.333333333</v>
       </c>
       <c r="M97" s="301">
@@ -10229,51 +10258,51 @@
         <v>2027793</v>
       </c>
       <c r="O97" s="142">
-        <f>O51+O47+O36+O42+O37+O38+O39</f>
+        <f t="shared" ref="O97:Z97" si="53">O51+O47+O36+O42+O37+O38+O39</f>
         <v>3118501.3980484894</v>
       </c>
       <c r="P97" s="142">
-        <f>P51+P47+P36+P42+P37+P38+P39</f>
+        <f t="shared" si="53"/>
         <v>1874848.87398125</v>
       </c>
       <c r="Q97" s="142">
-        <f>Q51+Q47+Q36+Q42+Q37+Q38+Q39</f>
+        <f t="shared" si="53"/>
         <v>1686467.5074263907</v>
       </c>
       <c r="R97" s="142">
-        <f>R51+R47+R36+R42+R37+R38+R39</f>
+        <f t="shared" si="53"/>
         <v>1683044.5200377863</v>
       </c>
       <c r="S97" s="142">
-        <f>S51+S47+S36+S42+S37+S38+S39</f>
+        <f t="shared" si="53"/>
         <v>1687990.187838353</v>
       </c>
       <c r="T97" s="142">
-        <f>T51+T47+T36+T42+T37+T38+T39</f>
+        <f t="shared" si="53"/>
         <v>1713310.0406559282</v>
       </c>
       <c r="U97" s="142">
-        <f>U51+U47+U36+U42+U37+U38+U39</f>
+        <f t="shared" si="53"/>
         <v>1739009.691265767</v>
       </c>
       <c r="V97" s="142">
-        <f>V51+V47+V36+V42+V37+V38+V39</f>
+        <f t="shared" si="53"/>
         <v>1756399.7881784246</v>
       </c>
       <c r="W97" s="142">
-        <f>W51+W47+W36+W42+W37+W38+W39</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="X97" s="142">
-        <f>X51+X47+X36+X42+X37+X38+X39</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y97" s="142">
-        <f>Y51+Y47+Y36+Y42+Y37+Y38+Y39</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Z97" s="142">
-        <f>Z51+Z47+Z36+Z42+Z37+Z38+Z39</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AM97" s="233"/>
@@ -10298,55 +10327,55 @@
         <v>1328805</v>
       </c>
       <c r="N98" s="310">
-        <f>N96+N35</f>
+        <f t="shared" ref="N98:Z98" si="54">N96+N35</f>
         <v>1372787</v>
       </c>
       <c r="O98" s="143">
-        <f>O96+O35</f>
+        <f t="shared" si="54"/>
         <v>1390610.1625906522</v>
       </c>
       <c r="P98" s="143">
-        <f>P96+P35</f>
+        <f t="shared" si="54"/>
         <v>1418489.158978964</v>
       </c>
       <c r="Q98" s="143">
-        <f>Q96+Q35</f>
+        <f t="shared" si="54"/>
         <v>1441583.4808422038</v>
       </c>
       <c r="R98" s="143">
-        <f>R96+R35</f>
+        <f t="shared" si="54"/>
         <v>1483962.7404801806</v>
       </c>
       <c r="S98" s="143">
-        <f>S96+S35</f>
+        <f t="shared" si="54"/>
         <v>1515727.7827888038</v>
       </c>
       <c r="T98" s="143">
-        <f>T96+T35</f>
+        <f t="shared" si="54"/>
         <v>1506974.123618965</v>
       </c>
       <c r="U98" s="143">
-        <f>U96+U35</f>
+        <f t="shared" si="54"/>
         <v>1540850.5361376633</v>
       </c>
       <c r="V98" s="143">
-        <f>V96+V35</f>
+        <f t="shared" si="54"/>
         <v>1551631.6801380017</v>
       </c>
       <c r="W98" s="143">
-        <f>W96+W35</f>
+        <f t="shared" si="54"/>
         <v>1091537.5543621723</v>
       </c>
       <c r="X98" s="143">
-        <f>X96+X35</f>
+        <f t="shared" si="54"/>
         <v>1102537.0783156503</v>
       </c>
       <c r="Y98" s="143">
-        <f>Y96+Y35</f>
+        <f t="shared" si="54"/>
         <v>1113647.4454798999</v>
       </c>
       <c r="Z98" s="143">
-        <f>Z96+Z35</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AM98" s="233"/>
@@ -10403,35 +10432,35 @@
         <v>818740</v>
       </c>
       <c r="O100" s="133">
-        <f t="shared" ref="O100:U100" si="51">O101+O103</f>
+        <f t="shared" ref="O100:U100" si="55">O101+O103</f>
         <v>831250.83502466371</v>
       </c>
       <c r="P100" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>838457.84744285408</v>
       </c>
       <c r="Q100" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>839187.01967747905</v>
       </c>
       <c r="R100" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>840286.24682117626</v>
       </c>
       <c r="S100" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>841762.8752842095</v>
       </c>
       <c r="T100" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>843107.97501111636</v>
       </c>
       <c r="U100" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>844539.45728929248</v>
       </c>
       <c r="V100" s="133">
-        <f t="shared" ref="V100" si="52">V101+V103</f>
+        <f t="shared" ref="V100" si="56">V101+V103</f>
         <v>846032.64138980373</v>
       </c>
       <c r="AM100" s="233"/>
@@ -10441,27 +10470,27 @@
         <v>229</v>
       </c>
       <c r="F101" s="203">
-        <f t="shared" ref="F101:K101" si="53">F100-F103</f>
+        <f t="shared" ref="F101:K101" si="57">F100-F103</f>
         <v>139025</v>
       </c>
       <c r="G101" s="203">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>139342</v>
       </c>
       <c r="H101" s="203">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>140228</v>
       </c>
       <c r="I101" s="203">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>141105</v>
       </c>
       <c r="J101" s="203">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>141335</v>
       </c>
       <c r="K101" s="203">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>142991</v>
       </c>
       <c r="L101" s="203">
@@ -10480,31 +10509,31 @@
         <v>145470.76999999999</v>
       </c>
       <c r="P101" s="133">
-        <f t="shared" ref="P101:S101" si="54">O101*(1+P113)</f>
+        <f t="shared" ref="P101:S101" si="58">O101*(1+P113)</f>
         <v>145834.44692499997</v>
       </c>
       <c r="Q101" s="133">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>146563.61915962494</v>
       </c>
       <c r="R101" s="133">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>147662.84630332215</v>
       </c>
       <c r="S101" s="133">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>149139.47476635536</v>
       </c>
       <c r="T101" s="133">
-        <f t="shared" ref="T101:V101" si="55">S101*(1+T112)</f>
+        <f t="shared" ref="T101:V101" si="59">S101*(1+T112)</f>
         <v>150484.57449326222</v>
       </c>
       <c r="U101" s="133">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>151916.05677143831</v>
       </c>
       <c r="V101" s="133">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>153409.24087194959</v>
       </c>
       <c r="AM101" s="233"/>
@@ -10573,23 +10602,23 @@
         <v>692623.40051785414</v>
       </c>
       <c r="R103" s="135">
-        <f t="shared" ref="R103:V103" si="56">Q103*(1+R104)</f>
+        <f t="shared" ref="R103:V103" si="60">Q103*(1+R104)</f>
         <v>692623.40051785414</v>
       </c>
       <c r="S103" s="135">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>692623.40051785414</v>
       </c>
       <c r="T103" s="135">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>692623.40051785414</v>
       </c>
       <c r="U103" s="135">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>692623.40051785414</v>
       </c>
       <c r="V103" s="135">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>692623.40051785414</v>
       </c>
       <c r="AD103" s="45">
@@ -10661,38 +10690,38 @@
         <v>221</v>
       </c>
       <c r="F105" s="208">
-        <f t="shared" ref="F105:L105" si="57">F96/F103</f>
+        <f t="shared" ref="F105:L105" si="61">F96/F103</f>
         <v>0.66058231423538405</v>
       </c>
       <c r="G105" s="208">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0.6749214177505789</v>
       </c>
       <c r="H105" s="208">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0.68242012696430432</v>
       </c>
       <c r="I105" s="208">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0.6730637268687778</v>
       </c>
       <c r="J105" s="208">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0.66395699382859508</v>
       </c>
       <c r="K105" s="208">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0.67846773573296415</v>
       </c>
       <c r="L105" s="208">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0.76648081779484256</v>
       </c>
       <c r="M105" s="208">
         <v>0.71094027669909299</v>
       </c>
       <c r="N105" s="208">
-        <f t="shared" ref="N105" si="58">N96/N103</f>
+        <f t="shared" ref="N105" si="62">N96/N103</f>
         <v>0.76034541114436371</v>
       </c>
       <c r="AD105" s="154"/>
@@ -10747,31 +10776,31 @@
         <v>2009.5840333646127</v>
       </c>
       <c r="P106" s="35">
-        <f t="shared" ref="P106:V106" si="59">O106*(1+P108)</f>
+        <f t="shared" ref="P106:V106" si="63">O106*(1+P108)</f>
         <v>2031.5173022625379</v>
       </c>
       <c r="Q106" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>2046.001536440413</v>
       </c>
       <c r="R106" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>2056.0370415493694</v>
       </c>
       <c r="S106" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>2065.9690878427696</v>
       </c>
       <c r="T106" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>2073.2112049317075</v>
       </c>
       <c r="U106" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>2077.6599340006264</v>
       </c>
       <c r="V106" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>2079.3152750495265</v>
       </c>
       <c r="AM106" s="233"/>
@@ -10785,27 +10814,27 @@
       <c r="D107" s="35"/>
       <c r="F107" s="200"/>
       <c r="G107" s="200">
-        <f t="shared" ref="G107:L107" si="60">(G106/F106)-1</f>
+        <f t="shared" ref="G107:L107" si="64">(G106/F106)-1</f>
         <v>7.8113264233139468E-3</v>
       </c>
       <c r="H107" s="200">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>6.3596164356336526E-3</v>
       </c>
       <c r="I107" s="200">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>1.3823747222907468E-3</v>
       </c>
       <c r="J107" s="200">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>3.5990731154167399E-3</v>
       </c>
       <c r="K107" s="200">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>2.6527805069758159E-3</v>
       </c>
       <c r="L107" s="200">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>-1.36697697207252E-2</v>
       </c>
       <c r="M107" s="302">
@@ -10965,19 +10994,19 @@
         <v>0</v>
       </c>
       <c r="P110">
-        <f t="shared" ref="P110:S110" si="61">O110*(1+P113)</f>
+        <f t="shared" ref="P110:S110" si="65">O110*(1+P113)</f>
         <v>0</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="R110">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="S110">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="T110">
@@ -10985,11 +11014,11 @@
         <v>0</v>
       </c>
       <c r="U110">
-        <f t="shared" ref="U110:V110" si="62">T110*(1+U112)</f>
+        <f t="shared" ref="U110:V110" si="66">T110*(1+U112)</f>
         <v>0</v>
       </c>
       <c r="V110">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="W110"/>
@@ -11010,11 +11039,11 @@
       <c r="I111" s="200"/>
       <c r="J111" s="200"/>
       <c r="K111" s="200">
-        <f t="shared" ref="K111" si="63">(K109/J109)-1</f>
+        <f t="shared" ref="K111" si="67">(K109/J109)-1</f>
         <v>1.0265546788835067E-2</v>
       </c>
       <c r="L111" s="200">
-        <f t="shared" ref="L111" si="64">(L109/K109)-1</f>
+        <f t="shared" ref="L111" si="68">(L109/K109)-1</f>
         <v>-1.9776620759153429E-2</v>
       </c>
       <c r="M111" s="302">
@@ -11126,82 +11155,82 @@
         <v>163</v>
       </c>
       <c r="F114" s="201">
-        <f>F100+F46-F96</f>
+        <f t="shared" ref="F114:L114" si="69">F100+F46-F96</f>
         <v>339220</v>
       </c>
       <c r="G114" s="201">
-        <f>G100+G46-G96</f>
+        <f t="shared" si="69"/>
         <v>334185</v>
       </c>
       <c r="H114" s="201">
-        <f>H100+H46-H96</f>
+        <f t="shared" si="69"/>
         <v>335532</v>
       </c>
       <c r="I114" s="201">
-        <f>I100+I46-I96</f>
+        <f t="shared" si="69"/>
         <v>344546</v>
       </c>
       <c r="J114" s="201">
-        <f>J100+J46-J96</f>
+        <f t="shared" si="69"/>
         <v>349558</v>
       </c>
       <c r="K114" s="201">
-        <f>K100+K46-K96</f>
+        <f t="shared" si="69"/>
         <v>343658</v>
       </c>
       <c r="L114" s="201">
-        <f>L100+L46-L96</f>
+        <f t="shared" si="69"/>
         <v>560584.66666666674</v>
       </c>
       <c r="M114" s="301">
         <v>528408</v>
       </c>
       <c r="N114" s="306">
-        <f>N100+N46-N96</f>
+        <f t="shared" ref="N114:Y114" si="70">N100+N46-N96</f>
         <v>343247</v>
       </c>
       <c r="O114" s="215">
-        <f>O100+O46-O96</f>
+        <f t="shared" si="70"/>
         <v>383773.58690641256</v>
       </c>
       <c r="P114" s="215">
-        <f>P100+P46-P96</f>
+        <f t="shared" si="70"/>
         <v>369916.53105964203</v>
       </c>
       <c r="Q114" s="215">
-        <f>Q100+Q46-Q96</f>
+        <f t="shared" si="70"/>
         <v>370645.703294267</v>
       </c>
       <c r="R114" s="215">
-        <f>R100+R46-R96</f>
+        <f t="shared" si="70"/>
         <v>371744.93043796421</v>
       </c>
       <c r="S114" s="215">
-        <f>S100+S46-S96</f>
+        <f t="shared" si="70"/>
         <v>373221.55890099745</v>
       </c>
       <c r="T114" s="215">
-        <f>T100+T46-T96</f>
+        <f t="shared" si="70"/>
         <v>416124.06265897548</v>
       </c>
       <c r="U114" s="215">
-        <f>U100+U46-U96</f>
+        <f t="shared" si="70"/>
         <v>417555.5449371516</v>
       </c>
       <c r="V114" s="215">
-        <f>V100+V46-V96</f>
+        <f t="shared" si="70"/>
         <v>419048.72903766285</v>
       </c>
       <c r="W114" s="215">
-        <f>W100+W46-W96</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="X114" s="215">
-        <f>X100+X46-X96</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Y114" s="215">
-        <f>Y100+Y46-Y96</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AM114" s="233"/>
@@ -11213,31 +11242,31 @@
       <c r="B115" s="141"/>
       <c r="E115" s="141"/>
       <c r="F115" s="201">
-        <f t="shared" ref="F115:L115" si="65">F103-F96</f>
+        <f t="shared" ref="F115:L115" si="71">F103-F96</f>
         <v>200195</v>
       </c>
       <c r="G115" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>194843</v>
       </c>
       <c r="H115" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>195304</v>
       </c>
       <c r="I115" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>203441</v>
       </c>
       <c r="J115" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>208223</v>
       </c>
       <c r="K115" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>200667</v>
       </c>
       <c r="L115" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>156183</v>
       </c>
       <c r="M115" s="301">
@@ -11248,47 +11277,47 @@
         <v>161439</v>
       </c>
       <c r="O115" s="142">
-        <f t="shared" ref="O115:Y115" si="66">O103-O96</f>
+        <f t="shared" ref="O115:Y115" si="72">O103-O96</f>
         <v>178302.81690641254</v>
       </c>
       <c r="P115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>180082.08413464209</v>
       </c>
       <c r="Q115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>180082.08413464209</v>
       </c>
       <c r="R115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>180082.08413464209</v>
       </c>
       <c r="S115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>180082.08413464209</v>
       </c>
       <c r="T115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>221639.48816571326</v>
       </c>
       <c r="U115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>221639.48816571326</v>
       </c>
       <c r="V115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>221639.48816571326</v>
       </c>
       <c r="W115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="X115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="Y115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AM115" s="233"/>
@@ -11300,27 +11329,27 @@
       <c r="C116" s="35"/>
       <c r="D116" s="35"/>
       <c r="F116" s="201">
-        <f t="shared" ref="F116:K116" si="67">F114-F115</f>
+        <f t="shared" ref="F116:K116" si="73">F114-F115</f>
         <v>139025</v>
       </c>
       <c r="G116" s="201">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>139342</v>
       </c>
       <c r="H116" s="201">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>140228</v>
       </c>
       <c r="I116" s="201">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>141105</v>
       </c>
       <c r="J116" s="201">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>141335</v>
       </c>
       <c r="K116" s="201">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>142991</v>
       </c>
       <c r="L116" s="201">
@@ -11335,47 +11364,47 @@
         <v>181808</v>
       </c>
       <c r="O116" s="142">
-        <f t="shared" ref="O116:Y116" si="68">O114-O115</f>
+        <f t="shared" ref="O116:Y116" si="74">O114-O115</f>
         <v>205470.77000000002</v>
       </c>
       <c r="P116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>189834.44692499994</v>
       </c>
       <c r="Q116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>190563.61915962491</v>
       </c>
       <c r="R116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>191662.84630332212</v>
       </c>
       <c r="S116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>193139.47476635536</v>
       </c>
       <c r="T116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>194484.57449326222</v>
       </c>
       <c r="U116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>195916.05677143834</v>
       </c>
       <c r="V116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>197409.24087194959</v>
       </c>
       <c r="W116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="X116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Y116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="AM116" s="256"/>
@@ -12879,50 +12908,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="343" t="s">
+      <c r="A5" s="358" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="344"/>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="344"/>
-      <c r="J5" s="344"/>
-      <c r="K5" s="344"/>
-      <c r="L5" s="344"/>
-      <c r="M5" s="344"/>
-      <c r="N5" s="344"/>
-      <c r="O5" s="344"/>
-      <c r="P5" s="344"/>
-      <c r="Q5" s="344"/>
-      <c r="R5" s="344"/>
-      <c r="S5" s="344"/>
+      <c r="B5" s="359"/>
+      <c r="C5" s="359"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="359"/>
+      <c r="G5" s="359"/>
+      <c r="H5" s="359"/>
+      <c r="I5" s="359"/>
+      <c r="J5" s="359"/>
+      <c r="K5" s="359"/>
+      <c r="L5" s="359"/>
+      <c r="M5" s="359"/>
+      <c r="N5" s="359"/>
+      <c r="O5" s="359"/>
+      <c r="P5" s="359"/>
+      <c r="Q5" s="359"/>
+      <c r="R5" s="359"/>
+      <c r="S5" s="359"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="345" t="s">
+      <c r="A6" s="360" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="345"/>
-      <c r="C6" s="345"/>
-      <c r="D6" s="345"/>
-      <c r="E6" s="345"/>
-      <c r="F6" s="345"/>
-      <c r="G6" s="345"/>
-      <c r="H6" s="345"/>
-      <c r="I6" s="345"/>
-      <c r="J6" s="345"/>
-      <c r="K6" s="345"/>
-      <c r="L6" s="345"/>
-      <c r="M6" s="345"/>
-      <c r="N6" s="345"/>
-      <c r="O6" s="345"/>
-      <c r="P6" s="345"/>
-      <c r="Q6" s="345"/>
-      <c r="R6" s="345"/>
-      <c r="S6" s="345"/>
+      <c r="B6" s="360"/>
+      <c r="C6" s="360"/>
+      <c r="D6" s="360"/>
+      <c r="E6" s="360"/>
+      <c r="F6" s="360"/>
+      <c r="G6" s="360"/>
+      <c r="H6" s="360"/>
+      <c r="I6" s="360"/>
+      <c r="J6" s="360"/>
+      <c r="K6" s="360"/>
+      <c r="L6" s="360"/>
+      <c r="M6" s="360"/>
+      <c r="N6" s="360"/>
+      <c r="O6" s="360"/>
+      <c r="P6" s="360"/>
+      <c r="Q6" s="360"/>
+      <c r="R6" s="360"/>
+      <c r="S6" s="360"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -12963,8 +12992,8 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="131"/>
-      <c r="R8" s="346"/>
-      <c r="S8" s="347"/>
+      <c r="R8" s="361"/>
+      <c r="S8" s="362"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="130"/>
@@ -13236,10 +13265,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="342" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="327"/>
+      <c r="B1" s="342"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -13247,18 +13276,18 @@
       <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="348" t="s">
+      <c r="Z1" s="363" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="348"/>
-      <c r="AB1" s="348"/>
-      <c r="AC1" s="326"/>
-      <c r="AD1" s="326"/>
-      <c r="AE1" s="326"/>
-      <c r="AF1" s="326"/>
+      <c r="AA1" s="363"/>
+      <c r="AB1" s="363"/>
+      <c r="AC1" s="341"/>
+      <c r="AD1" s="341"/>
+      <c r="AE1" s="341"/>
+      <c r="AF1" s="341"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="349" t="s">
+      <c r="A2" s="364" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="107"/>
@@ -13267,45 +13296,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="349"/>
+      <c r="A3" s="364"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="349"/>
+      <c r="A4" s="364"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="349"/>
+      <c r="A5" s="364"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C7" s="339" t="s">
+      <c r="C7" s="354" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="340"/>
-      <c r="E7" s="340"/>
-      <c r="F7" s="341"/>
-      <c r="G7" s="339" t="s">
+      <c r="D7" s="355"/>
+      <c r="E7" s="355"/>
+      <c r="F7" s="356"/>
+      <c r="G7" s="354" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="340"/>
-      <c r="I7" s="340"/>
-      <c r="J7" s="341"/>
-      <c r="K7" s="339" t="s">
+      <c r="H7" s="355"/>
+      <c r="I7" s="355"/>
+      <c r="J7" s="356"/>
+      <c r="K7" s="354" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="340"/>
-      <c r="M7" s="340"/>
-      <c r="N7" s="341"/>
+      <c r="L7" s="355"/>
+      <c r="M7" s="355"/>
+      <c r="N7" s="356"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
@@ -15187,88 +15216,88 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="350" t="s">
+      <c r="A2" s="370" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="350"/>
-      <c r="C2" s="350"/>
-      <c r="D2" s="350"/>
-      <c r="E2" s="350"/>
-      <c r="F2" s="350"/>
-      <c r="G2" s="350"/>
-      <c r="H2" s="350"/>
-      <c r="I2" s="350"/>
-      <c r="J2" s="350"/>
+      <c r="B2" s="370"/>
+      <c r="C2" s="370"/>
+      <c r="D2" s="370"/>
+      <c r="E2" s="370"/>
+      <c r="F2" s="370"/>
+      <c r="G2" s="370"/>
+      <c r="H2" s="370"/>
+      <c r="I2" s="370"/>
+      <c r="J2" s="370"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="370" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="350"/>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="350"/>
-      <c r="G3" s="350"/>
-      <c r="H3" s="350"/>
-      <c r="I3" s="350"/>
-      <c r="J3" s="350"/>
+      <c r="B3" s="370"/>
+      <c r="C3" s="370"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="370"/>
+      <c r="G3" s="370"/>
+      <c r="H3" s="370"/>
+      <c r="I3" s="370"/>
+      <c r="J3" s="370"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="351"/>
-      <c r="B4" s="351"/>
-      <c r="C4" s="351"/>
-      <c r="D4" s="351"/>
-      <c r="E4" s="351"/>
-      <c r="F4" s="351"/>
-      <c r="G4" s="351"/>
-      <c r="H4" s="351"/>
-      <c r="I4" s="351"/>
-      <c r="J4" s="351"/>
-      <c r="K4" s="356" t="s">
+      <c r="A4" s="371"/>
+      <c r="B4" s="371"/>
+      <c r="C4" s="371"/>
+      <c r="D4" s="371"/>
+      <c r="E4" s="371"/>
+      <c r="F4" s="371"/>
+      <c r="G4" s="371"/>
+      <c r="H4" s="371"/>
+      <c r="I4" s="371"/>
+      <c r="J4" s="371"/>
+      <c r="K4" s="376" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="356"/>
-      <c r="M4" s="356"/>
-      <c r="N4" s="356"/>
+      <c r="L4" s="376"/>
+      <c r="M4" s="376"/>
+      <c r="N4" s="376"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="352" t="s">
+      <c r="C5" s="372" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="353"/>
-      <c r="E5" s="353"/>
-      <c r="F5" s="353"/>
-      <c r="G5" s="353"/>
-      <c r="H5" s="353"/>
-      <c r="I5" s="353"/>
-      <c r="J5" s="354"/>
+      <c r="D5" s="373"/>
+      <c r="E5" s="373"/>
+      <c r="F5" s="373"/>
+      <c r="G5" s="373"/>
+      <c r="H5" s="373"/>
+      <c r="I5" s="373"/>
+      <c r="J5" s="374"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="355" t="s">
+      <c r="L5" s="375" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="326"/>
-      <c r="N5" s="326"/>
+      <c r="M5" s="341"/>
+      <c r="N5" s="341"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="358">
+      <c r="C6" s="366">
         <v>2020</v>
       </c>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
-      <c r="G6" s="359"/>
-      <c r="H6" s="359"/>
-      <c r="I6" s="359"/>
-      <c r="J6" s="360"/>
+      <c r="D6" s="367"/>
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
+      <c r="G6" s="367"/>
+      <c r="H6" s="367"/>
+      <c r="I6" s="367"/>
+      <c r="J6" s="368"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15706,24 +15735,24 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="326" t="s">
+      <c r="K22" s="341" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="326"/>
-      <c r="M22" s="326"/>
-      <c r="N22" s="326"/>
-      <c r="O22" s="326" t="s">
+      <c r="L22" s="341"/>
+      <c r="M22" s="341"/>
+      <c r="N22" s="341"/>
+      <c r="O22" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="326"/>
-      <c r="Q22" s="326"/>
-      <c r="R22" s="326"/>
-      <c r="S22" s="326" t="s">
+      <c r="P22" s="341"/>
+      <c r="Q22" s="341"/>
+      <c r="R22" s="341"/>
+      <c r="S22" s="341" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="326"/>
-      <c r="U22" s="326"/>
-      <c r="V22" s="326"/>
+      <c r="T22" s="341"/>
+      <c r="U22" s="341"/>
+      <c r="V22" s="341"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C23" s="67"/>
@@ -15740,12 +15769,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="361" t="s">
+      <c r="K23" s="369" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="361"/>
-      <c r="M23" s="361"/>
-      <c r="N23" s="361"/>
+      <c r="L23" s="369"/>
+      <c r="M23" s="369"/>
+      <c r="N23" s="369"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15914,7 +15943,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="357" t="s">
+      <c r="I28" s="365" t="s">
         <v>257</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15964,7 +15993,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="357"/>
+      <c r="I29" s="365"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -16012,7 +16041,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="357"/>
+      <c r="I30" s="365"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -16060,7 +16089,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="357"/>
+      <c r="I31" s="365"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -16122,7 +16151,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="357" t="s">
+      <c r="I33" s="365" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16170,7 +16199,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="357"/>
+      <c r="I34" s="365"/>
       <c r="J34" t="s">
         <v>258</v>
       </c>
@@ -16407,6 +16436,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16414,12 +16449,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16526,30 +16555,30 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="365" t="s">
+      <c r="E6" s="378" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="365"/>
-      <c r="G6" s="365"/>
-      <c r="H6" s="365"/>
-      <c r="I6" s="365"/>
-      <c r="J6" s="365"/>
-      <c r="K6" s="365"/>
-      <c r="L6" s="365"/>
-      <c r="M6" s="365"/>
-      <c r="N6" s="365"/>
-      <c r="O6" s="365"/>
-      <c r="P6" s="365"/>
-      <c r="Q6" s="365"/>
-      <c r="R6" s="365"/>
+      <c r="F6" s="378"/>
+      <c r="G6" s="378"/>
+      <c r="H6" s="378"/>
+      <c r="I6" s="378"/>
+      <c r="J6" s="378"/>
+      <c r="K6" s="378"/>
+      <c r="L6" s="378"/>
+      <c r="M6" s="378"/>
+      <c r="N6" s="378"/>
+      <c r="O6" s="378"/>
+      <c r="P6" s="378"/>
+      <c r="Q6" s="378"/>
+      <c r="R6" s="378"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="362" t="s">
+      <c r="A7" s="377" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="362"/>
-      <c r="C7" s="362"/>
-      <c r="D7" s="362"/>
+      <c r="B7" s="377"/>
+      <c r="C7" s="377"/>
+      <c r="D7" s="377"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -16567,11 +16596,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="362" t="s">
+      <c r="B8" s="377" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="362"/>
-      <c r="D8" s="362"/>
+      <c r="C8" s="377"/>
+      <c r="D8" s="377"/>
       <c r="E8" s="42">
         <v>1717.857</v>
       </c>
@@ -16617,11 +16646,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
-      <c r="B9" s="362" t="s">
+      <c r="B9" s="377" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="362"/>
-      <c r="D9" s="362"/>
+      <c r="C9" s="377"/>
+      <c r="D9" s="377"/>
       <c r="E9" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -16667,11 +16696,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
-      <c r="B10" s="362" t="s">
+      <c r="B10" s="377" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="362"/>
-      <c r="D10" s="362"/>
+      <c r="C10" s="377"/>
+      <c r="D10" s="377"/>
       <c r="E10" s="42">
         <v>230.245</v>
       </c>
@@ -16717,11 +16746,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
-      <c r="B11" s="362" t="s">
+      <c r="B11" s="377" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="362"/>
-      <c r="D11" s="362"/>
+      <c r="C11" s="377"/>
+      <c r="D11" s="377"/>
       <c r="E11" s="42">
         <v>271.327</v>
       </c>
@@ -16816,10 +16845,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="362" t="s">
+      <c r="C13" s="377" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="362"/>
+      <c r="D13" s="377"/>
       <c r="E13" s="42">
         <v>3462.8009999999999</v>
       </c>
@@ -16970,11 +16999,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
-      <c r="B19" s="362" t="s">
+      <c r="B19" s="377" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="362"/>
-      <c r="D19" s="362"/>
+      <c r="C19" s="377"/>
+      <c r="D19" s="377"/>
       <c r="E19" s="42">
         <v>1717.857</v>
       </c>
@@ -17033,11 +17062,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
-      <c r="B20" s="362" t="s">
+      <c r="B20" s="377" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="362"/>
-      <c r="D20" s="362"/>
+      <c r="C20" s="377"/>
+      <c r="D20" s="377"/>
       <c r="E20" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -17097,11 +17126,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
-      <c r="B21" s="362" t="s">
+      <c r="B21" s="377" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="362"/>
-      <c r="D21" s="362"/>
+      <c r="C21" s="377"/>
+      <c r="D21" s="377"/>
       <c r="E21" s="42">
         <v>230.245</v>
       </c>
@@ -17160,11 +17189,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
-      <c r="B22" s="362" t="s">
+      <c r="B22" s="377" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="362"/>
-      <c r="D22" s="362"/>
+      <c r="C22" s="377"/>
+      <c r="D22" s="377"/>
       <c r="E22" s="42">
         <v>271.327</v>
       </c>
@@ -17277,21 +17306,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="363" t="s">
+      <c r="H27" s="379" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="363"/>
-      <c r="J27" s="363"/>
-      <c r="K27" s="363"/>
-      <c r="L27" s="363"/>
-      <c r="M27" s="363"/>
-      <c r="N27" s="363"/>
-      <c r="O27" s="363"/>
-      <c r="P27" s="363"/>
-      <c r="Q27" s="363"/>
-      <c r="R27" s="363"/>
-      <c r="S27" s="363"/>
-      <c r="T27" s="363"/>
+      <c r="I27" s="379"/>
+      <c r="J27" s="379"/>
+      <c r="K27" s="379"/>
+      <c r="L27" s="379"/>
+      <c r="M27" s="379"/>
+      <c r="N27" s="379"/>
+      <c r="O27" s="379"/>
+      <c r="P27" s="379"/>
+      <c r="Q27" s="379"/>
+      <c r="R27" s="379"/>
+      <c r="S27" s="379"/>
+      <c r="T27" s="379"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -17607,21 +17636,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="364" t="s">
+      <c r="F37" s="380" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="364"/>
-      <c r="H37" s="364"/>
-      <c r="I37" s="364"/>
-      <c r="J37" s="364"/>
-      <c r="K37" s="364"/>
-      <c r="L37" s="364"/>
-      <c r="M37" s="364"/>
-      <c r="N37" s="364"/>
-      <c r="O37" s="364"/>
-      <c r="P37" s="364"/>
-      <c r="Q37" s="364"/>
-      <c r="R37" s="364"/>
+      <c r="G37" s="380"/>
+      <c r="H37" s="380"/>
+      <c r="I37" s="380"/>
+      <c r="J37" s="380"/>
+      <c r="K37" s="380"/>
+      <c r="L37" s="380"/>
+      <c r="M37" s="380"/>
+      <c r="N37" s="380"/>
+      <c r="O37" s="380"/>
+      <c r="P37" s="380"/>
+      <c r="Q37" s="380"/>
+      <c r="R37" s="380"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17937,21 +17966,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="363" t="s">
+      <c r="F48" s="379" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="363"/>
-      <c r="H48" s="363"/>
-      <c r="I48" s="363"/>
-      <c r="J48" s="363"/>
-      <c r="K48" s="363"/>
-      <c r="L48" s="363"/>
-      <c r="M48" s="363"/>
-      <c r="N48" s="363"/>
-      <c r="O48" s="363"/>
-      <c r="P48" s="363"/>
-      <c r="Q48" s="363"/>
-      <c r="R48" s="363"/>
+      <c r="G48" s="379"/>
+      <c r="H48" s="379"/>
+      <c r="I48" s="379"/>
+      <c r="J48" s="379"/>
+      <c r="K48" s="379"/>
+      <c r="L48" s="379"/>
+      <c r="M48" s="379"/>
+      <c r="N48" s="379"/>
+      <c r="O48" s="379"/>
+      <c r="P48" s="379"/>
+      <c r="Q48" s="379"/>
+      <c r="R48" s="379"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -18263,12 +18292,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18277,6 +18300,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18315,50 +18344,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="343" t="s">
+      <c r="A5" s="358" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="344"/>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="344"/>
-      <c r="J5" s="344"/>
-      <c r="K5" s="344"/>
-      <c r="L5" s="344"/>
-      <c r="M5" s="344"/>
-      <c r="N5" s="344"/>
-      <c r="O5" s="344"/>
-      <c r="P5" s="344"/>
-      <c r="Q5" s="344"/>
-      <c r="R5" s="344"/>
-      <c r="S5" s="344"/>
+      <c r="B5" s="359"/>
+      <c r="C5" s="359"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="359"/>
+      <c r="G5" s="359"/>
+      <c r="H5" s="359"/>
+      <c r="I5" s="359"/>
+      <c r="J5" s="359"/>
+      <c r="K5" s="359"/>
+      <c r="L5" s="359"/>
+      <c r="M5" s="359"/>
+      <c r="N5" s="359"/>
+      <c r="O5" s="359"/>
+      <c r="P5" s="359"/>
+      <c r="Q5" s="359"/>
+      <c r="R5" s="359"/>
+      <c r="S5" s="359"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="345" t="s">
+      <c r="A6" s="360" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="345"/>
-      <c r="C6" s="345"/>
-      <c r="D6" s="345"/>
-      <c r="E6" s="345"/>
-      <c r="F6" s="345"/>
-      <c r="G6" s="345"/>
-      <c r="H6" s="345"/>
-      <c r="I6" s="345"/>
-      <c r="J6" s="345"/>
-      <c r="K6" s="345"/>
-      <c r="L6" s="345"/>
-      <c r="M6" s="345"/>
-      <c r="N6" s="345"/>
-      <c r="O6" s="345"/>
-      <c r="P6" s="345"/>
-      <c r="Q6" s="345"/>
-      <c r="R6" s="345"/>
-      <c r="S6" s="345"/>
+      <c r="B6" s="360"/>
+      <c r="C6" s="360"/>
+      <c r="D6" s="360"/>
+      <c r="E6" s="360"/>
+      <c r="F6" s="360"/>
+      <c r="G6" s="360"/>
+      <c r="H6" s="360"/>
+      <c r="I6" s="360"/>
+      <c r="J6" s="360"/>
+      <c r="K6" s="360"/>
+      <c r="L6" s="360"/>
+      <c r="M6" s="360"/>
+      <c r="N6" s="360"/>
+      <c r="O6" s="360"/>
+      <c r="P6" s="360"/>
+      <c r="Q6" s="360"/>
+      <c r="R6" s="360"/>
+      <c r="S6" s="360"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -18398,10 +18427,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="346" t="s">
+      <c r="R8" s="361" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="347"/>
+      <c r="S8" s="362"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -21272,10 +21301,10 @@
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="366" t="s">
+      <c r="D75" s="381" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="367"/>
+      <c r="E75" s="382"/>
       <c r="F75" s="25">
         <v>-75.135000000000005</v>
       </c>
@@ -22245,23 +22274,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="349" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="335"/>
+      <c r="B1" s="350"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="342" t="s">
+      <c r="J1" s="357" t="s">
         <v>279</v>
       </c>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
-      <c r="X1" s="326"/>
-      <c r="Y1" s="326"/>
+      <c r="V1" s="341"/>
+      <c r="W1" s="341"/>
+      <c r="X1" s="341"/>
+      <c r="Y1" s="341"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="351" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="126"/>
@@ -22269,68 +22298,68 @@
         <v>192</v>
       </c>
       <c r="I2" s="241"/>
-      <c r="J2" s="342"/>
+      <c r="J2" s="357"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A3" s="337"/>
+      <c r="A3" s="352"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
       <c r="I3" s="241"/>
-      <c r="J3" s="342"/>
+      <c r="J3" s="357"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A4" s="337"/>
+      <c r="A4" s="352"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A5" s="338"/>
+      <c r="A5" s="353"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C7" s="339" t="s">
+      <c r="C7" s="354" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="340"/>
-      <c r="E7" s="340"/>
-      <c r="F7" s="341"/>
-      <c r="G7" s="339" t="s">
+      <c r="D7" s="355"/>
+      <c r="E7" s="355"/>
+      <c r="F7" s="356"/>
+      <c r="G7" s="354" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="340"/>
-      <c r="I7" s="340"/>
-      <c r="J7" s="341"/>
-      <c r="K7" s="339" t="s">
+      <c r="H7" s="355"/>
+      <c r="I7" s="355"/>
+      <c r="J7" s="356"/>
+      <c r="K7" s="354" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="340"/>
-      <c r="M7" s="340"/>
-      <c r="N7" s="340"/>
-      <c r="O7" s="339" t="s">
+      <c r="L7" s="355"/>
+      <c r="M7" s="355"/>
+      <c r="N7" s="355"/>
+      <c r="O7" s="354" t="s">
         <v>269</v>
       </c>
-      <c r="P7" s="340"/>
-      <c r="Q7" s="340"/>
-      <c r="R7" s="340"/>
-      <c r="S7" s="339" t="s">
+      <c r="P7" s="355"/>
+      <c r="Q7" s="355"/>
+      <c r="R7" s="355"/>
+      <c r="S7" s="354" t="s">
         <v>273</v>
       </c>
-      <c r="T7" s="340"/>
-      <c r="U7" s="340"/>
-      <c r="V7" s="340"/>
-      <c r="W7" s="339" t="s">
+      <c r="T7" s="355"/>
+      <c r="U7" s="355"/>
+      <c r="V7" s="355"/>
+      <c r="W7" s="354" t="s">
         <v>274</v>
       </c>
-      <c r="X7" s="340"/>
-      <c r="Y7" s="340"/>
-      <c r="Z7" s="340"/>
+      <c r="X7" s="355"/>
+      <c r="Y7" s="355"/>
+      <c r="Z7" s="355"/>
       <c r="AA7" s="222" t="s">
         <v>275</v>
       </c>
@@ -26356,15 +26385,15 @@
       <c r="D68" s="100"/>
       <c r="E68" s="218">
         <f>main!L86/1000</f>
-        <v>321.35000000000002</v>
+        <v>349.75</v>
       </c>
       <c r="F68" s="218">
         <f>main!M86/1000</f>
-        <v>291.39999999999998</v>
+        <v>307.2</v>
       </c>
       <c r="G68" s="151">
         <f>main!N86/1000</f>
-        <v>284.15100000000001</v>
+        <v>299.351</v>
       </c>
       <c r="H68" s="218">
         <f>main!O86/1000</f>
@@ -26618,11 +26647,11 @@
       <c r="E71" s="217"/>
       <c r="F71" s="217">
         <f>F68-F69</f>
-        <v>-9.2000000000000455</v>
+        <v>6.5999999999999659</v>
       </c>
       <c r="G71" s="150">
         <f t="shared" ref="G71:K71" si="118">G68-G69</f>
-        <v>-19.800000000000011</v>
+        <v>-4.6000000000000227</v>
       </c>
       <c r="H71" s="217">
         <f t="shared" si="118"/>
@@ -26853,7 +26882,7 @@
       </c>
       <c r="J2" s="102">
         <f>'add-ons calculations'!E68</f>
-        <v>321.35000000000002</v>
+        <v>349.75</v>
       </c>
       <c r="K2" s="102">
         <v>1084.5999999999999</v>
@@ -26909,11 +26938,11 @@
       </c>
       <c r="I3">
         <f t="array" ref="I3:I24">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>-9.2000000000000455</v>
+        <v>6.5999999999999659</v>
       </c>
       <c r="J3" s="102">
         <f>'add-ons calculations'!F68</f>
-        <v>291.39999999999998</v>
+        <v>307.2</v>
       </c>
       <c r="K3" s="102">
         <v>775.2</v>
@@ -26961,11 +26990,11 @@
         <v>0.63599999999996726</v>
       </c>
       <c r="I4">
-        <v>-19.800000000000011</v>
+        <v>-4.6000000000000227</v>
       </c>
       <c r="J4" s="151">
         <f>'add-ons calculations'!G68</f>
-        <v>284.15100000000001</v>
+        <v>299.351</v>
       </c>
       <c r="K4" s="102">
         <v>296.39999999999998</v>
@@ -27920,36 +27949,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="D1" s="326" t="s">
+      <c r="D1" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326" t="s">
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="326"/>
-      <c r="J1" s="326"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326" t="s">
+      <c r="I1" s="341"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326" t="s">
+      <c r="M1" s="341"/>
+      <c r="N1" s="341"/>
+      <c r="O1" s="341"/>
+      <c r="P1" s="341" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
-      <c r="T1" s="326" t="s">
+      <c r="Q1" s="341"/>
+      <c r="R1" s="341"/>
+      <c r="S1" s="341"/>
+      <c r="T1" s="341" t="s">
         <v>265</v>
       </c>
-      <c r="U1" s="326"/>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
+      <c r="U1" s="341"/>
+      <c r="V1" s="341"/>
+      <c r="W1" s="341"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D2" s="197" t="s">
@@ -28359,22 +28388,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="349" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="335"/>
+      <c r="B1" s="350"/>
       <c r="C1" s="35"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="342" t="s">
+      <c r="J1" s="357" t="s">
         <v>279</v>
       </c>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
-      <c r="X1" s="326"/>
-      <c r="Y1" s="326"/>
+      <c r="V1" s="341"/>
+      <c r="W1" s="341"/>
+      <c r="X1" s="341"/>
+      <c r="Y1" s="341"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="351" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="126"/>
@@ -28383,20 +28412,20 @@
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="241"/>
-      <c r="J2" s="342"/>
+      <c r="J2" s="357"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="337"/>
+      <c r="A3" s="352"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="241"/>
-      <c r="J3" s="342"/>
+      <c r="J3" s="357"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="337"/>
+      <c r="A4" s="352"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>194</v>
@@ -28406,7 +28435,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="338"/>
+      <c r="A5" s="353"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>181</v>
@@ -28421,42 +28450,42 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="339" t="s">
+      <c r="C7" s="354" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="340"/>
-      <c r="E7" s="340"/>
-      <c r="F7" s="341"/>
-      <c r="G7" s="339" t="s">
+      <c r="D7" s="355"/>
+      <c r="E7" s="355"/>
+      <c r="F7" s="356"/>
+      <c r="G7" s="354" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="340"/>
-      <c r="I7" s="340"/>
-      <c r="J7" s="341"/>
-      <c r="K7" s="339" t="s">
+      <c r="H7" s="355"/>
+      <c r="I7" s="355"/>
+      <c r="J7" s="356"/>
+      <c r="K7" s="354" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="340"/>
-      <c r="M7" s="340"/>
-      <c r="N7" s="340"/>
-      <c r="O7" s="339" t="s">
+      <c r="L7" s="355"/>
+      <c r="M7" s="355"/>
+      <c r="N7" s="355"/>
+      <c r="O7" s="354" t="s">
         <v>269</v>
       </c>
-      <c r="P7" s="340"/>
-      <c r="Q7" s="340"/>
-      <c r="R7" s="340"/>
-      <c r="S7" s="339" t="s">
+      <c r="P7" s="355"/>
+      <c r="Q7" s="355"/>
+      <c r="R7" s="355"/>
+      <c r="S7" s="354" t="s">
         <v>273</v>
       </c>
-      <c r="T7" s="340"/>
-      <c r="U7" s="340"/>
-      <c r="V7" s="340"/>
-      <c r="W7" s="339" t="s">
+      <c r="T7" s="355"/>
+      <c r="U7" s="355"/>
+      <c r="V7" s="355"/>
+      <c r="W7" s="354" t="s">
         <v>274</v>
       </c>
-      <c r="X7" s="340"/>
-      <c r="Y7" s="340"/>
-      <c r="Z7" s="340"/>
+      <c r="X7" s="355"/>
+      <c r="Y7" s="355"/>
+      <c r="Z7" s="355"/>
       <c r="AA7" s="222" t="s">
         <v>275</v>
       </c>
@@ -31345,7 +31374,7 @@
       </c>
       <c r="I2" s="259">
         <f t="array" ref="I2:I23">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>-9.2000000000000455</v>
+        <v>6.5999999999999659</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -31374,7 +31403,7 @@
         <v>0.63599999999996726</v>
       </c>
       <c r="I3" s="259">
-        <v>-19.800000000000011</v>
+        <v>-4.6000000000000227</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -32993,18 +33022,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33225,14 +33254,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -33245,6 +33266,14 @@
     <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/add-ons/add_factors_old_sophia.xlsx
+++ b/data/add-ons/add_factors_old_sophia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0B2CDF-1BDD-4301-B563-65227E2F3576}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3C0502C-FC58-4492-A55D-4D6A183ED256}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
@@ -66,7 +66,6 @@
     <author>tc={A0B72D47-4ADC-4971-B431-B9EA6C91AE60}</author>
     <author>tc={2D81BDF9-A0D8-4A1A-915B-91D32E8E61FF}</author>
     <author>tc={33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}</author>
-    <author>tc={40167970-C0F0-4C09-9098-80E03CD0CE14}</author>
     <author>tc={8D1CFFB8-D62F-4FA1-AB58-5320D39AA096}</author>
     <author>tc={DA48DE65-66E5-4DD8-819A-2F757A61D389}</author>
     <author>tc={1FC8F5D3-F5DD-4502-A8BF-AD36B99CFAF5}</author>
@@ -533,17 +532,7 @@
     we're comfortable leaving this as is</t>
       </text>
     </comment>
-    <comment ref="L78" authorId="15" shapeId="0" xr:uid="{40167970-C0F0-4C09-9098-80E03CD0CE14}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    CBO indicated 17 for q2? why do we split the quarter 3 payments into q2?
-Reply:
-    we're comfortable leaving this as is</t>
-      </text>
-    </comment>
-    <comment ref="O82" authorId="16" shapeId="0" xr:uid="{8D1CFFB8-D62F-4FA1-AB58-5320D39AA096}">
+    <comment ref="O82" authorId="15" shapeId="0" xr:uid="{8D1CFFB8-D62F-4FA1-AB58-5320D39AA096}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -551,7 +540,7 @@
     CRFB estimates $29B ($45 minus $16B for airline which is inn subsidies). MPC is 100% over 12 quarters. And then annualized</t>
       </text>
     </comment>
-    <comment ref="O83" authorId="17" shapeId="0" xr:uid="{DA48DE65-66E5-4DD8-819A-2F757A61D389}">
+    <comment ref="O83" authorId="16" shapeId="0" xr:uid="{DA48DE65-66E5-4DD8-819A-2F757A61D389}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -559,7 +548,7 @@
     CRFB: estimates $82B. According to the Louise x Wendy, MPC is 100% over 3 years.</t>
       </text>
     </comment>
-    <comment ref="O84" authorId="18" shapeId="0" xr:uid="{1FC8F5D3-F5DD-4502-A8BF-AD36B99CFAF5}">
+    <comment ref="O84" authorId="17" shapeId="0" xr:uid="{1FC8F5D3-F5DD-4502-A8BF-AD36B99CFAF5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -567,7 +556,7 @@
     CRFB: estimates $63B. MPC is 100% over 12 quarters and then annualize</t>
       </text>
     </comment>
-    <comment ref="O85" authorId="19" shapeId="0" xr:uid="{99D44059-B7C8-4B13-A311-FD754252DDFC}">
+    <comment ref="O85" authorId="18" shapeId="0" xr:uid="{99D44059-B7C8-4B13-A311-FD754252DDFC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -600,7 +589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N101" authorId="20" shapeId="0" xr:uid="{11731043-8530-4DAC-9476-3C98D0D836BB}">
+    <comment ref="N101" authorId="19" shapeId="0" xr:uid="{11731043-8530-4DAC-9476-3C98D0D836BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -641,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O113" authorId="21" shapeId="0" xr:uid="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
+    <comment ref="O113" authorId="20" shapeId="0" xr:uid="{D84F0053-F219-4B69-8181-0F12AE7D3FC2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -651,7 +640,7 @@
     cbo proected it will be 2.3%. should we still ovverride with 4%?</t>
       </text>
     </comment>
-    <comment ref="P113" authorId="22" shapeId="0" xr:uid="{3B711313-D2C6-42FC-83C8-BA827015079B}">
+    <comment ref="P113" authorId="21" shapeId="0" xr:uid="{3B711313-D2C6-42FC-83C8-BA827015079B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -2161,7 +2150,7 @@
     <numFmt numFmtId="171" formatCode="0.000%"/>
     <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2383,12 +2372,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="19">
@@ -3513,29 +3496,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3611,21 +3571,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3647,18 +3592,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4109,12 +4092,6 @@
   <threadedComment ref="L77" dT="2020-10-28T16:31:53.35" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{1079BF34-6E2F-4888-8715-72B28B28D9AA}" parentId="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
     <text>we're comfortable leaving this as is</text>
   </threadedComment>
-  <threadedComment ref="L78" dT="2020-10-27T15:26:37.39" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{40167970-C0F0-4C09-9098-80E03CD0CE14}">
-    <text>CBO indicated 17 for q2? why do we split the quarter 3 payments into q2?</text>
-  </threadedComment>
-  <threadedComment ref="L78" dT="2020-10-28T16:31:53.35" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{E1C08428-8D2F-4F91-B16A-33C4F07D6062}" parentId="{40167970-C0F0-4C09-9098-80E03CD0CE14}">
-    <text>we're comfortable leaving this as is</text>
-  </threadedComment>
   <threadedComment ref="O82" dT="2020-12-21T21:08:26.13" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{8D1CFFB8-D62F-4FA1-AB58-5320D39AA096}">
     <text>CRFB estimates $29B ($45 minus $16B for airline which is inn subsidies). MPC is 100% over 12 quarters. And then annualized</text>
   </threadedComment>
@@ -4202,86 +4179,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="327" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="342"/>
+      <c r="B1" s="327"/>
       <c r="C1" s="268"/>
       <c r="D1" s="268"/>
       <c r="E1" s="35"/>
       <c r="N1" t="s">
         <v>373</v>
       </c>
-      <c r="AC1" s="348" t="s">
+      <c r="AC1" s="333" t="s">
         <v>247</v>
       </c>
-      <c r="AD1" s="348"/>
-      <c r="AE1" s="346" t="s">
+      <c r="AD1" s="333"/>
+      <c r="AE1" s="331" t="s">
         <v>245</v>
       </c>
-      <c r="AF1" s="347"/>
+      <c r="AF1" s="332"/>
       <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="344" t="s">
+      <c r="AI1" s="329" t="s">
         <v>278</v>
       </c>
-      <c r="AJ1" s="344"/>
-      <c r="AK1" s="344"/>
-      <c r="AL1" s="344"/>
-      <c r="AM1" s="343" t="s">
+      <c r="AJ1" s="329"/>
+      <c r="AK1" s="329"/>
+      <c r="AL1" s="329"/>
+      <c r="AM1" s="328" t="s">
         <v>276</v>
       </c>
-      <c r="AN1" s="343"/>
-      <c r="AO1" s="343"/>
-      <c r="AP1" s="343"/>
+      <c r="AN1" s="328"/>
+      <c r="AO1" s="328"/>
+      <c r="AP1" s="328"/>
     </row>
     <row r="2" spans="1:43" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="341" t="s">
+      <c r="F2" s="326" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="341"/>
-      <c r="H2" s="341"/>
-      <c r="I2" s="341"/>
-      <c r="J2" s="341" t="s">
+      <c r="G2" s="326"/>
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="341"/>
-      <c r="L2" s="341"/>
-      <c r="M2" s="341"/>
-      <c r="N2" s="341" t="s">
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="326"/>
+      <c r="N2" s="326" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="341"/>
-      <c r="P2" s="341"/>
-      <c r="Q2" s="341"/>
-      <c r="R2" s="341" t="s">
+      <c r="O2" s="326"/>
+      <c r="P2" s="326"/>
+      <c r="Q2" s="326"/>
+      <c r="R2" s="326" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="341"/>
-      <c r="T2" s="341"/>
-      <c r="U2" s="341"/>
-      <c r="V2" s="341" t="s">
+      <c r="S2" s="326"/>
+      <c r="T2" s="326"/>
+      <c r="U2" s="326"/>
+      <c r="V2" s="326" t="s">
         <v>265</v>
       </c>
-      <c r="W2" s="341"/>
-      <c r="X2" s="341"/>
-      <c r="Y2" s="341"/>
+      <c r="W2" s="326"/>
+      <c r="X2" s="326"/>
+      <c r="Y2" s="326"/>
       <c r="Z2" s="221"/>
       <c r="AA2" s="283"/>
       <c r="AB2" s="221"/>
-      <c r="AC2" s="341" t="s">
+      <c r="AC2" s="326" t="s">
         <v>102</v>
       </c>
-      <c r="AD2" s="341"/>
-      <c r="AE2" s="341"/>
-      <c r="AF2" s="341"/>
-      <c r="AG2" s="341"/>
-      <c r="AH2" s="341"/>
-      <c r="AI2" s="341"/>
-      <c r="AJ2" s="341"/>
-      <c r="AK2" s="341"/>
-      <c r="AL2" s="345"/>
+      <c r="AD2" s="326"/>
+      <c r="AE2" s="326"/>
+      <c r="AF2" s="326"/>
+      <c r="AG2" s="326"/>
+      <c r="AH2" s="326"/>
+      <c r="AI2" s="326"/>
+      <c r="AJ2" s="326"/>
+      <c r="AK2" s="326"/>
+      <c r="AL2" s="330"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="F3" s="197" t="s">
@@ -4388,10 +4365,10 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="340" t="s">
+      <c r="A4" s="325" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="340"/>
+      <c r="B4" s="325"/>
       <c r="C4" s="268"/>
       <c r="D4" s="268"/>
       <c r="F4" s="197"/>
@@ -6416,31 +6393,31 @@
         <v>2925056</v>
       </c>
       <c r="O34" s="133">
-        <f t="shared" ref="O34:U34" si="29">O35+O40+O51</f>
+        <f>O35+O40+O51</f>
         <v>3270456.7169724014</v>
       </c>
       <c r="P34" s="133">
-        <f t="shared" si="29"/>
+        <f>P35+P40+P51</f>
         <v>2708796.7165770018</v>
       </c>
       <c r="Q34" s="133">
-        <f t="shared" si="29"/>
+        <f>Q35+Q40+Q51</f>
         <v>2611509.6718853824</v>
       </c>
       <c r="R34" s="133">
-        <f t="shared" si="29"/>
+        <f>R35+R40+R51</f>
         <v>2678465.9441347551</v>
       </c>
       <c r="S34" s="133">
-        <f t="shared" si="29"/>
+        <f>S35+S40+S51</f>
         <v>2735176.6542439447</v>
       </c>
       <c r="T34" s="133">
-        <f t="shared" si="29"/>
+        <f>T35+T40+T51</f>
         <v>2793300.2519227522</v>
       </c>
       <c r="U34" s="133">
-        <f t="shared" si="29"/>
+        <f>U35+U40+U51</f>
         <v>2852876.3150512893</v>
       </c>
       <c r="V34" s="87"/>
@@ -6818,35 +6795,35 @@
         <v>338269</v>
       </c>
       <c r="O40" s="87">
-        <f t="shared" ref="O40:V40" si="30">O42+O46</f>
+        <f t="shared" ref="O40:V40" si="29">O42+O46</f>
         <v>724000</v>
       </c>
       <c r="P40" s="87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>152000</v>
       </c>
       <c r="Q40" s="87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>44000</v>
       </c>
       <c r="R40" s="87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>44000</v>
       </c>
       <c r="S40" s="87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>44000</v>
       </c>
       <c r="T40" s="87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>44000</v>
       </c>
       <c r="U40" s="87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>44000</v>
       </c>
       <c r="V40" s="87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>44000</v>
       </c>
       <c r="W40" s="44"/>
@@ -6868,7 +6845,7 @@
         <v>314.56725</v>
       </c>
       <c r="AF40" s="45">
-        <f t="shared" ref="AF40:AF51" si="31">AVERAGE(R40:U40)/1000</f>
+        <f t="shared" ref="AF40:AF51" si="30">AVERAGE(R40:U40)/1000</f>
         <v>44</v>
       </c>
       <c r="AH40">
@@ -6967,11 +6944,11 @@
         <v>108000</v>
       </c>
       <c r="Q42" s="87">
-        <f t="shared" ref="Q42" si="32">Q43+Q44+Q45</f>
+        <f t="shared" ref="Q42" si="31">Q43+Q44+Q45</f>
         <v>0</v>
       </c>
       <c r="R42" s="87">
-        <f t="shared" ref="R42" si="33">R43+R44</f>
+        <f t="shared" ref="R42" si="32">R43+R44</f>
         <v>0</v>
       </c>
       <c r="S42" s="87"/>
@@ -7065,7 +7042,7 @@
         <v>139.42500000000001</v>
       </c>
       <c r="AF43" s="45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AG43" s="3"/>
@@ -7231,7 +7208,7 @@
         <v>46.174999999999997</v>
       </c>
       <c r="AF46" s="45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>44</v>
       </c>
       <c r="AG46" s="3"/>
@@ -7242,81 +7219,81 @@
       <c r="AM46" s="182"/>
     </row>
     <row r="47" spans="1:39" s="107" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="325" t="s">
+      <c r="A47" s="368" t="s">
         <v>147</v>
       </c>
-      <c r="F47" s="326"/>
-      <c r="G47" s="326"/>
-      <c r="H47" s="326"/>
-      <c r="I47" s="326"/>
-      <c r="J47" s="326">
+      <c r="F47" s="369"/>
+      <c r="G47" s="369"/>
+      <c r="H47" s="369"/>
+      <c r="I47" s="369"/>
+      <c r="J47" s="369">
         <v>0</v>
       </c>
-      <c r="K47" s="326">
+      <c r="K47" s="369">
         <v>0</v>
       </c>
-      <c r="L47" s="326">
+      <c r="L47" s="369">
         <f>SUM(L48:L50)</f>
         <v>179900</v>
       </c>
-      <c r="M47" s="327">
+      <c r="M47" s="370">
         <v>85400</v>
       </c>
-      <c r="N47" s="328">
+      <c r="N47" s="371">
         <f>SUM(N48:N50)</f>
         <v>45300</v>
       </c>
-      <c r="O47" s="329">
-        <f t="shared" ref="O47:R47" si="34">SUM(O48:O50)</f>
+      <c r="O47" s="372">
+        <f t="shared" ref="O47:R47" si="33">SUM(O48:O50)</f>
         <v>54177.595548489669</v>
       </c>
-      <c r="P47" s="329">
-        <f t="shared" si="34"/>
+      <c r="P47" s="372">
+        <f t="shared" si="33"/>
         <v>43000</v>
       </c>
-      <c r="Q47" s="329">
-        <f t="shared" si="34"/>
+      <c r="Q47" s="372">
+        <f t="shared" si="33"/>
         <v>43000</v>
       </c>
-      <c r="R47" s="329">
-        <f t="shared" si="34"/>
+      <c r="R47" s="372">
+        <f t="shared" si="33"/>
         <v>15000</v>
       </c>
-      <c r="S47" s="329"/>
-      <c r="T47" s="329"/>
-      <c r="U47" s="329"/>
-      <c r="V47" s="330"/>
-      <c r="W47" s="330"/>
-      <c r="X47" s="330"/>
-      <c r="Y47" s="330"/>
-      <c r="Z47" s="330"/>
-      <c r="AA47" s="330"/>
-      <c r="AB47" s="330"/>
-      <c r="AC47" s="330"/>
-      <c r="AD47" s="331">
+      <c r="S47" s="372"/>
+      <c r="T47" s="372"/>
+      <c r="U47" s="372"/>
+      <c r="V47" s="373"/>
+      <c r="W47" s="373"/>
+      <c r="X47" s="373"/>
+      <c r="Y47" s="373"/>
+      <c r="Z47" s="373"/>
+      <c r="AA47" s="373"/>
+      <c r="AB47" s="373"/>
+      <c r="AC47" s="373"/>
+      <c r="AD47" s="374">
         <f>AVERAGE(J47:M47)/1000</f>
         <v>66.325000000000003</v>
       </c>
-      <c r="AE47" s="331">
+      <c r="AE47" s="374">
         <f>AVERAGE(N47:Q47)/1000</f>
         <v>46.369398887122415</v>
       </c>
-      <c r="AF47" s="331">
-        <f t="shared" ref="AF47" si="35">AVERAGE(R47:U47)/1000</f>
+      <c r="AF47" s="374">
+        <f t="shared" ref="AF47" si="34">AVERAGE(R47:U47)/1000</f>
         <v>15</v>
       </c>
-      <c r="AG47" s="330"/>
-      <c r="AI47" s="330">
+      <c r="AG47" s="373"/>
+      <c r="AI47" s="373">
         <f>'figuring out social benefits'!G48</f>
         <v>105</v>
       </c>
-      <c r="AJ47" s="330"/>
-      <c r="AK47" s="330"/>
-      <c r="AL47" s="330"/>
-      <c r="AM47" s="332"/>
+      <c r="AJ47" s="373"/>
+      <c r="AK47" s="373"/>
+      <c r="AL47" s="373"/>
+      <c r="AM47" s="375"/>
     </row>
     <row r="48" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="333" t="s">
+      <c r="A48" s="376" t="s">
         <v>205</v>
       </c>
       <c r="B48" s="107" t="s">
@@ -7325,57 +7302,57 @@
       <c r="C48" s="107" t="s">
         <v>305</v>
       </c>
-      <c r="F48" s="326"/>
-      <c r="G48" s="326"/>
-      <c r="H48" s="326"/>
-      <c r="I48" s="326"/>
-      <c r="J48" s="326"/>
-      <c r="K48" s="326"/>
-      <c r="L48" s="326">
+      <c r="F48" s="369"/>
+      <c r="G48" s="369"/>
+      <c r="H48" s="369"/>
+      <c r="I48" s="369"/>
+      <c r="J48" s="369"/>
+      <c r="K48" s="369"/>
+      <c r="L48" s="369">
         <v>19000</v>
       </c>
-      <c r="M48" s="327">
+      <c r="M48" s="370">
         <v>27000</v>
       </c>
-      <c r="N48" s="328">
+      <c r="N48" s="371">
         <f>VLOOKUP($C$48,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>10800</v>
       </c>
-      <c r="O48" s="329">
+      <c r="O48" s="372">
         <v>377.5955484896661</v>
       </c>
-      <c r="P48" s="329">
+      <c r="P48" s="372">
         <v>0</v>
       </c>
-      <c r="Q48" s="329">
+      <c r="Q48" s="372">
         <v>0</v>
       </c>
-      <c r="R48" s="329">
+      <c r="R48" s="372">
         <v>0</v>
       </c>
-      <c r="S48" s="329"/>
-      <c r="T48" s="329"/>
-      <c r="U48" s="329"/>
-      <c r="V48" s="329"/>
-      <c r="W48" s="329"/>
-      <c r="X48" s="329"/>
-      <c r="Y48" s="329"/>
-      <c r="Z48" s="329"/>
-      <c r="AA48" s="329"/>
-      <c r="AB48" s="329"/>
-      <c r="AC48" s="329"/>
-      <c r="AD48" s="329"/>
-      <c r="AE48" s="329"/>
-      <c r="AF48" s="329"/>
-      <c r="AG48" s="329"/>
-      <c r="AI48" s="330"/>
-      <c r="AJ48" s="330"/>
-      <c r="AK48" s="330"/>
-      <c r="AL48" s="330"/>
-      <c r="AM48" s="332"/>
+      <c r="S48" s="372"/>
+      <c r="T48" s="372"/>
+      <c r="U48" s="372"/>
+      <c r="V48" s="372"/>
+      <c r="W48" s="372"/>
+      <c r="X48" s="372"/>
+      <c r="Y48" s="372"/>
+      <c r="Z48" s="372"/>
+      <c r="AA48" s="372"/>
+      <c r="AB48" s="372"/>
+      <c r="AC48" s="372"/>
+      <c r="AD48" s="372"/>
+      <c r="AE48" s="372"/>
+      <c r="AF48" s="372"/>
+      <c r="AG48" s="372"/>
+      <c r="AI48" s="373"/>
+      <c r="AJ48" s="373"/>
+      <c r="AK48" s="373"/>
+      <c r="AL48" s="373"/>
+      <c r="AM48" s="375"/>
     </row>
     <row r="49" spans="1:41" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="333" t="s">
+      <c r="A49" s="376" t="s">
         <v>382</v>
       </c>
       <c r="B49" s="107" t="s">
@@ -7384,44 +7361,44 @@
       <c r="C49" s="107" t="s">
         <v>305</v>
       </c>
-      <c r="F49" s="326"/>
-      <c r="G49" s="326"/>
-      <c r="H49" s="326"/>
-      <c r="I49" s="326"/>
-      <c r="J49" s="326"/>
-      <c r="K49" s="326"/>
-      <c r="L49" s="326"/>
-      <c r="M49" s="327"/>
-      <c r="N49" s="328"/>
-      <c r="O49" s="329">
+      <c r="F49" s="369"/>
+      <c r="G49" s="369"/>
+      <c r="H49" s="369"/>
+      <c r="I49" s="369"/>
+      <c r="J49" s="369"/>
+      <c r="K49" s="369"/>
+      <c r="L49" s="369"/>
+      <c r="M49" s="370"/>
+      <c r="N49" s="371"/>
+      <c r="O49" s="372">
         <v>10800</v>
       </c>
-      <c r="P49" s="329"/>
-      <c r="Q49" s="329"/>
-      <c r="R49" s="329"/>
-      <c r="S49" s="329"/>
-      <c r="T49" s="329"/>
-      <c r="U49" s="329"/>
-      <c r="V49" s="329"/>
-      <c r="W49" s="329"/>
-      <c r="X49" s="329"/>
-      <c r="Y49" s="329"/>
-      <c r="Z49" s="329"/>
-      <c r="AA49" s="329"/>
-      <c r="AB49" s="329"/>
-      <c r="AC49" s="329"/>
-      <c r="AD49" s="329"/>
-      <c r="AE49" s="329"/>
-      <c r="AF49" s="329"/>
-      <c r="AG49" s="329"/>
-      <c r="AI49" s="330"/>
-      <c r="AJ49" s="330"/>
-      <c r="AK49" s="330"/>
-      <c r="AL49" s="330"/>
-      <c r="AM49" s="332"/>
+      <c r="P49" s="372"/>
+      <c r="Q49" s="372"/>
+      <c r="R49" s="372"/>
+      <c r="S49" s="372"/>
+      <c r="T49" s="372"/>
+      <c r="U49" s="372"/>
+      <c r="V49" s="372"/>
+      <c r="W49" s="372"/>
+      <c r="X49" s="372"/>
+      <c r="Y49" s="372"/>
+      <c r="Z49" s="372"/>
+      <c r="AA49" s="372"/>
+      <c r="AB49" s="372"/>
+      <c r="AC49" s="372"/>
+      <c r="AD49" s="372"/>
+      <c r="AE49" s="372"/>
+      <c r="AF49" s="372"/>
+      <c r="AG49" s="372"/>
+      <c r="AI49" s="373"/>
+      <c r="AJ49" s="373"/>
+      <c r="AK49" s="373"/>
+      <c r="AL49" s="373"/>
+      <c r="AM49" s="375"/>
     </row>
     <row r="50" spans="1:41" s="107" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="333" t="s">
+      <c r="A50" s="376" t="s">
         <v>383</v>
       </c>
       <c r="B50" s="107" t="s">
@@ -7430,54 +7407,54 @@
       <c r="C50" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="F50" s="326"/>
-      <c r="G50" s="326"/>
-      <c r="H50" s="326"/>
-      <c r="I50" s="326"/>
-      <c r="J50" s="326"/>
-      <c r="K50" s="326"/>
-      <c r="L50" s="326">
+      <c r="F50" s="369"/>
+      <c r="G50" s="369"/>
+      <c r="H50" s="369"/>
+      <c r="I50" s="369"/>
+      <c r="J50" s="369"/>
+      <c r="K50" s="369"/>
+      <c r="L50" s="369">
         <v>160900</v>
       </c>
-      <c r="M50" s="327">
+      <c r="M50" s="370">
         <v>58400</v>
       </c>
-      <c r="N50" s="328">
+      <c r="N50" s="371">
         <f>VLOOKUP($C$50,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>34500</v>
       </c>
-      <c r="O50" s="329">
+      <c r="O50" s="372">
         <v>43000</v>
       </c>
-      <c r="P50" s="329">
+      <c r="P50" s="372">
         <v>43000</v>
       </c>
-      <c r="Q50" s="329">
+      <c r="Q50" s="372">
         <v>43000</v>
       </c>
-      <c r="R50" s="329">
+      <c r="R50" s="372">
         <v>15000</v>
       </c>
-      <c r="S50" s="329"/>
-      <c r="T50" s="329"/>
-      <c r="U50" s="329"/>
-      <c r="V50" s="329"/>
-      <c r="W50" s="329"/>
-      <c r="X50" s="329"/>
-      <c r="Y50" s="329"/>
-      <c r="Z50" s="329"/>
-      <c r="AA50" s="329"/>
-      <c r="AB50" s="329"/>
-      <c r="AC50" s="329"/>
-      <c r="AD50" s="329"/>
-      <c r="AE50" s="329"/>
-      <c r="AF50" s="329"/>
-      <c r="AG50" s="329"/>
-      <c r="AI50" s="330"/>
-      <c r="AJ50" s="330"/>
-      <c r="AK50" s="330"/>
-      <c r="AL50" s="330"/>
-      <c r="AM50" s="332"/>
+      <c r="S50" s="372"/>
+      <c r="T50" s="372"/>
+      <c r="U50" s="372"/>
+      <c r="V50" s="372"/>
+      <c r="W50" s="372"/>
+      <c r="X50" s="372"/>
+      <c r="Y50" s="372"/>
+      <c r="Z50" s="372"/>
+      <c r="AA50" s="372"/>
+      <c r="AB50" s="372"/>
+      <c r="AC50" s="372"/>
+      <c r="AD50" s="372"/>
+      <c r="AE50" s="372"/>
+      <c r="AF50" s="372"/>
+      <c r="AG50" s="372"/>
+      <c r="AI50" s="373"/>
+      <c r="AJ50" s="373"/>
+      <c r="AK50" s="373"/>
+      <c r="AL50" s="373"/>
+      <c r="AM50" s="375"/>
     </row>
     <row r="51" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="86" t="s">
@@ -7523,11 +7500,11 @@
         <v>1663323.8025</v>
       </c>
       <c r="P51" s="88">
-        <f t="shared" ref="P51:Q51" si="36">O51*(1+P53)</f>
+        <f t="shared" ref="P51:Q51" si="35">O51*(1+P53)</f>
         <v>1650848.87398125</v>
       </c>
       <c r="Q51" s="88">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1638467.5074263907</v>
       </c>
       <c r="R51" s="88">
@@ -7535,15 +7512,15 @@
         <v>1663044.5200377863</v>
       </c>
       <c r="S51" s="88">
-        <f t="shared" ref="S51:U51" si="37">R51*(1+S53)</f>
+        <f t="shared" ref="S51:U51" si="36">R51*(1+S53)</f>
         <v>1687990.187838353</v>
       </c>
       <c r="T51" s="88">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1713310.0406559282</v>
       </c>
       <c r="U51" s="88">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1739009.691265767</v>
       </c>
       <c r="V51" s="88">
@@ -7569,7 +7546,7 @@
         <v>1657.1332959769102</v>
       </c>
       <c r="AF51" s="45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1700.8386099494589</v>
       </c>
       <c r="AG51" s="3"/>
@@ -7608,30 +7585,30 @@
         <v>4.3899160317375507E-2</v>
       </c>
       <c r="H52" s="227">
-        <f t="shared" ref="H52:L52" si="38">H51/G51-1</f>
+        <f t="shared" ref="H52:L52" si="37">H51/G51-1</f>
         <v>3.4867401440725754E-3</v>
       </c>
       <c r="I52" s="227">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>3.5163841628156334E-3</v>
       </c>
       <c r="J52" s="227">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>5.2735975988749129E-3</v>
       </c>
       <c r="K52" s="227">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>3.4509222105193249E-2</v>
       </c>
       <c r="L52" s="227">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>4.7166587697893059E-2</v>
       </c>
       <c r="M52" s="227">
         <v>1.2783825552366457E-2</v>
       </c>
       <c r="N52" s="227">
-        <f t="shared" ref="N52" si="39">N51/M51-1</f>
+        <f t="shared" ref="N52" si="38">N51/M51-1</f>
         <v>3.6483389338011207E-3</v>
       </c>
       <c r="O52" s="226"/>
@@ -7792,51 +7769,51 @@
         <v>610536</v>
       </c>
       <c r="O55" s="144">
-        <f t="shared" ref="O55:Z55" si="40">O56+AVERAGE($H$55:$K$55)</f>
+        <f t="shared" ref="O55:Z55" si="39">O56+AVERAGE($H$55:$K$55)</f>
         <v>794083.58333333337</v>
       </c>
       <c r="P55" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>794083.58333333337</v>
       </c>
       <c r="Q55" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>144083.58333333331</v>
       </c>
       <c r="R55" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>122750.25</v>
       </c>
       <c r="S55" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>77330.25</v>
       </c>
       <c r="T55" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>77330.25</v>
       </c>
       <c r="U55" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>77330.25</v>
       </c>
       <c r="V55" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>77330.25</v>
       </c>
       <c r="W55" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>74830.25</v>
       </c>
       <c r="X55" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>74830.25</v>
       </c>
       <c r="Y55" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>74830.25</v>
       </c>
       <c r="Z55" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>74830.25</v>
       </c>
       <c r="AA55" s="44"/>
@@ -7865,7 +7842,7 @@
         <v>1093900</v>
       </c>
       <c r="N56" s="308">
-        <f t="shared" ref="N56" si="41">N58+N59+N64</f>
+        <f t="shared" ref="N56" si="40">N58+N59+N64</f>
         <v>473700</v>
       </c>
       <c r="O56" s="116">
@@ -7873,31 +7850,31 @@
         <v>719253.33333333337</v>
       </c>
       <c r="P56" s="116">
-        <f t="shared" ref="P56:V56" si="42">P58+P59+SUM(P64:P67)</f>
+        <f t="shared" ref="P56:V56" si="41">P58+P59+SUM(P64:P67)</f>
         <v>719253.33333333337</v>
       </c>
       <c r="Q56" s="116">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>69253.333333333328</v>
       </c>
       <c r="R56" s="116">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>47920</v>
       </c>
       <c r="S56" s="116">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>2500</v>
       </c>
       <c r="T56" s="116">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>2500</v>
       </c>
       <c r="U56" s="116">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>2500</v>
       </c>
       <c r="V56" s="116">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>2500</v>
       </c>
       <c r="W56" s="44"/>
@@ -8574,31 +8551,31 @@
         <v>227</v>
       </c>
       <c r="F71" s="203">
-        <f t="shared" ref="F71:L71" si="43">F69-F96</f>
+        <f t="shared" ref="F71:L71" si="42">F69-F96</f>
         <v>196851</v>
       </c>
       <c r="G71" s="203">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>189684</v>
       </c>
       <c r="H71" s="203">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>192875</v>
       </c>
       <c r="I71" s="203">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>191507</v>
       </c>
       <c r="J71" s="203">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>203997</v>
       </c>
       <c r="K71" s="203">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>204376</v>
       </c>
       <c r="L71" s="203">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>884250</v>
       </c>
       <c r="M71" s="301">
@@ -8655,47 +8632,47 @@
         <v>197738.804</v>
       </c>
       <c r="P72" s="116">
-        <f t="shared" ref="P72:Z72" si="44">O72*(1+P90)</f>
+        <f t="shared" ref="P72:Z72" si="43">O72*(1+P90)</f>
         <v>198529.75921600001</v>
       </c>
       <c r="Q72" s="116">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>199323.878252864</v>
       </c>
       <c r="R72" s="116">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>200121.17376587546</v>
       </c>
       <c r="S72" s="116">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>200921.65846093895</v>
       </c>
       <c r="T72" s="116">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>201725.34509478271</v>
       </c>
       <c r="U72" s="116">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>202532.24647516184</v>
       </c>
       <c r="V72" s="116">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>203342.37546106247</v>
       </c>
       <c r="W72" s="116">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>204155.74496290673</v>
       </c>
       <c r="X72" s="116">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>204972.36794275834</v>
       </c>
       <c r="Y72" s="116">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>205792.25741452936</v>
       </c>
       <c r="Z72" s="116">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>206615.42644418747</v>
       </c>
       <c r="AA72" s="44"/>
@@ -8769,62 +8746,62 @@
       <c r="K74" s="202"/>
       <c r="L74" s="206">
         <f>SUM(L76:L79)</f>
-        <v>118800</v>
+        <v>90400</v>
       </c>
       <c r="M74" s="206">
-        <f t="shared" ref="M74:N74" si="45">SUM(M76:M79)</f>
-        <v>103600</v>
+        <f t="shared" ref="M74:N74" si="44">SUM(M76:M79)</f>
+        <v>87800</v>
       </c>
       <c r="N74" s="206">
+        <f t="shared" si="44"/>
+        <v>87200</v>
+      </c>
+      <c r="O74" s="116">
+        <f t="shared" ref="O74:Z74" si="45">O75+O81</f>
+        <v>177900</v>
+      </c>
+      <c r="P74" s="116">
         <f t="shared" si="45"/>
-        <v>102400</v>
-      </c>
-      <c r="O74" s="116">
-        <f t="shared" ref="O74:Z74" si="46">O75+O81</f>
-        <v>177900</v>
-      </c>
-      <c r="P74" s="116">
-        <f t="shared" si="46"/>
         <v>121000</v>
       </c>
       <c r="Q74" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>121000</v>
       </c>
       <c r="R74" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>115000</v>
       </c>
       <c r="S74" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>109000</v>
       </c>
       <c r="T74" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>109000</v>
       </c>
       <c r="U74" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>109000</v>
       </c>
       <c r="V74" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>109000</v>
       </c>
       <c r="W74" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>109000</v>
       </c>
       <c r="X74" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>59000</v>
       </c>
       <c r="Y74" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>59000</v>
       </c>
       <c r="Z74" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>59000</v>
       </c>
       <c r="AA74" s="116"/>
@@ -8854,47 +8831,47 @@
         <v>118900</v>
       </c>
       <c r="P75" s="116">
-        <f t="shared" ref="P75:Z75" si="47">SUM(P76:P79)</f>
+        <f t="shared" ref="P75:Z75" si="46">SUM(P76:P79)</f>
         <v>62000</v>
       </c>
       <c r="Q75" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>62000</v>
       </c>
       <c r="R75" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>56000</v>
       </c>
       <c r="S75" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>50000</v>
       </c>
       <c r="T75" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>50000</v>
       </c>
       <c r="U75" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>50000</v>
       </c>
       <c r="V75" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>50000</v>
       </c>
       <c r="W75" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>50000</v>
       </c>
       <c r="X75" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y75" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Z75" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AA75" s="44"/>
@@ -8971,7 +8948,7 @@
       <c r="AM76" s="233"/>
     </row>
     <row r="77" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="334" t="s">
+      <c r="A77" s="377" t="s">
         <v>381</v>
       </c>
       <c r="B77" s="107" t="s">
@@ -8980,52 +8957,52 @@
       <c r="C77" s="107" t="s">
         <v>378</v>
       </c>
-      <c r="F77" s="335"/>
-      <c r="G77" s="335"/>
-      <c r="H77" s="335"/>
-      <c r="I77" s="326"/>
-      <c r="J77" s="326"/>
-      <c r="K77" s="326"/>
-      <c r="L77" s="326">
+      <c r="F77" s="378"/>
+      <c r="G77" s="378"/>
+      <c r="H77" s="378"/>
+      <c r="I77" s="369"/>
+      <c r="J77" s="369"/>
+      <c r="K77" s="369"/>
+      <c r="L77" s="369">
         <v>28400</v>
       </c>
-      <c r="M77" s="327">
+      <c r="M77" s="370">
         <v>15800</v>
       </c>
-      <c r="N77" s="336">
+      <c r="N77" s="379">
         <v>15200</v>
       </c>
-      <c r="O77" s="337">
+      <c r="O77" s="380">
         <v>18000</v>
       </c>
-      <c r="P77" s="337">
+      <c r="P77" s="380">
         <v>0</v>
       </c>
-      <c r="Q77" s="337">
+      <c r="Q77" s="380">
         <v>0</v>
       </c>
-      <c r="R77" s="337">
+      <c r="R77" s="380">
         <v>0</v>
       </c>
-      <c r="S77" s="330"/>
-      <c r="T77" s="330"/>
-      <c r="U77" s="330"/>
-      <c r="V77" s="330"/>
-      <c r="W77" s="330"/>
-      <c r="X77" s="330"/>
-      <c r="Y77" s="330"/>
-      <c r="Z77" s="330"/>
-      <c r="AA77" s="330"/>
-      <c r="AB77" s="330"/>
-      <c r="AC77" s="330"/>
-      <c r="AD77" s="330"/>
-      <c r="AE77" s="330"/>
-      <c r="AF77" s="330"/>
-      <c r="AG77" s="330"/>
-      <c r="AM77" s="338"/>
+      <c r="S77" s="373"/>
+      <c r="T77" s="373"/>
+      <c r="U77" s="373"/>
+      <c r="V77" s="373"/>
+      <c r="W77" s="373"/>
+      <c r="X77" s="373"/>
+      <c r="Y77" s="373"/>
+      <c r="Z77" s="373"/>
+      <c r="AA77" s="373"/>
+      <c r="AB77" s="373"/>
+      <c r="AC77" s="373"/>
+      <c r="AD77" s="373"/>
+      <c r="AE77" s="373"/>
+      <c r="AF77" s="373"/>
+      <c r="AG77" s="373"/>
+      <c r="AM77" s="381"/>
     </row>
     <row r="78" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="334" t="s">
+      <c r="A78" s="377" t="s">
         <v>384</v>
       </c>
       <c r="B78" s="107" t="s">
@@ -9034,46 +9011,40 @@
       <c r="C78" s="107" t="s">
         <v>378</v>
       </c>
-      <c r="F78" s="335"/>
-      <c r="G78" s="335"/>
-      <c r="H78" s="335"/>
-      <c r="I78" s="326"/>
-      <c r="J78" s="326"/>
-      <c r="K78" s="326"/>
-      <c r="L78" s="326">
-        <v>28400</v>
-      </c>
-      <c r="M78" s="327">
-        <v>15800</v>
-      </c>
-      <c r="N78" s="336">
-        <v>15200</v>
-      </c>
-      <c r="O78" s="337">
+      <c r="F78" s="378"/>
+      <c r="G78" s="378"/>
+      <c r="H78" s="378"/>
+      <c r="I78" s="369"/>
+      <c r="J78" s="369"/>
+      <c r="K78" s="369"/>
+      <c r="L78" s="369"/>
+      <c r="M78" s="370"/>
+      <c r="N78" s="379"/>
+      <c r="O78" s="380">
         <v>28900</v>
       </c>
-      <c r="P78" s="337"/>
-      <c r="Q78" s="337"/>
-      <c r="R78" s="337"/>
-      <c r="S78" s="330"/>
-      <c r="T78" s="330"/>
-      <c r="U78" s="330"/>
-      <c r="V78" s="330"/>
-      <c r="W78" s="330"/>
-      <c r="X78" s="330"/>
-      <c r="Y78" s="330"/>
-      <c r="Z78" s="330"/>
-      <c r="AA78" s="330"/>
-      <c r="AB78" s="330"/>
-      <c r="AC78" s="330"/>
-      <c r="AD78" s="330"/>
-      <c r="AE78" s="330"/>
-      <c r="AF78" s="330"/>
-      <c r="AG78" s="330"/>
-      <c r="AM78" s="338"/>
+      <c r="P78" s="380"/>
+      <c r="Q78" s="380"/>
+      <c r="R78" s="380"/>
+      <c r="S78" s="373"/>
+      <c r="T78" s="373"/>
+      <c r="U78" s="373"/>
+      <c r="V78" s="373"/>
+      <c r="W78" s="373"/>
+      <c r="X78" s="373"/>
+      <c r="Y78" s="373"/>
+      <c r="Z78" s="373"/>
+      <c r="AA78" s="373"/>
+      <c r="AB78" s="373"/>
+      <c r="AC78" s="373"/>
+      <c r="AD78" s="373"/>
+      <c r="AE78" s="373"/>
+      <c r="AF78" s="373"/>
+      <c r="AG78" s="373"/>
+      <c r="AM78" s="381"/>
     </row>
     <row r="79" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="334" t="s">
+      <c r="A79" s="377" t="s">
         <v>201</v>
       </c>
       <c r="B79" s="107" t="s">
@@ -9082,52 +9053,52 @@
       <c r="C79" s="107" t="s">
         <v>379</v>
       </c>
-      <c r="F79" s="335"/>
-      <c r="G79" s="335"/>
-      <c r="H79" s="335"/>
-      <c r="I79" s="326"/>
-      <c r="J79" s="326"/>
-      <c r="K79" s="326"/>
-      <c r="L79" s="326">
+      <c r="F79" s="378"/>
+      <c r="G79" s="378"/>
+      <c r="H79" s="378"/>
+      <c r="I79" s="369"/>
+      <c r="J79" s="369"/>
+      <c r="K79" s="369"/>
+      <c r="L79" s="369">
         <v>27000</v>
       </c>
-      <c r="M79" s="327">
+      <c r="M79" s="370">
         <v>27000</v>
       </c>
-      <c r="N79" s="336">
+      <c r="N79" s="379">
         <v>12000</v>
       </c>
-      <c r="O79" s="337">
+      <c r="O79" s="380">
         <v>12000</v>
       </c>
-      <c r="P79" s="337">
+      <c r="P79" s="380">
         <v>12000</v>
       </c>
-      <c r="Q79" s="337">
+      <c r="Q79" s="380">
         <v>12000</v>
       </c>
-      <c r="R79" s="337">
+      <c r="R79" s="380">
         <v>6000</v>
       </c>
-      <c r="S79" s="330"/>
-      <c r="T79" s="330"/>
-      <c r="U79" s="330"/>
-      <c r="V79" s="330"/>
-      <c r="W79" s="330"/>
-      <c r="X79" s="330"/>
-      <c r="Y79" s="330"/>
-      <c r="Z79" s="330"/>
-      <c r="AA79" s="330"/>
-      <c r="AB79" s="330"/>
-      <c r="AC79" s="330"/>
-      <c r="AD79" s="330"/>
-      <c r="AE79" s="330"/>
-      <c r="AF79" s="330"/>
-      <c r="AG79" s="330"/>
-      <c r="AM79" s="338"/>
+      <c r="S79" s="373"/>
+      <c r="T79" s="373"/>
+      <c r="U79" s="373"/>
+      <c r="V79" s="373"/>
+      <c r="W79" s="373"/>
+      <c r="X79" s="373"/>
+      <c r="Y79" s="373"/>
+      <c r="Z79" s="373"/>
+      <c r="AA79" s="373"/>
+      <c r="AB79" s="373"/>
+      <c r="AC79" s="373"/>
+      <c r="AD79" s="373"/>
+      <c r="AE79" s="373"/>
+      <c r="AF79" s="373"/>
+      <c r="AG79" s="373"/>
+      <c r="AM79" s="381"/>
     </row>
     <row r="80" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="334" t="s">
+      <c r="A80" s="377" t="s">
         <v>385</v>
       </c>
       <c r="B80" s="107" t="s">
@@ -9136,43 +9107,43 @@
       <c r="C80" s="107" t="s">
         <v>379</v>
       </c>
-      <c r="F80" s="335"/>
-      <c r="G80" s="335"/>
-      <c r="H80" s="335"/>
-      <c r="I80" s="326"/>
-      <c r="J80" s="326"/>
-      <c r="K80" s="326"/>
-      <c r="L80" s="326">
+      <c r="F80" s="378"/>
+      <c r="G80" s="378"/>
+      <c r="H80" s="378"/>
+      <c r="I80" s="369"/>
+      <c r="J80" s="369"/>
+      <c r="K80" s="369"/>
+      <c r="L80" s="369">
         <v>64400</v>
       </c>
-      <c r="M80" s="339">
+      <c r="M80" s="382">
         <v>23400</v>
       </c>
-      <c r="N80" s="336">
+      <c r="N80" s="379">
         <v>13800</v>
       </c>
-      <c r="O80" s="337">
+      <c r="O80" s="380">
         <v>17100</v>
       </c>
-      <c r="P80" s="337"/>
-      <c r="Q80" s="337"/>
-      <c r="R80" s="337"/>
-      <c r="S80" s="330"/>
-      <c r="T80" s="330"/>
-      <c r="U80" s="330"/>
-      <c r="V80" s="330"/>
-      <c r="W80" s="330"/>
-      <c r="X80" s="330"/>
-      <c r="Y80" s="330"/>
-      <c r="Z80" s="330"/>
-      <c r="AA80" s="330"/>
-      <c r="AB80" s="330"/>
-      <c r="AC80" s="330"/>
-      <c r="AD80" s="330"/>
-      <c r="AE80" s="330"/>
-      <c r="AF80" s="330"/>
-      <c r="AG80" s="330"/>
-      <c r="AM80" s="338"/>
+      <c r="P80" s="380"/>
+      <c r="Q80" s="380"/>
+      <c r="R80" s="380"/>
+      <c r="S80" s="373"/>
+      <c r="T80" s="373"/>
+      <c r="U80" s="373"/>
+      <c r="V80" s="373"/>
+      <c r="W80" s="373"/>
+      <c r="X80" s="373"/>
+      <c r="Y80" s="373"/>
+      <c r="Z80" s="373"/>
+      <c r="AA80" s="373"/>
+      <c r="AB80" s="373"/>
+      <c r="AC80" s="373"/>
+      <c r="AD80" s="373"/>
+      <c r="AE80" s="373"/>
+      <c r="AF80" s="373"/>
+      <c r="AG80" s="373"/>
+      <c r="AM80" s="381"/>
     </row>
     <row r="81" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="220" t="s">
@@ -9192,47 +9163,47 @@
         <v>59000</v>
       </c>
       <c r="P81" s="116">
-        <f t="shared" ref="P81:Z81" si="48">SUM(P82:P85)</f>
+        <f t="shared" ref="P81:Z81" si="47">SUM(P82:P85)</f>
         <v>59000</v>
       </c>
       <c r="Q81" s="116">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>59000</v>
       </c>
       <c r="R81" s="116">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>59000</v>
       </c>
       <c r="S81" s="116">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>59000</v>
       </c>
       <c r="T81" s="116">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>59000</v>
       </c>
       <c r="U81" s="116">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>59000</v>
       </c>
       <c r="V81" s="116">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>59000</v>
       </c>
       <c r="W81" s="116">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>59000</v>
       </c>
       <c r="X81" s="116">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>59000</v>
       </c>
       <c r="Y81" s="116">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>59000</v>
       </c>
       <c r="Z81" s="116">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>59000</v>
       </c>
       <c r="AA81" s="116"/>
@@ -9541,62 +9512,62 @@
       </c>
       <c r="L86" s="206">
         <f>L72+L74</f>
-        <v>349750</v>
+        <v>321350</v>
       </c>
       <c r="M86" s="206">
         <f>M72+M74</f>
-        <v>307200</v>
+        <v>291400</v>
       </c>
       <c r="N86" s="308">
         <f>N72+N74</f>
-        <v>299351</v>
+        <v>284151</v>
       </c>
       <c r="O86" s="144">
-        <f t="shared" ref="O86:Z86" si="49">O72+O74</f>
+        <f t="shared" ref="O86:Z86" si="48">O72+O74</f>
         <v>375638.804</v>
       </c>
       <c r="P86" s="144">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>319529.75921599998</v>
       </c>
       <c r="Q86" s="144">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>320323.878252864</v>
       </c>
       <c r="R86" s="144">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>315121.17376587546</v>
       </c>
       <c r="S86" s="144">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>309921.65846093895</v>
       </c>
       <c r="T86" s="144">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>310725.34509478271</v>
       </c>
       <c r="U86" s="144">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>311532.24647516187</v>
       </c>
       <c r="V86" s="144">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>312342.37546106247</v>
       </c>
       <c r="W86" s="144">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>313155.7449629067</v>
       </c>
       <c r="X86" s="144">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>263972.36794275837</v>
       </c>
       <c r="Y86" s="144">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>264792.25741452933</v>
       </c>
       <c r="Z86" s="144">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>265615.42644418747</v>
       </c>
       <c r="AA86" s="44"/>
@@ -9931,15 +9902,15 @@
         <v>71400</v>
       </c>
       <c r="P92" s="102">
-        <f t="shared" ref="P92:R92" si="50">SUM(P93:P95)</f>
+        <f t="shared" ref="P92:R92" si="49">SUM(P93:P95)</f>
         <v>71400</v>
       </c>
       <c r="Q92" s="102">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>30600</v>
       </c>
       <c r="R92" s="102">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>30600</v>
       </c>
       <c r="S92" s="186"/>
@@ -10145,23 +10116,23 @@
         <v>512193</v>
       </c>
       <c r="O96" s="116">
-        <f t="shared" ref="O96:S96" si="51">O103*0.74</f>
+        <f t="shared" ref="O96:S96" si="50">O103*0.74</f>
         <v>507477.24811825115</v>
       </c>
       <c r="P96" s="116">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>512541.31638321205</v>
       </c>
       <c r="Q96" s="116">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>512541.31638321205</v>
       </c>
       <c r="R96" s="116">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>512541.31638321205</v>
       </c>
       <c r="S96" s="116">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>512541.31638321205</v>
       </c>
       <c r="T96" s="116">
@@ -10223,31 +10194,31 @@
       <c r="B97" s="141"/>
       <c r="E97" s="141"/>
       <c r="F97" s="201">
-        <f t="shared" ref="F97:L97" si="52">F51+F47+F36+F42</f>
+        <f>F51+F47+F36+F42</f>
         <v>1440187</v>
       </c>
       <c r="G97" s="201">
-        <f t="shared" si="52"/>
+        <f>G51+G47+G36+G42</f>
         <v>1503410</v>
       </c>
       <c r="H97" s="201">
-        <f t="shared" si="52"/>
+        <f>H51+H47+H36+H42</f>
         <v>1508652</v>
       </c>
       <c r="I97" s="201">
-        <f t="shared" si="52"/>
+        <f>I51+I47+I36+I42</f>
         <v>1513957</v>
       </c>
       <c r="J97" s="201">
-        <f t="shared" si="52"/>
+        <f>J51+J47+J36+J42</f>
         <v>1521941</v>
       </c>
       <c r="K97" s="201">
-        <f t="shared" si="52"/>
+        <f>K51+K47+K36+K42</f>
         <v>1574462</v>
       </c>
       <c r="L97" s="201">
-        <f t="shared" si="52"/>
+        <f>L51+L47+L36+L42</f>
         <v>3729557.333333333</v>
       </c>
       <c r="M97" s="301">
@@ -10258,51 +10229,51 @@
         <v>2027793</v>
       </c>
       <c r="O97" s="142">
-        <f t="shared" ref="O97:Z97" si="53">O51+O47+O36+O42+O37+O38+O39</f>
+        <f>O51+O47+O36+O42+O37+O38+O39</f>
         <v>3118501.3980484894</v>
       </c>
       <c r="P97" s="142">
-        <f t="shared" si="53"/>
+        <f>P51+P47+P36+P42+P37+P38+P39</f>
         <v>1874848.87398125</v>
       </c>
       <c r="Q97" s="142">
-        <f t="shared" si="53"/>
+        <f>Q51+Q47+Q36+Q42+Q37+Q38+Q39</f>
         <v>1686467.5074263907</v>
       </c>
       <c r="R97" s="142">
-        <f t="shared" si="53"/>
+        <f>R51+R47+R36+R42+R37+R38+R39</f>
         <v>1683044.5200377863</v>
       </c>
       <c r="S97" s="142">
-        <f t="shared" si="53"/>
+        <f>S51+S47+S36+S42+S37+S38+S39</f>
         <v>1687990.187838353</v>
       </c>
       <c r="T97" s="142">
-        <f t="shared" si="53"/>
+        <f>T51+T47+T36+T42+T37+T38+T39</f>
         <v>1713310.0406559282</v>
       </c>
       <c r="U97" s="142">
-        <f t="shared" si="53"/>
+        <f>U51+U47+U36+U42+U37+U38+U39</f>
         <v>1739009.691265767</v>
       </c>
       <c r="V97" s="142">
-        <f t="shared" si="53"/>
+        <f>V51+V47+V36+V42+V37+V38+V39</f>
         <v>1756399.7881784246</v>
       </c>
       <c r="W97" s="142">
-        <f t="shared" si="53"/>
+        <f>W51+W47+W36+W42+W37+W38+W39</f>
         <v>0</v>
       </c>
       <c r="X97" s="142">
-        <f t="shared" si="53"/>
+        <f>X51+X47+X36+X42+X37+X38+X39</f>
         <v>0</v>
       </c>
       <c r="Y97" s="142">
-        <f t="shared" si="53"/>
+        <f>Y51+Y47+Y36+Y42+Y37+Y38+Y39</f>
         <v>0</v>
       </c>
       <c r="Z97" s="142">
-        <f t="shared" si="53"/>
+        <f>Z51+Z47+Z36+Z42+Z37+Z38+Z39</f>
         <v>0</v>
       </c>
       <c r="AM97" s="233"/>
@@ -10327,55 +10298,55 @@
         <v>1328805</v>
       </c>
       <c r="N98" s="310">
-        <f t="shared" ref="N98:Z98" si="54">N96+N35</f>
+        <f>N96+N35</f>
         <v>1372787</v>
       </c>
       <c r="O98" s="143">
-        <f t="shared" si="54"/>
+        <f>O96+O35</f>
         <v>1390610.1625906522</v>
       </c>
       <c r="P98" s="143">
-        <f t="shared" si="54"/>
+        <f>P96+P35</f>
         <v>1418489.158978964</v>
       </c>
       <c r="Q98" s="143">
-        <f t="shared" si="54"/>
+        <f>Q96+Q35</f>
         <v>1441583.4808422038</v>
       </c>
       <c r="R98" s="143">
-        <f t="shared" si="54"/>
+        <f>R96+R35</f>
         <v>1483962.7404801806</v>
       </c>
       <c r="S98" s="143">
-        <f t="shared" si="54"/>
+        <f>S96+S35</f>
         <v>1515727.7827888038</v>
       </c>
       <c r="T98" s="143">
-        <f t="shared" si="54"/>
+        <f>T96+T35</f>
         <v>1506974.123618965</v>
       </c>
       <c r="U98" s="143">
-        <f t="shared" si="54"/>
+        <f>U96+U35</f>
         <v>1540850.5361376633</v>
       </c>
       <c r="V98" s="143">
-        <f t="shared" si="54"/>
+        <f>V96+V35</f>
         <v>1551631.6801380017</v>
       </c>
       <c r="W98" s="143">
-        <f t="shared" si="54"/>
+        <f>W96+W35</f>
         <v>1091537.5543621723</v>
       </c>
       <c r="X98" s="143">
-        <f t="shared" si="54"/>
+        <f>X96+X35</f>
         <v>1102537.0783156503</v>
       </c>
       <c r="Y98" s="143">
-        <f t="shared" si="54"/>
+        <f>Y96+Y35</f>
         <v>1113647.4454798999</v>
       </c>
       <c r="Z98" s="143">
-        <f t="shared" si="54"/>
+        <f>Z96+Z35</f>
         <v>0</v>
       </c>
       <c r="AM98" s="233"/>
@@ -10432,35 +10403,35 @@
         <v>818740</v>
       </c>
       <c r="O100" s="133">
-        <f t="shared" ref="O100:U100" si="55">O101+O103</f>
+        <f t="shared" ref="O100:U100" si="51">O101+O103</f>
         <v>831250.83502466371</v>
       </c>
       <c r="P100" s="133">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>838457.84744285408</v>
       </c>
       <c r="Q100" s="133">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>839187.01967747905</v>
       </c>
       <c r="R100" s="133">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>840286.24682117626</v>
       </c>
       <c r="S100" s="133">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>841762.8752842095</v>
       </c>
       <c r="T100" s="133">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>843107.97501111636</v>
       </c>
       <c r="U100" s="133">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>844539.45728929248</v>
       </c>
       <c r="V100" s="133">
-        <f t="shared" ref="V100" si="56">V101+V103</f>
+        <f t="shared" ref="V100" si="52">V101+V103</f>
         <v>846032.64138980373</v>
       </c>
       <c r="AM100" s="233"/>
@@ -10470,27 +10441,27 @@
         <v>229</v>
       </c>
       <c r="F101" s="203">
-        <f t="shared" ref="F101:K101" si="57">F100-F103</f>
+        <f t="shared" ref="F101:K101" si="53">F100-F103</f>
         <v>139025</v>
       </c>
       <c r="G101" s="203">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>139342</v>
       </c>
       <c r="H101" s="203">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>140228</v>
       </c>
       <c r="I101" s="203">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>141105</v>
       </c>
       <c r="J101" s="203">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>141335</v>
       </c>
       <c r="K101" s="203">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>142991</v>
       </c>
       <c r="L101" s="203">
@@ -10509,31 +10480,31 @@
         <v>145470.76999999999</v>
       </c>
       <c r="P101" s="133">
-        <f t="shared" ref="P101:S101" si="58">O101*(1+P113)</f>
+        <f t="shared" ref="P101:S101" si="54">O101*(1+P113)</f>
         <v>145834.44692499997</v>
       </c>
       <c r="Q101" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>146563.61915962494</v>
       </c>
       <c r="R101" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>147662.84630332215</v>
       </c>
       <c r="S101" s="133">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>149139.47476635536</v>
       </c>
       <c r="T101" s="133">
-        <f t="shared" ref="T101:V101" si="59">S101*(1+T112)</f>
+        <f t="shared" ref="T101:V101" si="55">S101*(1+T112)</f>
         <v>150484.57449326222</v>
       </c>
       <c r="U101" s="133">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>151916.05677143831</v>
       </c>
       <c r="V101" s="133">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>153409.24087194959</v>
       </c>
       <c r="AM101" s="233"/>
@@ -10602,23 +10573,23 @@
         <v>692623.40051785414</v>
       </c>
       <c r="R103" s="135">
-        <f t="shared" ref="R103:V103" si="60">Q103*(1+R104)</f>
+        <f t="shared" ref="R103:V103" si="56">Q103*(1+R104)</f>
         <v>692623.40051785414</v>
       </c>
       <c r="S103" s="135">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>692623.40051785414</v>
       </c>
       <c r="T103" s="135">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>692623.40051785414</v>
       </c>
       <c r="U103" s="135">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>692623.40051785414</v>
       </c>
       <c r="V103" s="135">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>692623.40051785414</v>
       </c>
       <c r="AD103" s="45">
@@ -10690,38 +10661,38 @@
         <v>221</v>
       </c>
       <c r="F105" s="208">
-        <f t="shared" ref="F105:L105" si="61">F96/F103</f>
+        <f t="shared" ref="F105:L105" si="57">F96/F103</f>
         <v>0.66058231423538405</v>
       </c>
       <c r="G105" s="208">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>0.6749214177505789</v>
       </c>
       <c r="H105" s="208">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>0.68242012696430432</v>
       </c>
       <c r="I105" s="208">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>0.6730637268687778</v>
       </c>
       <c r="J105" s="208">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>0.66395699382859508</v>
       </c>
       <c r="K105" s="208">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>0.67846773573296415</v>
       </c>
       <c r="L105" s="208">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>0.76648081779484256</v>
       </c>
       <c r="M105" s="208">
         <v>0.71094027669909299</v>
       </c>
       <c r="N105" s="208">
-        <f t="shared" ref="N105" si="62">N96/N103</f>
+        <f t="shared" ref="N105" si="58">N96/N103</f>
         <v>0.76034541114436371</v>
       </c>
       <c r="AD105" s="154"/>
@@ -10776,31 +10747,31 @@
         <v>2009.5840333646127</v>
       </c>
       <c r="P106" s="35">
-        <f t="shared" ref="P106:V106" si="63">O106*(1+P108)</f>
+        <f t="shared" ref="P106:V106" si="59">O106*(1+P108)</f>
         <v>2031.5173022625379</v>
       </c>
       <c r="Q106" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>2046.001536440413</v>
       </c>
       <c r="R106" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>2056.0370415493694</v>
       </c>
       <c r="S106" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>2065.9690878427696</v>
       </c>
       <c r="T106" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>2073.2112049317075</v>
       </c>
       <c r="U106" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>2077.6599340006264</v>
       </c>
       <c r="V106" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>2079.3152750495265</v>
       </c>
       <c r="AM106" s="233"/>
@@ -10814,27 +10785,27 @@
       <c r="D107" s="35"/>
       <c r="F107" s="200"/>
       <c r="G107" s="200">
-        <f t="shared" ref="G107:L107" si="64">(G106/F106)-1</f>
+        <f t="shared" ref="G107:L107" si="60">(G106/F106)-1</f>
         <v>7.8113264233139468E-3</v>
       </c>
       <c r="H107" s="200">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>6.3596164356336526E-3</v>
       </c>
       <c r="I107" s="200">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>1.3823747222907468E-3</v>
       </c>
       <c r="J107" s="200">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>3.5990731154167399E-3</v>
       </c>
       <c r="K107" s="200">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>2.6527805069758159E-3</v>
       </c>
       <c r="L107" s="200">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>-1.36697697207252E-2</v>
       </c>
       <c r="M107" s="302">
@@ -10994,19 +10965,19 @@
         <v>0</v>
       </c>
       <c r="P110">
-        <f t="shared" ref="P110:S110" si="65">O110*(1+P113)</f>
+        <f t="shared" ref="P110:S110" si="61">O110*(1+P113)</f>
         <v>0</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="R110">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="S110">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="T110">
@@ -11014,11 +10985,11 @@
         <v>0</v>
       </c>
       <c r="U110">
-        <f t="shared" ref="U110:V110" si="66">T110*(1+U112)</f>
+        <f t="shared" ref="U110:V110" si="62">T110*(1+U112)</f>
         <v>0</v>
       </c>
       <c r="V110">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W110"/>
@@ -11039,11 +11010,11 @@
       <c r="I111" s="200"/>
       <c r="J111" s="200"/>
       <c r="K111" s="200">
-        <f t="shared" ref="K111" si="67">(K109/J109)-1</f>
+        <f t="shared" ref="K111" si="63">(K109/J109)-1</f>
         <v>1.0265546788835067E-2</v>
       </c>
       <c r="L111" s="200">
-        <f t="shared" ref="L111" si="68">(L109/K109)-1</f>
+        <f t="shared" ref="L111" si="64">(L109/K109)-1</f>
         <v>-1.9776620759153429E-2</v>
       </c>
       <c r="M111" s="302">
@@ -11155,82 +11126,82 @@
         <v>163</v>
       </c>
       <c r="F114" s="201">
-        <f t="shared" ref="F114:L114" si="69">F100+F46-F96</f>
+        <f>F100+F46-F96</f>
         <v>339220</v>
       </c>
       <c r="G114" s="201">
-        <f t="shared" si="69"/>
+        <f>G100+G46-G96</f>
         <v>334185</v>
       </c>
       <c r="H114" s="201">
-        <f t="shared" si="69"/>
+        <f>H100+H46-H96</f>
         <v>335532</v>
       </c>
       <c r="I114" s="201">
-        <f t="shared" si="69"/>
+        <f>I100+I46-I96</f>
         <v>344546</v>
       </c>
       <c r="J114" s="201">
-        <f t="shared" si="69"/>
+        <f>J100+J46-J96</f>
         <v>349558</v>
       </c>
       <c r="K114" s="201">
-        <f t="shared" si="69"/>
+        <f>K100+K46-K96</f>
         <v>343658</v>
       </c>
       <c r="L114" s="201">
-        <f t="shared" si="69"/>
+        <f>L100+L46-L96</f>
         <v>560584.66666666674</v>
       </c>
       <c r="M114" s="301">
         <v>528408</v>
       </c>
       <c r="N114" s="306">
-        <f t="shared" ref="N114:Y114" si="70">N100+N46-N96</f>
+        <f>N100+N46-N96</f>
         <v>343247</v>
       </c>
       <c r="O114" s="215">
-        <f t="shared" si="70"/>
+        <f>O100+O46-O96</f>
         <v>383773.58690641256</v>
       </c>
       <c r="P114" s="215">
-        <f t="shared" si="70"/>
+        <f>P100+P46-P96</f>
         <v>369916.53105964203</v>
       </c>
       <c r="Q114" s="215">
-        <f t="shared" si="70"/>
+        <f>Q100+Q46-Q96</f>
         <v>370645.703294267</v>
       </c>
       <c r="R114" s="215">
-        <f t="shared" si="70"/>
+        <f>R100+R46-R96</f>
         <v>371744.93043796421</v>
       </c>
       <c r="S114" s="215">
-        <f t="shared" si="70"/>
+        <f>S100+S46-S96</f>
         <v>373221.55890099745</v>
       </c>
       <c r="T114" s="215">
-        <f t="shared" si="70"/>
+        <f>T100+T46-T96</f>
         <v>416124.06265897548</v>
       </c>
       <c r="U114" s="215">
-        <f t="shared" si="70"/>
+        <f>U100+U46-U96</f>
         <v>417555.5449371516</v>
       </c>
       <c r="V114" s="215">
-        <f t="shared" si="70"/>
+        <f>V100+V46-V96</f>
         <v>419048.72903766285</v>
       </c>
       <c r="W114" s="215">
-        <f t="shared" si="70"/>
+        <f>W100+W46-W96</f>
         <v>0</v>
       </c>
       <c r="X114" s="215">
-        <f t="shared" si="70"/>
+        <f>X100+X46-X96</f>
         <v>0</v>
       </c>
       <c r="Y114" s="215">
-        <f t="shared" si="70"/>
+        <f>Y100+Y46-Y96</f>
         <v>0</v>
       </c>
       <c r="AM114" s="233"/>
@@ -11242,31 +11213,31 @@
       <c r="B115" s="141"/>
       <c r="E115" s="141"/>
       <c r="F115" s="201">
-        <f t="shared" ref="F115:L115" si="71">F103-F96</f>
+        <f t="shared" ref="F115:L115" si="65">F103-F96</f>
         <v>200195</v>
       </c>
       <c r="G115" s="201">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>194843</v>
       </c>
       <c r="H115" s="201">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>195304</v>
       </c>
       <c r="I115" s="201">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>203441</v>
       </c>
       <c r="J115" s="201">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>208223</v>
       </c>
       <c r="K115" s="201">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>200667</v>
       </c>
       <c r="L115" s="201">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>156183</v>
       </c>
       <c r="M115" s="301">
@@ -11277,47 +11248,47 @@
         <v>161439</v>
       </c>
       <c r="O115" s="142">
-        <f t="shared" ref="O115:Y115" si="72">O103-O96</f>
+        <f t="shared" ref="O115:Y115" si="66">O103-O96</f>
         <v>178302.81690641254</v>
       </c>
       <c r="P115" s="142">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>180082.08413464209</v>
       </c>
       <c r="Q115" s="142">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>180082.08413464209</v>
       </c>
       <c r="R115" s="142">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>180082.08413464209</v>
       </c>
       <c r="S115" s="142">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>180082.08413464209</v>
       </c>
       <c r="T115" s="142">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>221639.48816571326</v>
       </c>
       <c r="U115" s="142">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>221639.48816571326</v>
       </c>
       <c r="V115" s="142">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>221639.48816571326</v>
       </c>
       <c r="W115" s="142">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="X115" s="142">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Y115" s="142">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AM115" s="233"/>
@@ -11329,27 +11300,27 @@
       <c r="C116" s="35"/>
       <c r="D116" s="35"/>
       <c r="F116" s="201">
-        <f t="shared" ref="F116:K116" si="73">F114-F115</f>
+        <f t="shared" ref="F116:K116" si="67">F114-F115</f>
         <v>139025</v>
       </c>
       <c r="G116" s="201">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>139342</v>
       </c>
       <c r="H116" s="201">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>140228</v>
       </c>
       <c r="I116" s="201">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>141105</v>
       </c>
       <c r="J116" s="201">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>141335</v>
       </c>
       <c r="K116" s="201">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>142991</v>
       </c>
       <c r="L116" s="201">
@@ -11364,47 +11335,47 @@
         <v>181808</v>
       </c>
       <c r="O116" s="142">
-        <f t="shared" ref="O116:Y116" si="74">O114-O115</f>
+        <f t="shared" ref="O116:Y116" si="68">O114-O115</f>
         <v>205470.77000000002</v>
       </c>
       <c r="P116" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>189834.44692499994</v>
       </c>
       <c r="Q116" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>190563.61915962491</v>
       </c>
       <c r="R116" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>191662.84630332212</v>
       </c>
       <c r="S116" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>193139.47476635536</v>
       </c>
       <c r="T116" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>194484.57449326222</v>
       </c>
       <c r="U116" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>195916.05677143834</v>
       </c>
       <c r="V116" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>197409.24087194959</v>
       </c>
       <c r="W116" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="X116" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="Y116" s="142">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AM116" s="256"/>
@@ -12908,50 +12879,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="358" t="s">
+      <c r="A5" s="343" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="359"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
-      <c r="G5" s="359"/>
-      <c r="H5" s="359"/>
-      <c r="I5" s="359"/>
-      <c r="J5" s="359"/>
-      <c r="K5" s="359"/>
-      <c r="L5" s="359"/>
-      <c r="M5" s="359"/>
-      <c r="N5" s="359"/>
-      <c r="O5" s="359"/>
-      <c r="P5" s="359"/>
-      <c r="Q5" s="359"/>
-      <c r="R5" s="359"/>
-      <c r="S5" s="359"/>
+      <c r="B5" s="344"/>
+      <c r="C5" s="344"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="344"/>
+      <c r="F5" s="344"/>
+      <c r="G5" s="344"/>
+      <c r="H5" s="344"/>
+      <c r="I5" s="344"/>
+      <c r="J5" s="344"/>
+      <c r="K5" s="344"/>
+      <c r="L5" s="344"/>
+      <c r="M5" s="344"/>
+      <c r="N5" s="344"/>
+      <c r="O5" s="344"/>
+      <c r="P5" s="344"/>
+      <c r="Q5" s="344"/>
+      <c r="R5" s="344"/>
+      <c r="S5" s="344"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="360" t="s">
+      <c r="A6" s="345" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="360"/>
-      <c r="C6" s="360"/>
-      <c r="D6" s="360"/>
-      <c r="E6" s="360"/>
-      <c r="F6" s="360"/>
-      <c r="G6" s="360"/>
-      <c r="H6" s="360"/>
-      <c r="I6" s="360"/>
-      <c r="J6" s="360"/>
-      <c r="K6" s="360"/>
-      <c r="L6" s="360"/>
-      <c r="M6" s="360"/>
-      <c r="N6" s="360"/>
-      <c r="O6" s="360"/>
-      <c r="P6" s="360"/>
-      <c r="Q6" s="360"/>
-      <c r="R6" s="360"/>
-      <c r="S6" s="360"/>
+      <c r="B6" s="345"/>
+      <c r="C6" s="345"/>
+      <c r="D6" s="345"/>
+      <c r="E6" s="345"/>
+      <c r="F6" s="345"/>
+      <c r="G6" s="345"/>
+      <c r="H6" s="345"/>
+      <c r="I6" s="345"/>
+      <c r="J6" s="345"/>
+      <c r="K6" s="345"/>
+      <c r="L6" s="345"/>
+      <c r="M6" s="345"/>
+      <c r="N6" s="345"/>
+      <c r="O6" s="345"/>
+      <c r="P6" s="345"/>
+      <c r="Q6" s="345"/>
+      <c r="R6" s="345"/>
+      <c r="S6" s="345"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -12992,8 +12963,8 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="131"/>
-      <c r="R8" s="361"/>
-      <c r="S8" s="362"/>
+      <c r="R8" s="346"/>
+      <c r="S8" s="347"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="130"/>
@@ -13265,10 +13236,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="327" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="342"/>
+      <c r="B1" s="327"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -13276,18 +13247,18 @@
       <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="363" t="s">
+      <c r="Z1" s="348" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="363"/>
-      <c r="AB1" s="363"/>
-      <c r="AC1" s="341"/>
-      <c r="AD1" s="341"/>
-      <c r="AE1" s="341"/>
-      <c r="AF1" s="341"/>
+      <c r="AA1" s="348"/>
+      <c r="AB1" s="348"/>
+      <c r="AC1" s="326"/>
+      <c r="AD1" s="326"/>
+      <c r="AE1" s="326"/>
+      <c r="AF1" s="326"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="364" t="s">
+      <c r="A2" s="349" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="107"/>
@@ -13296,45 +13267,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="364"/>
+      <c r="A3" s="349"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="364"/>
+      <c r="A4" s="349"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="364"/>
+      <c r="A5" s="349"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C7" s="354" t="s">
+      <c r="C7" s="339" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="355"/>
-      <c r="E7" s="355"/>
-      <c r="F7" s="356"/>
-      <c r="G7" s="354" t="s">
+      <c r="D7" s="340"/>
+      <c r="E7" s="340"/>
+      <c r="F7" s="341"/>
+      <c r="G7" s="339" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="355"/>
-      <c r="I7" s="355"/>
-      <c r="J7" s="356"/>
-      <c r="K7" s="354" t="s">
+      <c r="H7" s="340"/>
+      <c r="I7" s="340"/>
+      <c r="J7" s="341"/>
+      <c r="K7" s="339" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="355"/>
-      <c r="M7" s="355"/>
-      <c r="N7" s="356"/>
+      <c r="L7" s="340"/>
+      <c r="M7" s="340"/>
+      <c r="N7" s="341"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
@@ -15216,88 +15187,88 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="370" t="s">
+      <c r="A2" s="350" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="370"/>
-      <c r="C2" s="370"/>
-      <c r="D2" s="370"/>
-      <c r="E2" s="370"/>
-      <c r="F2" s="370"/>
-      <c r="G2" s="370"/>
-      <c r="H2" s="370"/>
-      <c r="I2" s="370"/>
-      <c r="J2" s="370"/>
+      <c r="B2" s="350"/>
+      <c r="C2" s="350"/>
+      <c r="D2" s="350"/>
+      <c r="E2" s="350"/>
+      <c r="F2" s="350"/>
+      <c r="G2" s="350"/>
+      <c r="H2" s="350"/>
+      <c r="I2" s="350"/>
+      <c r="J2" s="350"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="370" t="s">
+      <c r="A3" s="350" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="370"/>
-      <c r="C3" s="370"/>
-      <c r="D3" s="370"/>
-      <c r="E3" s="370"/>
-      <c r="F3" s="370"/>
-      <c r="G3" s="370"/>
-      <c r="H3" s="370"/>
-      <c r="I3" s="370"/>
-      <c r="J3" s="370"/>
+      <c r="B3" s="350"/>
+      <c r="C3" s="350"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="350"/>
+      <c r="F3" s="350"/>
+      <c r="G3" s="350"/>
+      <c r="H3" s="350"/>
+      <c r="I3" s="350"/>
+      <c r="J3" s="350"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="371"/>
-      <c r="B4" s="371"/>
-      <c r="C4" s="371"/>
-      <c r="D4" s="371"/>
-      <c r="E4" s="371"/>
-      <c r="F4" s="371"/>
-      <c r="G4" s="371"/>
-      <c r="H4" s="371"/>
-      <c r="I4" s="371"/>
-      <c r="J4" s="371"/>
-      <c r="K4" s="376" t="s">
+      <c r="A4" s="351"/>
+      <c r="B4" s="351"/>
+      <c r="C4" s="351"/>
+      <c r="D4" s="351"/>
+      <c r="E4" s="351"/>
+      <c r="F4" s="351"/>
+      <c r="G4" s="351"/>
+      <c r="H4" s="351"/>
+      <c r="I4" s="351"/>
+      <c r="J4" s="351"/>
+      <c r="K4" s="356" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="376"/>
-      <c r="M4" s="376"/>
-      <c r="N4" s="376"/>
+      <c r="L4" s="356"/>
+      <c r="M4" s="356"/>
+      <c r="N4" s="356"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="372" t="s">
+      <c r="C5" s="352" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="373"/>
-      <c r="E5" s="373"/>
-      <c r="F5" s="373"/>
-      <c r="G5" s="373"/>
-      <c r="H5" s="373"/>
-      <c r="I5" s="373"/>
-      <c r="J5" s="374"/>
+      <c r="D5" s="353"/>
+      <c r="E5" s="353"/>
+      <c r="F5" s="353"/>
+      <c r="G5" s="353"/>
+      <c r="H5" s="353"/>
+      <c r="I5" s="353"/>
+      <c r="J5" s="354"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="375" t="s">
+      <c r="L5" s="355" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="341"/>
-      <c r="N5" s="341"/>
+      <c r="M5" s="326"/>
+      <c r="N5" s="326"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="366">
+      <c r="C6" s="358">
         <v>2020</v>
       </c>
-      <c r="D6" s="367"/>
-      <c r="E6" s="367"/>
-      <c r="F6" s="367"/>
-      <c r="G6" s="367"/>
-      <c r="H6" s="367"/>
-      <c r="I6" s="367"/>
-      <c r="J6" s="368"/>
+      <c r="D6" s="359"/>
+      <c r="E6" s="359"/>
+      <c r="F6" s="359"/>
+      <c r="G6" s="359"/>
+      <c r="H6" s="359"/>
+      <c r="I6" s="359"/>
+      <c r="J6" s="360"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15735,24 +15706,24 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="341" t="s">
+      <c r="K22" s="326" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="341"/>
-      <c r="M22" s="341"/>
-      <c r="N22" s="341"/>
-      <c r="O22" s="341" t="s">
+      <c r="L22" s="326"/>
+      <c r="M22" s="326"/>
+      <c r="N22" s="326"/>
+      <c r="O22" s="326" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="341"/>
-      <c r="Q22" s="341"/>
-      <c r="R22" s="341"/>
-      <c r="S22" s="341" t="s">
+      <c r="P22" s="326"/>
+      <c r="Q22" s="326"/>
+      <c r="R22" s="326"/>
+      <c r="S22" s="326" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="341"/>
-      <c r="U22" s="341"/>
-      <c r="V22" s="341"/>
+      <c r="T22" s="326"/>
+      <c r="U22" s="326"/>
+      <c r="V22" s="326"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C23" s="67"/>
@@ -15769,12 +15740,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="369" t="s">
+      <c r="K23" s="361" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="369"/>
-      <c r="M23" s="369"/>
-      <c r="N23" s="369"/>
+      <c r="L23" s="361"/>
+      <c r="M23" s="361"/>
+      <c r="N23" s="361"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15943,7 +15914,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="365" t="s">
+      <c r="I28" s="357" t="s">
         <v>257</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15993,7 +15964,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="365"/>
+      <c r="I29" s="357"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -16041,7 +16012,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="365"/>
+      <c r="I30" s="357"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -16089,7 +16060,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="365"/>
+      <c r="I31" s="357"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -16151,7 +16122,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="365" t="s">
+      <c r="I33" s="357" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16199,7 +16170,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="365"/>
+      <c r="I34" s="357"/>
       <c r="J34" t="s">
         <v>258</v>
       </c>
@@ -16436,12 +16407,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16449,6 +16414,12 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16555,30 +16526,30 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="378" t="s">
+      <c r="E6" s="365" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="378"/>
-      <c r="G6" s="378"/>
-      <c r="H6" s="378"/>
-      <c r="I6" s="378"/>
-      <c r="J6" s="378"/>
-      <c r="K6" s="378"/>
-      <c r="L6" s="378"/>
-      <c r="M6" s="378"/>
-      <c r="N6" s="378"/>
-      <c r="O6" s="378"/>
-      <c r="P6" s="378"/>
-      <c r="Q6" s="378"/>
-      <c r="R6" s="378"/>
+      <c r="F6" s="365"/>
+      <c r="G6" s="365"/>
+      <c r="H6" s="365"/>
+      <c r="I6" s="365"/>
+      <c r="J6" s="365"/>
+      <c r="K6" s="365"/>
+      <c r="L6" s="365"/>
+      <c r="M6" s="365"/>
+      <c r="N6" s="365"/>
+      <c r="O6" s="365"/>
+      <c r="P6" s="365"/>
+      <c r="Q6" s="365"/>
+      <c r="R6" s="365"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="377" t="s">
+      <c r="A7" s="362" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="377"/>
-      <c r="C7" s="377"/>
-      <c r="D7" s="377"/>
+      <c r="B7" s="362"/>
+      <c r="C7" s="362"/>
+      <c r="D7" s="362"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -16596,11 +16567,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="377" t="s">
+      <c r="B8" s="362" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="377"/>
-      <c r="D8" s="377"/>
+      <c r="C8" s="362"/>
+      <c r="D8" s="362"/>
       <c r="E8" s="42">
         <v>1717.857</v>
       </c>
@@ -16646,11 +16617,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
-      <c r="B9" s="377" t="s">
+      <c r="B9" s="362" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="377"/>
-      <c r="D9" s="377"/>
+      <c r="C9" s="362"/>
+      <c r="D9" s="362"/>
       <c r="E9" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -16696,11 +16667,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
-      <c r="B10" s="377" t="s">
+      <c r="B10" s="362" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="377"/>
-      <c r="D10" s="377"/>
+      <c r="C10" s="362"/>
+      <c r="D10" s="362"/>
       <c r="E10" s="42">
         <v>230.245</v>
       </c>
@@ -16746,11 +16717,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
-      <c r="B11" s="377" t="s">
+      <c r="B11" s="362" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="377"/>
-      <c r="D11" s="377"/>
+      <c r="C11" s="362"/>
+      <c r="D11" s="362"/>
       <c r="E11" s="42">
         <v>271.327</v>
       </c>
@@ -16845,10 +16816,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="377" t="s">
+      <c r="C13" s="362" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="377"/>
+      <c r="D13" s="362"/>
       <c r="E13" s="42">
         <v>3462.8009999999999</v>
       </c>
@@ -16999,11 +16970,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
-      <c r="B19" s="377" t="s">
+      <c r="B19" s="362" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="377"/>
-      <c r="D19" s="377"/>
+      <c r="C19" s="362"/>
+      <c r="D19" s="362"/>
       <c r="E19" s="42">
         <v>1717.857</v>
       </c>
@@ -17062,11 +17033,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
-      <c r="B20" s="377" t="s">
+      <c r="B20" s="362" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="377"/>
-      <c r="D20" s="377"/>
+      <c r="C20" s="362"/>
+      <c r="D20" s="362"/>
       <c r="E20" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -17126,11 +17097,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
-      <c r="B21" s="377" t="s">
+      <c r="B21" s="362" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="377"/>
-      <c r="D21" s="377"/>
+      <c r="C21" s="362"/>
+      <c r="D21" s="362"/>
       <c r="E21" s="42">
         <v>230.245</v>
       </c>
@@ -17189,11 +17160,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
-      <c r="B22" s="377" t="s">
+      <c r="B22" s="362" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="377"/>
-      <c r="D22" s="377"/>
+      <c r="C22" s="362"/>
+      <c r="D22" s="362"/>
       <c r="E22" s="42">
         <v>271.327</v>
       </c>
@@ -17306,21 +17277,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="379" t="s">
+      <c r="H27" s="363" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="379"/>
-      <c r="J27" s="379"/>
-      <c r="K27" s="379"/>
-      <c r="L27" s="379"/>
-      <c r="M27" s="379"/>
-      <c r="N27" s="379"/>
-      <c r="O27" s="379"/>
-      <c r="P27" s="379"/>
-      <c r="Q27" s="379"/>
-      <c r="R27" s="379"/>
-      <c r="S27" s="379"/>
-      <c r="T27" s="379"/>
+      <c r="I27" s="363"/>
+      <c r="J27" s="363"/>
+      <c r="K27" s="363"/>
+      <c r="L27" s="363"/>
+      <c r="M27" s="363"/>
+      <c r="N27" s="363"/>
+      <c r="O27" s="363"/>
+      <c r="P27" s="363"/>
+      <c r="Q27" s="363"/>
+      <c r="R27" s="363"/>
+      <c r="S27" s="363"/>
+      <c r="T27" s="363"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -17636,21 +17607,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="380" t="s">
+      <c r="F37" s="364" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="380"/>
-      <c r="H37" s="380"/>
-      <c r="I37" s="380"/>
-      <c r="J37" s="380"/>
-      <c r="K37" s="380"/>
-      <c r="L37" s="380"/>
-      <c r="M37" s="380"/>
-      <c r="N37" s="380"/>
-      <c r="O37" s="380"/>
-      <c r="P37" s="380"/>
-      <c r="Q37" s="380"/>
-      <c r="R37" s="380"/>
+      <c r="G37" s="364"/>
+      <c r="H37" s="364"/>
+      <c r="I37" s="364"/>
+      <c r="J37" s="364"/>
+      <c r="K37" s="364"/>
+      <c r="L37" s="364"/>
+      <c r="M37" s="364"/>
+      <c r="N37" s="364"/>
+      <c r="O37" s="364"/>
+      <c r="P37" s="364"/>
+      <c r="Q37" s="364"/>
+      <c r="R37" s="364"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17966,21 +17937,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="379" t="s">
+      <c r="F48" s="363" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="379"/>
-      <c r="H48" s="379"/>
-      <c r="I48" s="379"/>
-      <c r="J48" s="379"/>
-      <c r="K48" s="379"/>
-      <c r="L48" s="379"/>
-      <c r="M48" s="379"/>
-      <c r="N48" s="379"/>
-      <c r="O48" s="379"/>
-      <c r="P48" s="379"/>
-      <c r="Q48" s="379"/>
-      <c r="R48" s="379"/>
+      <c r="G48" s="363"/>
+      <c r="H48" s="363"/>
+      <c r="I48" s="363"/>
+      <c r="J48" s="363"/>
+      <c r="K48" s="363"/>
+      <c r="L48" s="363"/>
+      <c r="M48" s="363"/>
+      <c r="N48" s="363"/>
+      <c r="O48" s="363"/>
+      <c r="P48" s="363"/>
+      <c r="Q48" s="363"/>
+      <c r="R48" s="363"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -18292,6 +18263,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18300,12 +18277,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18344,50 +18315,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="358" t="s">
+      <c r="A5" s="343" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="359"/>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
-      <c r="G5" s="359"/>
-      <c r="H5" s="359"/>
-      <c r="I5" s="359"/>
-      <c r="J5" s="359"/>
-      <c r="K5" s="359"/>
-      <c r="L5" s="359"/>
-      <c r="M5" s="359"/>
-      <c r="N5" s="359"/>
-      <c r="O5" s="359"/>
-      <c r="P5" s="359"/>
-      <c r="Q5" s="359"/>
-      <c r="R5" s="359"/>
-      <c r="S5" s="359"/>
+      <c r="B5" s="344"/>
+      <c r="C5" s="344"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="344"/>
+      <c r="F5" s="344"/>
+      <c r="G5" s="344"/>
+      <c r="H5" s="344"/>
+      <c r="I5" s="344"/>
+      <c r="J5" s="344"/>
+      <c r="K5" s="344"/>
+      <c r="L5" s="344"/>
+      <c r="M5" s="344"/>
+      <c r="N5" s="344"/>
+      <c r="O5" s="344"/>
+      <c r="P5" s="344"/>
+      <c r="Q5" s="344"/>
+      <c r="R5" s="344"/>
+      <c r="S5" s="344"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="360" t="s">
+      <c r="A6" s="345" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="360"/>
-      <c r="C6" s="360"/>
-      <c r="D6" s="360"/>
-      <c r="E6" s="360"/>
-      <c r="F6" s="360"/>
-      <c r="G6" s="360"/>
-      <c r="H6" s="360"/>
-      <c r="I6" s="360"/>
-      <c r="J6" s="360"/>
-      <c r="K6" s="360"/>
-      <c r="L6" s="360"/>
-      <c r="M6" s="360"/>
-      <c r="N6" s="360"/>
-      <c r="O6" s="360"/>
-      <c r="P6" s="360"/>
-      <c r="Q6" s="360"/>
-      <c r="R6" s="360"/>
-      <c r="S6" s="360"/>
+      <c r="B6" s="345"/>
+      <c r="C6" s="345"/>
+      <c r="D6" s="345"/>
+      <c r="E6" s="345"/>
+      <c r="F6" s="345"/>
+      <c r="G6" s="345"/>
+      <c r="H6" s="345"/>
+      <c r="I6" s="345"/>
+      <c r="J6" s="345"/>
+      <c r="K6" s="345"/>
+      <c r="L6" s="345"/>
+      <c r="M6" s="345"/>
+      <c r="N6" s="345"/>
+      <c r="O6" s="345"/>
+      <c r="P6" s="345"/>
+      <c r="Q6" s="345"/>
+      <c r="R6" s="345"/>
+      <c r="S6" s="345"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -18427,10 +18398,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="361" t="s">
+      <c r="R8" s="346" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="362"/>
+      <c r="S8" s="347"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -21301,10 +21272,10 @@
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="381" t="s">
+      <c r="D75" s="366" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="382"/>
+      <c r="E75" s="367"/>
       <c r="F75" s="25">
         <v>-75.135000000000005</v>
       </c>
@@ -22274,23 +22245,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="349" t="s">
+      <c r="A1" s="334" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="350"/>
+      <c r="B1" s="335"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="357" t="s">
+      <c r="J1" s="342" t="s">
         <v>279</v>
       </c>
-      <c r="V1" s="341"/>
-      <c r="W1" s="341"/>
-      <c r="X1" s="341"/>
-      <c r="Y1" s="341"/>
+      <c r="V1" s="326"/>
+      <c r="W1" s="326"/>
+      <c r="X1" s="326"/>
+      <c r="Y1" s="326"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A2" s="351" t="s">
+      <c r="A2" s="336" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="126"/>
@@ -22298,68 +22269,68 @@
         <v>192</v>
       </c>
       <c r="I2" s="241"/>
-      <c r="J2" s="357"/>
+      <c r="J2" s="342"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A3" s="352"/>
+      <c r="A3" s="337"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
       <c r="I3" s="241"/>
-      <c r="J3" s="357"/>
+      <c r="J3" s="342"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A4" s="352"/>
+      <c r="A4" s="337"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A5" s="353"/>
+      <c r="A5" s="338"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C7" s="354" t="s">
+      <c r="C7" s="339" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="355"/>
-      <c r="E7" s="355"/>
-      <c r="F7" s="356"/>
-      <c r="G7" s="354" t="s">
+      <c r="D7" s="340"/>
+      <c r="E7" s="340"/>
+      <c r="F7" s="341"/>
+      <c r="G7" s="339" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="355"/>
-      <c r="I7" s="355"/>
-      <c r="J7" s="356"/>
-      <c r="K7" s="354" t="s">
+      <c r="H7" s="340"/>
+      <c r="I7" s="340"/>
+      <c r="J7" s="341"/>
+      <c r="K7" s="339" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="355"/>
-      <c r="M7" s="355"/>
-      <c r="N7" s="355"/>
-      <c r="O7" s="354" t="s">
+      <c r="L7" s="340"/>
+      <c r="M7" s="340"/>
+      <c r="N7" s="340"/>
+      <c r="O7" s="339" t="s">
         <v>269</v>
       </c>
-      <c r="P7" s="355"/>
-      <c r="Q7" s="355"/>
-      <c r="R7" s="355"/>
-      <c r="S7" s="354" t="s">
+      <c r="P7" s="340"/>
+      <c r="Q7" s="340"/>
+      <c r="R7" s="340"/>
+      <c r="S7" s="339" t="s">
         <v>273</v>
       </c>
-      <c r="T7" s="355"/>
-      <c r="U7" s="355"/>
-      <c r="V7" s="355"/>
-      <c r="W7" s="354" t="s">
+      <c r="T7" s="340"/>
+      <c r="U7" s="340"/>
+      <c r="V7" s="340"/>
+      <c r="W7" s="339" t="s">
         <v>274</v>
       </c>
-      <c r="X7" s="355"/>
-      <c r="Y7" s="355"/>
-      <c r="Z7" s="355"/>
+      <c r="X7" s="340"/>
+      <c r="Y7" s="340"/>
+      <c r="Z7" s="340"/>
       <c r="AA7" s="222" t="s">
         <v>275</v>
       </c>
@@ -26385,15 +26356,15 @@
       <c r="D68" s="100"/>
       <c r="E68" s="218">
         <f>main!L86/1000</f>
-        <v>349.75</v>
+        <v>321.35000000000002</v>
       </c>
       <c r="F68" s="218">
         <f>main!M86/1000</f>
-        <v>307.2</v>
+        <v>291.39999999999998</v>
       </c>
       <c r="G68" s="151">
         <f>main!N86/1000</f>
-        <v>299.351</v>
+        <v>284.15100000000001</v>
       </c>
       <c r="H68" s="218">
         <f>main!O86/1000</f>
@@ -26647,11 +26618,11 @@
       <c r="E71" s="217"/>
       <c r="F71" s="217">
         <f>F68-F69</f>
-        <v>6.5999999999999659</v>
+        <v>-9.2000000000000455</v>
       </c>
       <c r="G71" s="150">
         <f t="shared" ref="G71:K71" si="118">G68-G69</f>
-        <v>-4.6000000000000227</v>
+        <v>-19.800000000000011</v>
       </c>
       <c r="H71" s="217">
         <f t="shared" si="118"/>
@@ -26882,7 +26853,7 @@
       </c>
       <c r="J2" s="102">
         <f>'add-ons calculations'!E68</f>
-        <v>349.75</v>
+        <v>321.35000000000002</v>
       </c>
       <c r="K2" s="102">
         <v>1084.5999999999999</v>
@@ -26938,11 +26909,11 @@
       </c>
       <c r="I3">
         <f t="array" ref="I3:I24">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>6.5999999999999659</v>
+        <v>-9.2000000000000455</v>
       </c>
       <c r="J3" s="102">
         <f>'add-ons calculations'!F68</f>
-        <v>307.2</v>
+        <v>291.39999999999998</v>
       </c>
       <c r="K3" s="102">
         <v>775.2</v>
@@ -26990,11 +26961,11 @@
         <v>0.63599999999996726</v>
       </c>
       <c r="I4">
-        <v>-4.6000000000000227</v>
+        <v>-19.800000000000011</v>
       </c>
       <c r="J4" s="151">
         <f>'add-ons calculations'!G68</f>
-        <v>299.351</v>
+        <v>284.15100000000001</v>
       </c>
       <c r="K4" s="102">
         <v>296.39999999999998</v>
@@ -27949,36 +27920,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="D1" s="341" t="s">
+      <c r="D1" s="326" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341" t="s">
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+      <c r="G1" s="326"/>
+      <c r="H1" s="326" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
-      <c r="K1" s="341"/>
-      <c r="L1" s="341" t="s">
+      <c r="I1" s="326"/>
+      <c r="J1" s="326"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="341"/>
-      <c r="N1" s="341"/>
-      <c r="O1" s="341"/>
-      <c r="P1" s="341" t="s">
+      <c r="M1" s="326"/>
+      <c r="N1" s="326"/>
+      <c r="O1" s="326"/>
+      <c r="P1" s="326" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="341"/>
-      <c r="R1" s="341"/>
-      <c r="S1" s="341"/>
-      <c r="T1" s="341" t="s">
+      <c r="Q1" s="326"/>
+      <c r="R1" s="326"/>
+      <c r="S1" s="326"/>
+      <c r="T1" s="326" t="s">
         <v>265</v>
       </c>
-      <c r="U1" s="341"/>
-      <c r="V1" s="341"/>
-      <c r="W1" s="341"/>
+      <c r="U1" s="326"/>
+      <c r="V1" s="326"/>
+      <c r="W1" s="326"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D2" s="197" t="s">
@@ -28388,22 +28359,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="349" t="s">
+      <c r="A1" s="334" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="350"/>
+      <c r="B1" s="335"/>
       <c r="C1" s="35"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="357" t="s">
+      <c r="J1" s="342" t="s">
         <v>279</v>
       </c>
-      <c r="V1" s="341"/>
-      <c r="W1" s="341"/>
-      <c r="X1" s="341"/>
-      <c r="Y1" s="341"/>
+      <c r="V1" s="326"/>
+      <c r="W1" s="326"/>
+      <c r="X1" s="326"/>
+      <c r="Y1" s="326"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="351" t="s">
+      <c r="A2" s="336" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="126"/>
@@ -28412,20 +28383,20 @@
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="241"/>
-      <c r="J2" s="357"/>
+      <c r="J2" s="342"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="352"/>
+      <c r="A3" s="337"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="241"/>
-      <c r="J3" s="357"/>
+      <c r="J3" s="342"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="352"/>
+      <c r="A4" s="337"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>194</v>
@@ -28435,7 +28406,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="353"/>
+      <c r="A5" s="338"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>181</v>
@@ -28450,42 +28421,42 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="354" t="s">
+      <c r="C7" s="339" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="355"/>
-      <c r="E7" s="355"/>
-      <c r="F7" s="356"/>
-      <c r="G7" s="354" t="s">
+      <c r="D7" s="340"/>
+      <c r="E7" s="340"/>
+      <c r="F7" s="341"/>
+      <c r="G7" s="339" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="355"/>
-      <c r="I7" s="355"/>
-      <c r="J7" s="356"/>
-      <c r="K7" s="354" t="s">
+      <c r="H7" s="340"/>
+      <c r="I7" s="340"/>
+      <c r="J7" s="341"/>
+      <c r="K7" s="339" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="355"/>
-      <c r="M7" s="355"/>
-      <c r="N7" s="355"/>
-      <c r="O7" s="354" t="s">
+      <c r="L7" s="340"/>
+      <c r="M7" s="340"/>
+      <c r="N7" s="340"/>
+      <c r="O7" s="339" t="s">
         <v>269</v>
       </c>
-      <c r="P7" s="355"/>
-      <c r="Q7" s="355"/>
-      <c r="R7" s="355"/>
-      <c r="S7" s="354" t="s">
+      <c r="P7" s="340"/>
+      <c r="Q7" s="340"/>
+      <c r="R7" s="340"/>
+      <c r="S7" s="339" t="s">
         <v>273</v>
       </c>
-      <c r="T7" s="355"/>
-      <c r="U7" s="355"/>
-      <c r="V7" s="355"/>
-      <c r="W7" s="354" t="s">
+      <c r="T7" s="340"/>
+      <c r="U7" s="340"/>
+      <c r="V7" s="340"/>
+      <c r="W7" s="339" t="s">
         <v>274</v>
       </c>
-      <c r="X7" s="355"/>
-      <c r="Y7" s="355"/>
-      <c r="Z7" s="355"/>
+      <c r="X7" s="340"/>
+      <c r="Y7" s="340"/>
+      <c r="Z7" s="340"/>
       <c r="AA7" s="222" t="s">
         <v>275</v>
       </c>
@@ -31374,7 +31345,7 @@
       </c>
       <c r="I2" s="259">
         <f t="array" ref="I2:I23">TRANSPOSE('add-ons calculations'!F71:AA71)</f>
-        <v>6.5999999999999659</v>
+        <v>-9.2000000000000455</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -31403,7 +31374,7 @@
         <v>0.63599999999996726</v>
       </c>
       <c r="I3" s="259">
-        <v>-4.6000000000000227</v>
+        <v>-19.800000000000011</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -33022,18 +32993,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33254,6 +33225,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -33266,14 +33245,6 @@
     <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/add-ons/add_factors_old_sophia.xlsx
+++ b/data/add-ons/add_factors_old_sophia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3C0502C-FC58-4492-A55D-4D6A183ED256}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABCC511-3C65-4953-8964-1093368B8F94}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
@@ -3496,6 +3496,29 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3571,6 +3594,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3592,56 +3630,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4179,86 +4179,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="342" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="327"/>
+      <c r="B1" s="342"/>
       <c r="C1" s="268"/>
       <c r="D1" s="268"/>
       <c r="E1" s="35"/>
       <c r="N1" t="s">
         <v>373</v>
       </c>
-      <c r="AC1" s="333" t="s">
+      <c r="AC1" s="348" t="s">
         <v>247</v>
       </c>
-      <c r="AD1" s="333"/>
-      <c r="AE1" s="331" t="s">
+      <c r="AD1" s="348"/>
+      <c r="AE1" s="346" t="s">
         <v>245</v>
       </c>
-      <c r="AF1" s="332"/>
+      <c r="AF1" s="347"/>
       <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="329" t="s">
+      <c r="AI1" s="344" t="s">
         <v>278</v>
       </c>
-      <c r="AJ1" s="329"/>
-      <c r="AK1" s="329"/>
-      <c r="AL1" s="329"/>
-      <c r="AM1" s="328" t="s">
+      <c r="AJ1" s="344"/>
+      <c r="AK1" s="344"/>
+      <c r="AL1" s="344"/>
+      <c r="AM1" s="343" t="s">
         <v>276</v>
       </c>
-      <c r="AN1" s="328"/>
-      <c r="AO1" s="328"/>
-      <c r="AP1" s="328"/>
+      <c r="AN1" s="343"/>
+      <c r="AO1" s="343"/>
+      <c r="AP1" s="343"/>
     </row>
     <row r="2" spans="1:43" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="326" t="s">
+      <c r="F2" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="326"/>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326" t="s">
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="341"/>
+      <c r="J2" s="341" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="326"/>
-      <c r="N2" s="326" t="s">
+      <c r="K2" s="341"/>
+      <c r="L2" s="341"/>
+      <c r="M2" s="341"/>
+      <c r="N2" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="326"/>
-      <c r="P2" s="326"/>
-      <c r="Q2" s="326"/>
-      <c r="R2" s="326" t="s">
+      <c r="O2" s="341"/>
+      <c r="P2" s="341"/>
+      <c r="Q2" s="341"/>
+      <c r="R2" s="341" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="326"/>
-      <c r="T2" s="326"/>
-      <c r="U2" s="326"/>
-      <c r="V2" s="326" t="s">
+      <c r="S2" s="341"/>
+      <c r="T2" s="341"/>
+      <c r="U2" s="341"/>
+      <c r="V2" s="341" t="s">
         <v>265</v>
       </c>
-      <c r="W2" s="326"/>
-      <c r="X2" s="326"/>
-      <c r="Y2" s="326"/>
+      <c r="W2" s="341"/>
+      <c r="X2" s="341"/>
+      <c r="Y2" s="341"/>
       <c r="Z2" s="221"/>
       <c r="AA2" s="283"/>
       <c r="AB2" s="221"/>
-      <c r="AC2" s="326" t="s">
+      <c r="AC2" s="341" t="s">
         <v>102</v>
       </c>
-      <c r="AD2" s="326"/>
-      <c r="AE2" s="326"/>
-      <c r="AF2" s="326"/>
-      <c r="AG2" s="326"/>
-      <c r="AH2" s="326"/>
-      <c r="AI2" s="326"/>
-      <c r="AJ2" s="326"/>
-      <c r="AK2" s="326"/>
-      <c r="AL2" s="330"/>
+      <c r="AD2" s="341"/>
+      <c r="AE2" s="341"/>
+      <c r="AF2" s="341"/>
+      <c r="AG2" s="341"/>
+      <c r="AH2" s="341"/>
+      <c r="AI2" s="341"/>
+      <c r="AJ2" s="341"/>
+      <c r="AK2" s="341"/>
+      <c r="AL2" s="345"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="F3" s="197" t="s">
@@ -4365,10 +4365,10 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="325" t="s">
+      <c r="A4" s="340" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="325"/>
+      <c r="B4" s="340"/>
       <c r="C4" s="268"/>
       <c r="D4" s="268"/>
       <c r="F4" s="197"/>
@@ -6393,31 +6393,31 @@
         <v>2925056</v>
       </c>
       <c r="O34" s="133">
-        <f>O35+O40+O51</f>
+        <f t="shared" ref="O34:U34" si="29">O35+O40+O51</f>
         <v>3270456.7169724014</v>
       </c>
       <c r="P34" s="133">
-        <f>P35+P40+P51</f>
+        <f t="shared" si="29"/>
         <v>2708796.7165770018</v>
       </c>
       <c r="Q34" s="133">
-        <f>Q35+Q40+Q51</f>
+        <f t="shared" si="29"/>
         <v>2611509.6718853824</v>
       </c>
       <c r="R34" s="133">
-        <f>R35+R40+R51</f>
+        <f t="shared" si="29"/>
         <v>2678465.9441347551</v>
       </c>
       <c r="S34" s="133">
-        <f>S35+S40+S51</f>
+        <f t="shared" si="29"/>
         <v>2735176.6542439447</v>
       </c>
       <c r="T34" s="133">
-        <f>T35+T40+T51</f>
+        <f t="shared" si="29"/>
         <v>2793300.2519227522</v>
       </c>
       <c r="U34" s="133">
-        <f>U35+U40+U51</f>
+        <f t="shared" si="29"/>
         <v>2852876.3150512893</v>
       </c>
       <c r="V34" s="87"/>
@@ -6795,35 +6795,35 @@
         <v>338269</v>
       </c>
       <c r="O40" s="87">
-        <f t="shared" ref="O40:V40" si="29">O42+O46</f>
+        <f t="shared" ref="O40:V40" si="30">O42+O46</f>
         <v>724000</v>
       </c>
       <c r="P40" s="87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>152000</v>
       </c>
       <c r="Q40" s="87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>44000</v>
       </c>
       <c r="R40" s="87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>44000</v>
       </c>
       <c r="S40" s="87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>44000</v>
       </c>
       <c r="T40" s="87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>44000</v>
       </c>
       <c r="U40" s="87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>44000</v>
       </c>
       <c r="V40" s="87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>44000</v>
       </c>
       <c r="W40" s="44"/>
@@ -6845,7 +6845,7 @@
         <v>314.56725</v>
       </c>
       <c r="AF40" s="45">
-        <f t="shared" ref="AF40:AF51" si="30">AVERAGE(R40:U40)/1000</f>
+        <f t="shared" ref="AF40:AF51" si="31">AVERAGE(R40:U40)/1000</f>
         <v>44</v>
       </c>
       <c r="AH40">
@@ -6944,11 +6944,11 @@
         <v>108000</v>
       </c>
       <c r="Q42" s="87">
-        <f t="shared" ref="Q42" si="31">Q43+Q44+Q45</f>
+        <f t="shared" ref="Q42" si="32">Q43+Q44+Q45</f>
         <v>0</v>
       </c>
       <c r="R42" s="87">
-        <f t="shared" ref="R42" si="32">R43+R44</f>
+        <f t="shared" ref="R42" si="33">R43+R44</f>
         <v>0</v>
       </c>
       <c r="S42" s="87"/>
@@ -7042,7 +7042,7 @@
         <v>139.42500000000001</v>
       </c>
       <c r="AF43" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AG43" s="3"/>
@@ -7208,7 +7208,7 @@
         <v>46.174999999999997</v>
       </c>
       <c r="AF46" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>44</v>
       </c>
       <c r="AG46" s="3"/>
@@ -7219,81 +7219,81 @@
       <c r="AM46" s="182"/>
     </row>
     <row r="47" spans="1:39" s="107" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="368" t="s">
+      <c r="A47" s="325" t="s">
         <v>147</v>
       </c>
-      <c r="F47" s="369"/>
-      <c r="G47" s="369"/>
-      <c r="H47" s="369"/>
-      <c r="I47" s="369"/>
-      <c r="J47" s="369">
+      <c r="F47" s="326"/>
+      <c r="G47" s="326"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326">
         <v>0</v>
       </c>
-      <c r="K47" s="369">
+      <c r="K47" s="326">
         <v>0</v>
       </c>
-      <c r="L47" s="369">
+      <c r="L47" s="326">
         <f>SUM(L48:L50)</f>
         <v>179900</v>
       </c>
-      <c r="M47" s="370">
+      <c r="M47" s="327">
         <v>85400</v>
       </c>
-      <c r="N47" s="371">
+      <c r="N47" s="328">
         <f>SUM(N48:N50)</f>
         <v>45300</v>
       </c>
-      <c r="O47" s="372">
-        <f t="shared" ref="O47:R47" si="33">SUM(O48:O50)</f>
+      <c r="O47" s="329">
+        <f t="shared" ref="O47:R47" si="34">SUM(O48:O50)</f>
         <v>54177.595548489669</v>
       </c>
-      <c r="P47" s="372">
-        <f t="shared" si="33"/>
+      <c r="P47" s="329">
+        <f t="shared" si="34"/>
         <v>43000</v>
       </c>
-      <c r="Q47" s="372">
-        <f t="shared" si="33"/>
+      <c r="Q47" s="329">
+        <f t="shared" si="34"/>
         <v>43000</v>
       </c>
-      <c r="R47" s="372">
-        <f t="shared" si="33"/>
+      <c r="R47" s="329">
+        <f t="shared" si="34"/>
         <v>15000</v>
       </c>
-      <c r="S47" s="372"/>
-      <c r="T47" s="372"/>
-      <c r="U47" s="372"/>
-      <c r="V47" s="373"/>
-      <c r="W47" s="373"/>
-      <c r="X47" s="373"/>
-      <c r="Y47" s="373"/>
-      <c r="Z47" s="373"/>
-      <c r="AA47" s="373"/>
-      <c r="AB47" s="373"/>
-      <c r="AC47" s="373"/>
-      <c r="AD47" s="374">
+      <c r="S47" s="329"/>
+      <c r="T47" s="329"/>
+      <c r="U47" s="329"/>
+      <c r="V47" s="330"/>
+      <c r="W47" s="330"/>
+      <c r="X47" s="330"/>
+      <c r="Y47" s="330"/>
+      <c r="Z47" s="330"/>
+      <c r="AA47" s="330"/>
+      <c r="AB47" s="330"/>
+      <c r="AC47" s="330"/>
+      <c r="AD47" s="331">
         <f>AVERAGE(J47:M47)/1000</f>
         <v>66.325000000000003</v>
       </c>
-      <c r="AE47" s="374">
+      <c r="AE47" s="331">
         <f>AVERAGE(N47:Q47)/1000</f>
         <v>46.369398887122415</v>
       </c>
-      <c r="AF47" s="374">
-        <f t="shared" ref="AF47" si="34">AVERAGE(R47:U47)/1000</f>
+      <c r="AF47" s="331">
+        <f t="shared" ref="AF47" si="35">AVERAGE(R47:U47)/1000</f>
         <v>15</v>
       </c>
-      <c r="AG47" s="373"/>
-      <c r="AI47" s="373">
+      <c r="AG47" s="330"/>
+      <c r="AI47" s="330">
         <f>'figuring out social benefits'!G48</f>
         <v>105</v>
       </c>
-      <c r="AJ47" s="373"/>
-      <c r="AK47" s="373"/>
-      <c r="AL47" s="373"/>
-      <c r="AM47" s="375"/>
+      <c r="AJ47" s="330"/>
+      <c r="AK47" s="330"/>
+      <c r="AL47" s="330"/>
+      <c r="AM47" s="332"/>
     </row>
     <row r="48" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="376" t="s">
+      <c r="A48" s="333" t="s">
         <v>205</v>
       </c>
       <c r="B48" s="107" t="s">
@@ -7302,57 +7302,57 @@
       <c r="C48" s="107" t="s">
         <v>305</v>
       </c>
-      <c r="F48" s="369"/>
-      <c r="G48" s="369"/>
-      <c r="H48" s="369"/>
-      <c r="I48" s="369"/>
-      <c r="J48" s="369"/>
-      <c r="K48" s="369"/>
-      <c r="L48" s="369">
+      <c r="F48" s="326"/>
+      <c r="G48" s="326"/>
+      <c r="H48" s="326"/>
+      <c r="I48" s="326"/>
+      <c r="J48" s="326"/>
+      <c r="K48" s="326"/>
+      <c r="L48" s="326">
         <v>19000</v>
       </c>
-      <c r="M48" s="370">
+      <c r="M48" s="327">
         <v>27000</v>
       </c>
-      <c r="N48" s="371">
+      <c r="N48" s="328">
         <f>VLOOKUP($C$48,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>10800</v>
       </c>
-      <c r="O48" s="372">
+      <c r="O48" s="329">
         <v>377.5955484896661</v>
       </c>
-      <c r="P48" s="372">
+      <c r="P48" s="329">
         <v>0</v>
       </c>
-      <c r="Q48" s="372">
+      <c r="Q48" s="329">
         <v>0</v>
       </c>
-      <c r="R48" s="372">
+      <c r="R48" s="329">
         <v>0</v>
       </c>
-      <c r="S48" s="372"/>
-      <c r="T48" s="372"/>
-      <c r="U48" s="372"/>
-      <c r="V48" s="372"/>
-      <c r="W48" s="372"/>
-      <c r="X48" s="372"/>
-      <c r="Y48" s="372"/>
-      <c r="Z48" s="372"/>
-      <c r="AA48" s="372"/>
-      <c r="AB48" s="372"/>
-      <c r="AC48" s="372"/>
-      <c r="AD48" s="372"/>
-      <c r="AE48" s="372"/>
-      <c r="AF48" s="372"/>
-      <c r="AG48" s="372"/>
-      <c r="AI48" s="373"/>
-      <c r="AJ48" s="373"/>
-      <c r="AK48" s="373"/>
-      <c r="AL48" s="373"/>
-      <c r="AM48" s="375"/>
+      <c r="S48" s="329"/>
+      <c r="T48" s="329"/>
+      <c r="U48" s="329"/>
+      <c r="V48" s="329"/>
+      <c r="W48" s="329"/>
+      <c r="X48" s="329"/>
+      <c r="Y48" s="329"/>
+      <c r="Z48" s="329"/>
+      <c r="AA48" s="329"/>
+      <c r="AB48" s="329"/>
+      <c r="AC48" s="329"/>
+      <c r="AD48" s="329"/>
+      <c r="AE48" s="329"/>
+      <c r="AF48" s="329"/>
+      <c r="AG48" s="329"/>
+      <c r="AI48" s="330"/>
+      <c r="AJ48" s="330"/>
+      <c r="AK48" s="330"/>
+      <c r="AL48" s="330"/>
+      <c r="AM48" s="332"/>
     </row>
     <row r="49" spans="1:41" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="376" t="s">
+      <c r="A49" s="333" t="s">
         <v>382</v>
       </c>
       <c r="B49" s="107" t="s">
@@ -7361,44 +7361,44 @@
       <c r="C49" s="107" t="s">
         <v>305</v>
       </c>
-      <c r="F49" s="369"/>
-      <c r="G49" s="369"/>
-      <c r="H49" s="369"/>
-      <c r="I49" s="369"/>
-      <c r="J49" s="369"/>
-      <c r="K49" s="369"/>
-      <c r="L49" s="369"/>
-      <c r="M49" s="370"/>
-      <c r="N49" s="371"/>
-      <c r="O49" s="372">
+      <c r="F49" s="326"/>
+      <c r="G49" s="326"/>
+      <c r="H49" s="326"/>
+      <c r="I49" s="326"/>
+      <c r="J49" s="326"/>
+      <c r="K49" s="326"/>
+      <c r="L49" s="326"/>
+      <c r="M49" s="327"/>
+      <c r="N49" s="328"/>
+      <c r="O49" s="329">
         <v>10800</v>
       </c>
-      <c r="P49" s="372"/>
-      <c r="Q49" s="372"/>
-      <c r="R49" s="372"/>
-      <c r="S49" s="372"/>
-      <c r="T49" s="372"/>
-      <c r="U49" s="372"/>
-      <c r="V49" s="372"/>
-      <c r="W49" s="372"/>
-      <c r="X49" s="372"/>
-      <c r="Y49" s="372"/>
-      <c r="Z49" s="372"/>
-      <c r="AA49" s="372"/>
-      <c r="AB49" s="372"/>
-      <c r="AC49" s="372"/>
-      <c r="AD49" s="372"/>
-      <c r="AE49" s="372"/>
-      <c r="AF49" s="372"/>
-      <c r="AG49" s="372"/>
-      <c r="AI49" s="373"/>
-      <c r="AJ49" s="373"/>
-      <c r="AK49" s="373"/>
-      <c r="AL49" s="373"/>
-      <c r="AM49" s="375"/>
+      <c r="P49" s="329"/>
+      <c r="Q49" s="329"/>
+      <c r="R49" s="329"/>
+      <c r="S49" s="329"/>
+      <c r="T49" s="329"/>
+      <c r="U49" s="329"/>
+      <c r="V49" s="329"/>
+      <c r="W49" s="329"/>
+      <c r="X49" s="329"/>
+      <c r="Y49" s="329"/>
+      <c r="Z49" s="329"/>
+      <c r="AA49" s="329"/>
+      <c r="AB49" s="329"/>
+      <c r="AC49" s="329"/>
+      <c r="AD49" s="329"/>
+      <c r="AE49" s="329"/>
+      <c r="AF49" s="329"/>
+      <c r="AG49" s="329"/>
+      <c r="AI49" s="330"/>
+      <c r="AJ49" s="330"/>
+      <c r="AK49" s="330"/>
+      <c r="AL49" s="330"/>
+      <c r="AM49" s="332"/>
     </row>
     <row r="50" spans="1:41" s="107" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="376" t="s">
+      <c r="A50" s="333" t="s">
         <v>383</v>
       </c>
       <c r="B50" s="107" t="s">
@@ -7407,54 +7407,54 @@
       <c r="C50" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="F50" s="369"/>
-      <c r="G50" s="369"/>
-      <c r="H50" s="369"/>
-      <c r="I50" s="369"/>
-      <c r="J50" s="369"/>
-      <c r="K50" s="369"/>
-      <c r="L50" s="369">
+      <c r="F50" s="326"/>
+      <c r="G50" s="326"/>
+      <c r="H50" s="326"/>
+      <c r="I50" s="326"/>
+      <c r="J50" s="326"/>
+      <c r="K50" s="326"/>
+      <c r="L50" s="326">
         <v>160900</v>
       </c>
-      <c r="M50" s="370">
+      <c r="M50" s="327">
         <v>58400</v>
       </c>
-      <c r="N50" s="371">
+      <c r="N50" s="328">
         <f>VLOOKUP($C$50,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>34500</v>
       </c>
-      <c r="O50" s="372">
+      <c r="O50" s="329">
         <v>43000</v>
       </c>
-      <c r="P50" s="372">
+      <c r="P50" s="329">
         <v>43000</v>
       </c>
-      <c r="Q50" s="372">
+      <c r="Q50" s="329">
         <v>43000</v>
       </c>
-      <c r="R50" s="372">
+      <c r="R50" s="329">
         <v>15000</v>
       </c>
-      <c r="S50" s="372"/>
-      <c r="T50" s="372"/>
-      <c r="U50" s="372"/>
-      <c r="V50" s="372"/>
-      <c r="W50" s="372"/>
-      <c r="X50" s="372"/>
-      <c r="Y50" s="372"/>
-      <c r="Z50" s="372"/>
-      <c r="AA50" s="372"/>
-      <c r="AB50" s="372"/>
-      <c r="AC50" s="372"/>
-      <c r="AD50" s="372"/>
-      <c r="AE50" s="372"/>
-      <c r="AF50" s="372"/>
-      <c r="AG50" s="372"/>
-      <c r="AI50" s="373"/>
-      <c r="AJ50" s="373"/>
-      <c r="AK50" s="373"/>
-      <c r="AL50" s="373"/>
-      <c r="AM50" s="375"/>
+      <c r="S50" s="329"/>
+      <c r="T50" s="329"/>
+      <c r="U50" s="329"/>
+      <c r="V50" s="329"/>
+      <c r="W50" s="329"/>
+      <c r="X50" s="329"/>
+      <c r="Y50" s="329"/>
+      <c r="Z50" s="329"/>
+      <c r="AA50" s="329"/>
+      <c r="AB50" s="329"/>
+      <c r="AC50" s="329"/>
+      <c r="AD50" s="329"/>
+      <c r="AE50" s="329"/>
+      <c r="AF50" s="329"/>
+      <c r="AG50" s="329"/>
+      <c r="AI50" s="330"/>
+      <c r="AJ50" s="330"/>
+      <c r="AK50" s="330"/>
+      <c r="AL50" s="330"/>
+      <c r="AM50" s="332"/>
     </row>
     <row r="51" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="86" t="s">
@@ -7500,11 +7500,11 @@
         <v>1663323.8025</v>
       </c>
       <c r="P51" s="88">
-        <f t="shared" ref="P51:Q51" si="35">O51*(1+P53)</f>
+        <f t="shared" ref="P51:Q51" si="36">O51*(1+P53)</f>
         <v>1650848.87398125</v>
       </c>
       <c r="Q51" s="88">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1638467.5074263907</v>
       </c>
       <c r="R51" s="88">
@@ -7512,15 +7512,15 @@
         <v>1663044.5200377863</v>
       </c>
       <c r="S51" s="88">
-        <f t="shared" ref="S51:U51" si="36">R51*(1+S53)</f>
+        <f t="shared" ref="S51:U51" si="37">R51*(1+S53)</f>
         <v>1687990.187838353</v>
       </c>
       <c r="T51" s="88">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1713310.0406559282</v>
       </c>
       <c r="U51" s="88">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1739009.691265767</v>
       </c>
       <c r="V51" s="88">
@@ -7546,7 +7546,7 @@
         <v>1657.1332959769102</v>
       </c>
       <c r="AF51" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1700.8386099494589</v>
       </c>
       <c r="AG51" s="3"/>
@@ -7585,30 +7585,30 @@
         <v>4.3899160317375507E-2</v>
       </c>
       <c r="H52" s="227">
-        <f t="shared" ref="H52:L52" si="37">H51/G51-1</f>
+        <f t="shared" ref="H52:L52" si="38">H51/G51-1</f>
         <v>3.4867401440725754E-3</v>
       </c>
       <c r="I52" s="227">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3.5163841628156334E-3</v>
       </c>
       <c r="J52" s="227">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>5.2735975988749129E-3</v>
       </c>
       <c r="K52" s="227">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3.4509222105193249E-2</v>
       </c>
       <c r="L52" s="227">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4.7166587697893059E-2</v>
       </c>
       <c r="M52" s="227">
         <v>1.2783825552366457E-2</v>
       </c>
       <c r="N52" s="227">
-        <f t="shared" ref="N52" si="38">N51/M51-1</f>
+        <f t="shared" ref="N52" si="39">N51/M51-1</f>
         <v>3.6483389338011207E-3</v>
       </c>
       <c r="O52" s="226"/>
@@ -7769,51 +7769,51 @@
         <v>610536</v>
       </c>
       <c r="O55" s="144">
-        <f t="shared" ref="O55:Z55" si="39">O56+AVERAGE($H$55:$K$55)</f>
+        <f t="shared" ref="O55:Z55" si="40">O56+AVERAGE($H$55:$K$55)</f>
         <v>794083.58333333337</v>
       </c>
       <c r="P55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>794083.58333333337</v>
       </c>
       <c r="Q55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>144083.58333333331</v>
       </c>
       <c r="R55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>122750.25</v>
       </c>
       <c r="S55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>77330.25</v>
       </c>
       <c r="T55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>77330.25</v>
       </c>
       <c r="U55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>77330.25</v>
       </c>
       <c r="V55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>77330.25</v>
       </c>
       <c r="W55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>74830.25</v>
       </c>
       <c r="X55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>74830.25</v>
       </c>
       <c r="Y55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>74830.25</v>
       </c>
       <c r="Z55" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>74830.25</v>
       </c>
       <c r="AA55" s="44"/>
@@ -7842,7 +7842,7 @@
         <v>1093900</v>
       </c>
       <c r="N56" s="308">
-        <f t="shared" ref="N56" si="40">N58+N59+N64</f>
+        <f t="shared" ref="N56" si="41">N58+N59+N64</f>
         <v>473700</v>
       </c>
       <c r="O56" s="116">
@@ -7850,31 +7850,31 @@
         <v>719253.33333333337</v>
       </c>
       <c r="P56" s="116">
-        <f t="shared" ref="P56:V56" si="41">P58+P59+SUM(P64:P67)</f>
+        <f t="shared" ref="P56:V56" si="42">P58+P59+SUM(P64:P67)</f>
         <v>719253.33333333337</v>
       </c>
       <c r="Q56" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>69253.333333333328</v>
       </c>
       <c r="R56" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>47920</v>
       </c>
       <c r="S56" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2500</v>
       </c>
       <c r="T56" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2500</v>
       </c>
       <c r="U56" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2500</v>
       </c>
       <c r="V56" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2500</v>
       </c>
       <c r="W56" s="44"/>
@@ -8551,31 +8551,31 @@
         <v>227</v>
       </c>
       <c r="F71" s="203">
-        <f t="shared" ref="F71:L71" si="42">F69-F96</f>
+        <f t="shared" ref="F71:L71" si="43">F69-F96</f>
         <v>196851</v>
       </c>
       <c r="G71" s="203">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>189684</v>
       </c>
       <c r="H71" s="203">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>192875</v>
       </c>
       <c r="I71" s="203">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>191507</v>
       </c>
       <c r="J71" s="203">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>203997</v>
       </c>
       <c r="K71" s="203">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>204376</v>
       </c>
       <c r="L71" s="203">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>884250</v>
       </c>
       <c r="M71" s="301">
@@ -8632,47 +8632,47 @@
         <v>197738.804</v>
       </c>
       <c r="P72" s="116">
-        <f t="shared" ref="P72:Z72" si="43">O72*(1+P90)</f>
+        <f t="shared" ref="P72:Z72" si="44">O72*(1+P90)</f>
         <v>198529.75921600001</v>
       </c>
       <c r="Q72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>199323.878252864</v>
       </c>
       <c r="R72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>200121.17376587546</v>
       </c>
       <c r="S72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>200921.65846093895</v>
       </c>
       <c r="T72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>201725.34509478271</v>
       </c>
       <c r="U72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>202532.24647516184</v>
       </c>
       <c r="V72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>203342.37546106247</v>
       </c>
       <c r="W72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>204155.74496290673</v>
       </c>
       <c r="X72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>204972.36794275834</v>
       </c>
       <c r="Y72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>205792.25741452936</v>
       </c>
       <c r="Z72" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>206615.42644418747</v>
       </c>
       <c r="AA72" s="44"/>
@@ -8749,59 +8749,59 @@
         <v>90400</v>
       </c>
       <c r="M74" s="206">
-        <f t="shared" ref="M74:N74" si="44">SUM(M76:M79)</f>
+        <f t="shared" ref="M74:N74" si="45">SUM(M76:M79)</f>
         <v>87800</v>
       </c>
       <c r="N74" s="206">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>87200</v>
       </c>
       <c r="O74" s="116">
-        <f t="shared" ref="O74:Z74" si="45">O75+O81</f>
+        <f t="shared" ref="O74:Z74" si="46">O75+O81</f>
         <v>177900</v>
       </c>
       <c r="P74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>121000</v>
       </c>
       <c r="Q74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>121000</v>
       </c>
       <c r="R74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>115000</v>
       </c>
       <c r="S74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>109000</v>
       </c>
       <c r="T74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>109000</v>
       </c>
       <c r="U74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>109000</v>
       </c>
       <c r="V74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>109000</v>
       </c>
       <c r="W74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>109000</v>
       </c>
       <c r="X74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>59000</v>
       </c>
       <c r="Y74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>59000</v>
       </c>
       <c r="Z74" s="116">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>59000</v>
       </c>
       <c r="AA74" s="116"/>
@@ -8831,47 +8831,47 @@
         <v>118900</v>
       </c>
       <c r="P75" s="116">
-        <f t="shared" ref="P75:Z75" si="46">SUM(P76:P79)</f>
+        <f t="shared" ref="P75:Z75" si="47">SUM(P76:P79)</f>
         <v>62000</v>
       </c>
       <c r="Q75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>62000</v>
       </c>
       <c r="R75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>56000</v>
       </c>
       <c r="S75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50000</v>
       </c>
       <c r="T75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50000</v>
       </c>
       <c r="U75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50000</v>
       </c>
       <c r="V75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50000</v>
       </c>
       <c r="W75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50000</v>
       </c>
       <c r="X75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z75" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AA75" s="44"/>
@@ -8948,7 +8948,7 @@
       <c r="AM76" s="233"/>
     </row>
     <row r="77" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="377" t="s">
+      <c r="A77" s="334" t="s">
         <v>381</v>
       </c>
       <c r="B77" s="107" t="s">
@@ -8957,52 +8957,52 @@
       <c r="C77" s="107" t="s">
         <v>378</v>
       </c>
-      <c r="F77" s="378"/>
-      <c r="G77" s="378"/>
-      <c r="H77" s="378"/>
-      <c r="I77" s="369"/>
-      <c r="J77" s="369"/>
-      <c r="K77" s="369"/>
-      <c r="L77" s="369">
+      <c r="F77" s="335"/>
+      <c r="G77" s="335"/>
+      <c r="H77" s="335"/>
+      <c r="I77" s="326"/>
+      <c r="J77" s="326"/>
+      <c r="K77" s="326"/>
+      <c r="L77" s="326">
         <v>28400</v>
       </c>
-      <c r="M77" s="370">
+      <c r="M77" s="327">
         <v>15800</v>
       </c>
-      <c r="N77" s="379">
+      <c r="N77" s="336">
         <v>15200</v>
       </c>
-      <c r="O77" s="380">
+      <c r="O77" s="337">
         <v>18000</v>
       </c>
-      <c r="P77" s="380">
+      <c r="P77" s="337">
         <v>0</v>
       </c>
-      <c r="Q77" s="380">
+      <c r="Q77" s="337">
         <v>0</v>
       </c>
-      <c r="R77" s="380">
+      <c r="R77" s="337">
         <v>0</v>
       </c>
-      <c r="S77" s="373"/>
-      <c r="T77" s="373"/>
-      <c r="U77" s="373"/>
-      <c r="V77" s="373"/>
-      <c r="W77" s="373"/>
-      <c r="X77" s="373"/>
-      <c r="Y77" s="373"/>
-      <c r="Z77" s="373"/>
-      <c r="AA77" s="373"/>
-      <c r="AB77" s="373"/>
-      <c r="AC77" s="373"/>
-      <c r="AD77" s="373"/>
-      <c r="AE77" s="373"/>
-      <c r="AF77" s="373"/>
-      <c r="AG77" s="373"/>
-      <c r="AM77" s="381"/>
+      <c r="S77" s="330"/>
+      <c r="T77" s="330"/>
+      <c r="U77" s="330"/>
+      <c r="V77" s="330"/>
+      <c r="W77" s="330"/>
+      <c r="X77" s="330"/>
+      <c r="Y77" s="330"/>
+      <c r="Z77" s="330"/>
+      <c r="AA77" s="330"/>
+      <c r="AB77" s="330"/>
+      <c r="AC77" s="330"/>
+      <c r="AD77" s="330"/>
+      <c r="AE77" s="330"/>
+      <c r="AF77" s="330"/>
+      <c r="AG77" s="330"/>
+      <c r="AM77" s="338"/>
     </row>
     <row r="78" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="377" t="s">
+      <c r="A78" s="334" t="s">
         <v>384</v>
       </c>
       <c r="B78" s="107" t="s">
@@ -9011,40 +9011,40 @@
       <c r="C78" s="107" t="s">
         <v>378</v>
       </c>
-      <c r="F78" s="378"/>
-      <c r="G78" s="378"/>
-      <c r="H78" s="378"/>
-      <c r="I78" s="369"/>
-      <c r="J78" s="369"/>
-      <c r="K78" s="369"/>
-      <c r="L78" s="369"/>
-      <c r="M78" s="370"/>
-      <c r="N78" s="379"/>
-      <c r="O78" s="380">
+      <c r="F78" s="335"/>
+      <c r="G78" s="335"/>
+      <c r="H78" s="335"/>
+      <c r="I78" s="326"/>
+      <c r="J78" s="326"/>
+      <c r="K78" s="326"/>
+      <c r="L78" s="326"/>
+      <c r="M78" s="327"/>
+      <c r="N78" s="336"/>
+      <c r="O78" s="337">
         <v>28900</v>
       </c>
-      <c r="P78" s="380"/>
-      <c r="Q78" s="380"/>
-      <c r="R78" s="380"/>
-      <c r="S78" s="373"/>
-      <c r="T78" s="373"/>
-      <c r="U78" s="373"/>
-      <c r="V78" s="373"/>
-      <c r="W78" s="373"/>
-      <c r="X78" s="373"/>
-      <c r="Y78" s="373"/>
-      <c r="Z78" s="373"/>
-      <c r="AA78" s="373"/>
-      <c r="AB78" s="373"/>
-      <c r="AC78" s="373"/>
-      <c r="AD78" s="373"/>
-      <c r="AE78" s="373"/>
-      <c r="AF78" s="373"/>
-      <c r="AG78" s="373"/>
-      <c r="AM78" s="381"/>
+      <c r="P78" s="337"/>
+      <c r="Q78" s="337"/>
+      <c r="R78" s="337"/>
+      <c r="S78" s="330"/>
+      <c r="T78" s="330"/>
+      <c r="U78" s="330"/>
+      <c r="V78" s="330"/>
+      <c r="W78" s="330"/>
+      <c r="X78" s="330"/>
+      <c r="Y78" s="330"/>
+      <c r="Z78" s="330"/>
+      <c r="AA78" s="330"/>
+      <c r="AB78" s="330"/>
+      <c r="AC78" s="330"/>
+      <c r="AD78" s="330"/>
+      <c r="AE78" s="330"/>
+      <c r="AF78" s="330"/>
+      <c r="AG78" s="330"/>
+      <c r="AM78" s="338"/>
     </row>
     <row r="79" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="377" t="s">
+      <c r="A79" s="334" t="s">
         <v>201</v>
       </c>
       <c r="B79" s="107" t="s">
@@ -9053,52 +9053,52 @@
       <c r="C79" s="107" t="s">
         <v>379</v>
       </c>
-      <c r="F79" s="378"/>
-      <c r="G79" s="378"/>
-      <c r="H79" s="378"/>
-      <c r="I79" s="369"/>
-      <c r="J79" s="369"/>
-      <c r="K79" s="369"/>
-      <c r="L79" s="369">
+      <c r="F79" s="335"/>
+      <c r="G79" s="335"/>
+      <c r="H79" s="335"/>
+      <c r="I79" s="326"/>
+      <c r="J79" s="326"/>
+      <c r="K79" s="326"/>
+      <c r="L79" s="326">
         <v>27000</v>
       </c>
-      <c r="M79" s="370">
+      <c r="M79" s="327">
         <v>27000</v>
       </c>
-      <c r="N79" s="379">
+      <c r="N79" s="336">
         <v>12000</v>
       </c>
-      <c r="O79" s="380">
+      <c r="O79" s="337">
         <v>12000</v>
       </c>
-      <c r="P79" s="380">
+      <c r="P79" s="337">
         <v>12000</v>
       </c>
-      <c r="Q79" s="380">
+      <c r="Q79" s="337">
         <v>12000</v>
       </c>
-      <c r="R79" s="380">
+      <c r="R79" s="337">
         <v>6000</v>
       </c>
-      <c r="S79" s="373"/>
-      <c r="T79" s="373"/>
-      <c r="U79" s="373"/>
-      <c r="V79" s="373"/>
-      <c r="W79" s="373"/>
-      <c r="X79" s="373"/>
-      <c r="Y79" s="373"/>
-      <c r="Z79" s="373"/>
-      <c r="AA79" s="373"/>
-      <c r="AB79" s="373"/>
-      <c r="AC79" s="373"/>
-      <c r="AD79" s="373"/>
-      <c r="AE79" s="373"/>
-      <c r="AF79" s="373"/>
-      <c r="AG79" s="373"/>
-      <c r="AM79" s="381"/>
+      <c r="S79" s="330"/>
+      <c r="T79" s="330"/>
+      <c r="U79" s="330"/>
+      <c r="V79" s="330"/>
+      <c r="W79" s="330"/>
+      <c r="X79" s="330"/>
+      <c r="Y79" s="330"/>
+      <c r="Z79" s="330"/>
+      <c r="AA79" s="330"/>
+      <c r="AB79" s="330"/>
+      <c r="AC79" s="330"/>
+      <c r="AD79" s="330"/>
+      <c r="AE79" s="330"/>
+      <c r="AF79" s="330"/>
+      <c r="AG79" s="330"/>
+      <c r="AM79" s="338"/>
     </row>
     <row r="80" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="377" t="s">
+      <c r="A80" s="334" t="s">
         <v>385</v>
       </c>
       <c r="B80" s="107" t="s">
@@ -9107,43 +9107,43 @@
       <c r="C80" s="107" t="s">
         <v>379</v>
       </c>
-      <c r="F80" s="378"/>
-      <c r="G80" s="378"/>
-      <c r="H80" s="378"/>
-      <c r="I80" s="369"/>
-      <c r="J80" s="369"/>
-      <c r="K80" s="369"/>
-      <c r="L80" s="369">
+      <c r="F80" s="335"/>
+      <c r="G80" s="335"/>
+      <c r="H80" s="335"/>
+      <c r="I80" s="326"/>
+      <c r="J80" s="326"/>
+      <c r="K80" s="326"/>
+      <c r="L80" s="326">
         <v>64400</v>
       </c>
-      <c r="M80" s="382">
+      <c r="M80" s="339">
         <v>23400</v>
       </c>
-      <c r="N80" s="379">
+      <c r="N80" s="336">
         <v>13800</v>
       </c>
-      <c r="O80" s="380">
+      <c r="O80" s="337">
         <v>17100</v>
       </c>
-      <c r="P80" s="380"/>
-      <c r="Q80" s="380"/>
-      <c r="R80" s="380"/>
-      <c r="S80" s="373"/>
-      <c r="T80" s="373"/>
-      <c r="U80" s="373"/>
-      <c r="V80" s="373"/>
-      <c r="W80" s="373"/>
-      <c r="X80" s="373"/>
-      <c r="Y80" s="373"/>
-      <c r="Z80" s="373"/>
-      <c r="AA80" s="373"/>
-      <c r="AB80" s="373"/>
-      <c r="AC80" s="373"/>
-      <c r="AD80" s="373"/>
-      <c r="AE80" s="373"/>
-      <c r="AF80" s="373"/>
-      <c r="AG80" s="373"/>
-      <c r="AM80" s="381"/>
+      <c r="P80" s="337"/>
+      <c r="Q80" s="337"/>
+      <c r="R80" s="337"/>
+      <c r="S80" s="330"/>
+      <c r="T80" s="330"/>
+      <c r="U80" s="330"/>
+      <c r="V80" s="330"/>
+      <c r="W80" s="330"/>
+      <c r="X80" s="330"/>
+      <c r="Y80" s="330"/>
+      <c r="Z80" s="330"/>
+      <c r="AA80" s="330"/>
+      <c r="AB80" s="330"/>
+      <c r="AC80" s="330"/>
+      <c r="AD80" s="330"/>
+      <c r="AE80" s="330"/>
+      <c r="AF80" s="330"/>
+      <c r="AG80" s="330"/>
+      <c r="AM80" s="338"/>
     </row>
     <row r="81" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="220" t="s">
@@ -9163,47 +9163,47 @@
         <v>59000</v>
       </c>
       <c r="P81" s="116">
-        <f t="shared" ref="P81:Z81" si="47">SUM(P82:P85)</f>
+        <f t="shared" ref="P81:Z81" si="48">SUM(P82:P85)</f>
         <v>59000</v>
       </c>
       <c r="Q81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="R81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="S81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="T81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="U81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="V81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="W81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="X81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="Y81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="Z81" s="116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59000</v>
       </c>
       <c r="AA81" s="116"/>
@@ -9523,51 +9523,51 @@
         <v>284151</v>
       </c>
       <c r="O86" s="144">
-        <f t="shared" ref="O86:Z86" si="48">O72+O74</f>
+        <f t="shared" ref="O86:Z86" si="49">O72+O74</f>
         <v>375638.804</v>
       </c>
       <c r="P86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>319529.75921599998</v>
       </c>
       <c r="Q86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>320323.878252864</v>
       </c>
       <c r="R86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>315121.17376587546</v>
       </c>
       <c r="S86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>309921.65846093895</v>
       </c>
       <c r="T86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>310725.34509478271</v>
       </c>
       <c r="U86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>311532.24647516187</v>
       </c>
       <c r="V86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>312342.37546106247</v>
       </c>
       <c r="W86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>313155.7449629067</v>
       </c>
       <c r="X86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>263972.36794275837</v>
       </c>
       <c r="Y86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>264792.25741452933</v>
       </c>
       <c r="Z86" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>265615.42644418747</v>
       </c>
       <c r="AA86" s="44"/>
@@ -9902,15 +9902,15 @@
         <v>71400</v>
       </c>
       <c r="P92" s="102">
-        <f t="shared" ref="P92:R92" si="49">SUM(P93:P95)</f>
+        <f t="shared" ref="P92:R92" si="50">SUM(P93:P95)</f>
         <v>71400</v>
       </c>
       <c r="Q92" s="102">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>30600</v>
       </c>
       <c r="R92" s="102">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>30600</v>
       </c>
       <c r="S92" s="186"/>
@@ -10116,23 +10116,23 @@
         <v>512193</v>
       </c>
       <c r="O96" s="116">
-        <f t="shared" ref="O96:S96" si="50">O103*0.74</f>
+        <f t="shared" ref="O96:S96" si="51">O103*0.74</f>
         <v>507477.24811825115</v>
       </c>
       <c r="P96" s="116">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>512541.31638321205</v>
       </c>
       <c r="Q96" s="116">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>512541.31638321205</v>
       </c>
       <c r="R96" s="116">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>512541.31638321205</v>
       </c>
       <c r="S96" s="116">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>512541.31638321205</v>
       </c>
       <c r="T96" s="116">
@@ -10194,31 +10194,31 @@
       <c r="B97" s="141"/>
       <c r="E97" s="141"/>
       <c r="F97" s="201">
-        <f>F51+F47+F36+F42</f>
+        <f t="shared" ref="F97:L97" si="52">F51+F47+F36+F42</f>
         <v>1440187</v>
       </c>
       <c r="G97" s="201">
-        <f>G51+G47+G36+G42</f>
+        <f t="shared" si="52"/>
         <v>1503410</v>
       </c>
       <c r="H97" s="201">
-        <f>H51+H47+H36+H42</f>
+        <f t="shared" si="52"/>
         <v>1508652</v>
       </c>
       <c r="I97" s="201">
-        <f>I51+I47+I36+I42</f>
+        <f t="shared" si="52"/>
         <v>1513957</v>
       </c>
       <c r="J97" s="201">
-        <f>J51+J47+J36+J42</f>
+        <f t="shared" si="52"/>
         <v>1521941</v>
       </c>
       <c r="K97" s="201">
-        <f>K51+K47+K36+K42</f>
+        <f t="shared" si="52"/>
         <v>1574462</v>
       </c>
       <c r="L97" s="201">
-        <f>L51+L47+L36+L42</f>
+        <f t="shared" si="52"/>
         <v>3729557.333333333</v>
       </c>
       <c r="M97" s="301">
@@ -10229,51 +10229,51 @@
         <v>2027793</v>
       </c>
       <c r="O97" s="142">
-        <f>O51+O47+O36+O42+O37+O38+O39</f>
+        <f t="shared" ref="O97:Z97" si="53">O51+O47+O36+O42+O37+O38+O39</f>
         <v>3118501.3980484894</v>
       </c>
       <c r="P97" s="142">
-        <f>P51+P47+P36+P42+P37+P38+P39</f>
+        <f t="shared" si="53"/>
         <v>1874848.87398125</v>
       </c>
       <c r="Q97" s="142">
-        <f>Q51+Q47+Q36+Q42+Q37+Q38+Q39</f>
+        <f t="shared" si="53"/>
         <v>1686467.5074263907</v>
       </c>
       <c r="R97" s="142">
-        <f>R51+R47+R36+R42+R37+R38+R39</f>
+        <f t="shared" si="53"/>
         <v>1683044.5200377863</v>
       </c>
       <c r="S97" s="142">
-        <f>S51+S47+S36+S42+S37+S38+S39</f>
+        <f t="shared" si="53"/>
         <v>1687990.187838353</v>
       </c>
       <c r="T97" s="142">
-        <f>T51+T47+T36+T42+T37+T38+T39</f>
+        <f t="shared" si="53"/>
         <v>1713310.0406559282</v>
       </c>
       <c r="U97" s="142">
-        <f>U51+U47+U36+U42+U37+U38+U39</f>
+        <f t="shared" si="53"/>
         <v>1739009.691265767</v>
       </c>
       <c r="V97" s="142">
-        <f>V51+V47+V36+V42+V37+V38+V39</f>
+        <f t="shared" si="53"/>
         <v>1756399.7881784246</v>
       </c>
       <c r="W97" s="142">
-        <f>W51+W47+W36+W42+W37+W38+W39</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="X97" s="142">
-        <f>X51+X47+X36+X42+X37+X38+X39</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y97" s="142">
-        <f>Y51+Y47+Y36+Y42+Y37+Y38+Y39</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Z97" s="142">
-        <f>Z51+Z47+Z36+Z42+Z37+Z38+Z39</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AM97" s="233"/>
@@ -10298,55 +10298,55 @@
         <v>1328805</v>
       </c>
       <c r="N98" s="310">
-        <f>N96+N35</f>
+        <f t="shared" ref="N98:Z98" si="54">N96+N35</f>
         <v>1372787</v>
       </c>
       <c r="O98" s="143">
-        <f>O96+O35</f>
+        <f t="shared" si="54"/>
         <v>1390610.1625906522</v>
       </c>
       <c r="P98" s="143">
-        <f>P96+P35</f>
+        <f t="shared" si="54"/>
         <v>1418489.158978964</v>
       </c>
       <c r="Q98" s="143">
-        <f>Q96+Q35</f>
+        <f t="shared" si="54"/>
         <v>1441583.4808422038</v>
       </c>
       <c r="R98" s="143">
-        <f>R96+R35</f>
+        <f t="shared" si="54"/>
         <v>1483962.7404801806</v>
       </c>
       <c r="S98" s="143">
-        <f>S96+S35</f>
+        <f t="shared" si="54"/>
         <v>1515727.7827888038</v>
       </c>
       <c r="T98" s="143">
-        <f>T96+T35</f>
+        <f t="shared" si="54"/>
         <v>1506974.123618965</v>
       </c>
       <c r="U98" s="143">
-        <f>U96+U35</f>
+        <f t="shared" si="54"/>
         <v>1540850.5361376633</v>
       </c>
       <c r="V98" s="143">
-        <f>V96+V35</f>
+        <f t="shared" si="54"/>
         <v>1551631.6801380017</v>
       </c>
       <c r="W98" s="143">
-        <f>W96+W35</f>
+        <f t="shared" si="54"/>
         <v>1091537.5543621723</v>
       </c>
       <c r="X98" s="143">
-        <f>X96+X35</f>
+        <f t="shared" si="54"/>
         <v>1102537.0783156503</v>
       </c>
       <c r="Y98" s="143">
-        <f>Y96+Y35</f>
+        <f t="shared" si="54"/>
         <v>1113647.4454798999</v>
       </c>
       <c r="Z98" s="143">
-        <f>Z96+Z35</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AM98" s="233"/>
@@ -10403,35 +10403,35 @@
         <v>818740</v>
       </c>
       <c r="O100" s="133">
-        <f t="shared" ref="O100:U100" si="51">O101+O103</f>
+        <f t="shared" ref="O100:U100" si="55">O101+O103</f>
         <v>831250.83502466371</v>
       </c>
       <c r="P100" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>838457.84744285408</v>
       </c>
       <c r="Q100" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>839187.01967747905</v>
       </c>
       <c r="R100" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>840286.24682117626</v>
       </c>
       <c r="S100" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>841762.8752842095</v>
       </c>
       <c r="T100" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>843107.97501111636</v>
       </c>
       <c r="U100" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>844539.45728929248</v>
       </c>
       <c r="V100" s="133">
-        <f t="shared" ref="V100" si="52">V101+V103</f>
+        <f t="shared" ref="V100" si="56">V101+V103</f>
         <v>846032.64138980373</v>
       </c>
       <c r="AM100" s="233"/>
@@ -10441,27 +10441,27 @@
         <v>229</v>
       </c>
       <c r="F101" s="203">
-        <f t="shared" ref="F101:K101" si="53">F100-F103</f>
+        <f t="shared" ref="F101:K101" si="57">F100-F103</f>
         <v>139025</v>
       </c>
       <c r="G101" s="203">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>139342</v>
       </c>
       <c r="H101" s="203">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>140228</v>
       </c>
       <c r="I101" s="203">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>141105</v>
       </c>
       <c r="J101" s="203">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>141335</v>
       </c>
       <c r="K101" s="203">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>142991</v>
       </c>
       <c r="L101" s="203">
@@ -10480,31 +10480,31 @@
         <v>145470.76999999999</v>
       </c>
       <c r="P101" s="133">
-        <f t="shared" ref="P101:S101" si="54">O101*(1+P113)</f>
+        <f t="shared" ref="P101:S101" si="58">O101*(1+P113)</f>
         <v>145834.44692499997</v>
       </c>
       <c r="Q101" s="133">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>146563.61915962494</v>
       </c>
       <c r="R101" s="133">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>147662.84630332215</v>
       </c>
       <c r="S101" s="133">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>149139.47476635536</v>
       </c>
       <c r="T101" s="133">
-        <f t="shared" ref="T101:V101" si="55">S101*(1+T112)</f>
+        <f t="shared" ref="T101:V101" si="59">S101*(1+T112)</f>
         <v>150484.57449326222</v>
       </c>
       <c r="U101" s="133">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>151916.05677143831</v>
       </c>
       <c r="V101" s="133">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>153409.24087194959</v>
       </c>
       <c r="AM101" s="233"/>
@@ -10573,23 +10573,23 @@
         <v>692623.40051785414</v>
       </c>
       <c r="R103" s="135">
-        <f t="shared" ref="R103:V103" si="56">Q103*(1+R104)</f>
+        <f t="shared" ref="R103:V103" si="60">Q103*(1+R104)</f>
         <v>692623.40051785414</v>
       </c>
       <c r="S103" s="135">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>692623.40051785414</v>
       </c>
       <c r="T103" s="135">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>692623.40051785414</v>
       </c>
       <c r="U103" s="135">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>692623.40051785414</v>
       </c>
       <c r="V103" s="135">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>692623.40051785414</v>
       </c>
       <c r="AD103" s="45">
@@ -10661,38 +10661,38 @@
         <v>221</v>
       </c>
       <c r="F105" s="208">
-        <f t="shared" ref="F105:L105" si="57">F96/F103</f>
+        <f t="shared" ref="F105:L105" si="61">F96/F103</f>
         <v>0.66058231423538405</v>
       </c>
       <c r="G105" s="208">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0.6749214177505789</v>
       </c>
       <c r="H105" s="208">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0.68242012696430432</v>
       </c>
       <c r="I105" s="208">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0.6730637268687778</v>
       </c>
       <c r="J105" s="208">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0.66395699382859508</v>
       </c>
       <c r="K105" s="208">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0.67846773573296415</v>
       </c>
       <c r="L105" s="208">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0.76648081779484256</v>
       </c>
       <c r="M105" s="208">
         <v>0.71094027669909299</v>
       </c>
       <c r="N105" s="208">
-        <f t="shared" ref="N105" si="58">N96/N103</f>
+        <f t="shared" ref="N105" si="62">N96/N103</f>
         <v>0.76034541114436371</v>
       </c>
       <c r="AD105" s="154"/>
@@ -10747,31 +10747,31 @@
         <v>2009.5840333646127</v>
       </c>
       <c r="P106" s="35">
-        <f t="shared" ref="P106:V106" si="59">O106*(1+P108)</f>
+        <f t="shared" ref="P106:V106" si="63">O106*(1+P108)</f>
         <v>2031.5173022625379</v>
       </c>
       <c r="Q106" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>2046.001536440413</v>
       </c>
       <c r="R106" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>2056.0370415493694</v>
       </c>
       <c r="S106" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>2065.9690878427696</v>
       </c>
       <c r="T106" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>2073.2112049317075</v>
       </c>
       <c r="U106" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>2077.6599340006264</v>
       </c>
       <c r="V106" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>2079.3152750495265</v>
       </c>
       <c r="AM106" s="233"/>
@@ -10785,27 +10785,27 @@
       <c r="D107" s="35"/>
       <c r="F107" s="200"/>
       <c r="G107" s="200">
-        <f t="shared" ref="G107:L107" si="60">(G106/F106)-1</f>
+        <f t="shared" ref="G107:L107" si="64">(G106/F106)-1</f>
         <v>7.8113264233139468E-3</v>
       </c>
       <c r="H107" s="200">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>6.3596164356336526E-3</v>
       </c>
       <c r="I107" s="200">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>1.3823747222907468E-3</v>
       </c>
       <c r="J107" s="200">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>3.5990731154167399E-3</v>
       </c>
       <c r="K107" s="200">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>2.6527805069758159E-3</v>
       </c>
       <c r="L107" s="200">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>-1.36697697207252E-2</v>
       </c>
       <c r="M107" s="302">
@@ -10965,19 +10965,19 @@
         <v>0</v>
       </c>
       <c r="P110">
-        <f t="shared" ref="P110:S110" si="61">O110*(1+P113)</f>
+        <f t="shared" ref="P110:S110" si="65">O110*(1+P113)</f>
         <v>0</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="R110">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="S110">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="T110">
@@ -10985,11 +10985,11 @@
         <v>0</v>
       </c>
       <c r="U110">
-        <f t="shared" ref="U110:V110" si="62">T110*(1+U112)</f>
+        <f t="shared" ref="U110:V110" si="66">T110*(1+U112)</f>
         <v>0</v>
       </c>
       <c r="V110">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="W110"/>
@@ -11010,11 +11010,11 @@
       <c r="I111" s="200"/>
       <c r="J111" s="200"/>
       <c r="K111" s="200">
-        <f t="shared" ref="K111" si="63">(K109/J109)-1</f>
+        <f t="shared" ref="K111" si="67">(K109/J109)-1</f>
         <v>1.0265546788835067E-2</v>
       </c>
       <c r="L111" s="200">
-        <f t="shared" ref="L111" si="64">(L109/K109)-1</f>
+        <f t="shared" ref="L111" si="68">(L109/K109)-1</f>
         <v>-1.9776620759153429E-2</v>
       </c>
       <c r="M111" s="302">
@@ -11126,82 +11126,82 @@
         <v>163</v>
       </c>
       <c r="F114" s="201">
-        <f>F100+F46-F96</f>
+        <f t="shared" ref="F114:L114" si="69">F100+F46-F96</f>
         <v>339220</v>
       </c>
       <c r="G114" s="201">
-        <f>G100+G46-G96</f>
+        <f t="shared" si="69"/>
         <v>334185</v>
       </c>
       <c r="H114" s="201">
-        <f>H100+H46-H96</f>
+        <f t="shared" si="69"/>
         <v>335532</v>
       </c>
       <c r="I114" s="201">
-        <f>I100+I46-I96</f>
+        <f t="shared" si="69"/>
         <v>344546</v>
       </c>
       <c r="J114" s="201">
-        <f>J100+J46-J96</f>
+        <f t="shared" si="69"/>
         <v>349558</v>
       </c>
       <c r="K114" s="201">
-        <f>K100+K46-K96</f>
+        <f t="shared" si="69"/>
         <v>343658</v>
       </c>
       <c r="L114" s="201">
-        <f>L100+L46-L96</f>
+        <f t="shared" si="69"/>
         <v>560584.66666666674</v>
       </c>
       <c r="M114" s="301">
         <v>528408</v>
       </c>
       <c r="N114" s="306">
-        <f>N100+N46-N96</f>
+        <f t="shared" ref="N114:Y114" si="70">N100+N46-N96</f>
         <v>343247</v>
       </c>
       <c r="O114" s="215">
-        <f>O100+O46-O96</f>
+        <f t="shared" si="70"/>
         <v>383773.58690641256</v>
       </c>
       <c r="P114" s="215">
-        <f>P100+P46-P96</f>
+        <f t="shared" si="70"/>
         <v>369916.53105964203</v>
       </c>
       <c r="Q114" s="215">
-        <f>Q100+Q46-Q96</f>
+        <f t="shared" si="70"/>
         <v>370645.703294267</v>
       </c>
       <c r="R114" s="215">
-        <f>R100+R46-R96</f>
+        <f t="shared" si="70"/>
         <v>371744.93043796421</v>
       </c>
       <c r="S114" s="215">
-        <f>S100+S46-S96</f>
+        <f t="shared" si="70"/>
         <v>373221.55890099745</v>
       </c>
       <c r="T114" s="215">
-        <f>T100+T46-T96</f>
+        <f t="shared" si="70"/>
         <v>416124.06265897548</v>
       </c>
       <c r="U114" s="215">
-        <f>U100+U46-U96</f>
+        <f t="shared" si="70"/>
         <v>417555.5449371516</v>
       </c>
       <c r="V114" s="215">
-        <f>V100+V46-V96</f>
+        <f t="shared" si="70"/>
         <v>419048.72903766285</v>
       </c>
       <c r="W114" s="215">
-        <f>W100+W46-W96</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="X114" s="215">
-        <f>X100+X46-X96</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Y114" s="215">
-        <f>Y100+Y46-Y96</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AM114" s="233"/>
@@ -11213,31 +11213,31 @@
       <c r="B115" s="141"/>
       <c r="E115" s="141"/>
       <c r="F115" s="201">
-        <f t="shared" ref="F115:L115" si="65">F103-F96</f>
+        <f t="shared" ref="F115:L115" si="71">F103-F96</f>
         <v>200195</v>
       </c>
       <c r="G115" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>194843</v>
       </c>
       <c r="H115" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>195304</v>
       </c>
       <c r="I115" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>203441</v>
       </c>
       <c r="J115" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>208223</v>
       </c>
       <c r="K115" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>200667</v>
       </c>
       <c r="L115" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>156183</v>
       </c>
       <c r="M115" s="301">
@@ -11248,47 +11248,47 @@
         <v>161439</v>
       </c>
       <c r="O115" s="142">
-        <f t="shared" ref="O115:Y115" si="66">O103-O96</f>
+        <f t="shared" ref="O115:Y115" si="72">O103-O96</f>
         <v>178302.81690641254</v>
       </c>
       <c r="P115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>180082.08413464209</v>
       </c>
       <c r="Q115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>180082.08413464209</v>
       </c>
       <c r="R115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>180082.08413464209</v>
       </c>
       <c r="S115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>180082.08413464209</v>
       </c>
       <c r="T115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>221639.48816571326</v>
       </c>
       <c r="U115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>221639.48816571326</v>
       </c>
       <c r="V115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>221639.48816571326</v>
       </c>
       <c r="W115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="X115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="Y115" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AM115" s="233"/>
@@ -11300,27 +11300,27 @@
       <c r="C116" s="35"/>
       <c r="D116" s="35"/>
       <c r="F116" s="201">
-        <f t="shared" ref="F116:K116" si="67">F114-F115</f>
+        <f t="shared" ref="F116:K116" si="73">F114-F115</f>
         <v>139025</v>
       </c>
       <c r="G116" s="201">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>139342</v>
       </c>
       <c r="H116" s="201">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>140228</v>
       </c>
       <c r="I116" s="201">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>141105</v>
       </c>
       <c r="J116" s="201">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>141335</v>
       </c>
       <c r="K116" s="201">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>142991</v>
       </c>
       <c r="L116" s="201">
@@ -11335,47 +11335,47 @@
         <v>181808</v>
       </c>
       <c r="O116" s="142">
-        <f t="shared" ref="O116:Y116" si="68">O114-O115</f>
+        <f t="shared" ref="O116:Y116" si="74">O114-O115</f>
         <v>205470.77000000002</v>
       </c>
       <c r="P116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>189834.44692499994</v>
       </c>
       <c r="Q116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>190563.61915962491</v>
       </c>
       <c r="R116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>191662.84630332212</v>
       </c>
       <c r="S116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>193139.47476635536</v>
       </c>
       <c r="T116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>194484.57449326222</v>
       </c>
       <c r="U116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>195916.05677143834</v>
       </c>
       <c r="V116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>197409.24087194959</v>
       </c>
       <c r="W116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="X116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Y116" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="AM116" s="256"/>
@@ -12879,50 +12879,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="343" t="s">
+      <c r="A5" s="358" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="344"/>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="344"/>
-      <c r="J5" s="344"/>
-      <c r="K5" s="344"/>
-      <c r="L5" s="344"/>
-      <c r="M5" s="344"/>
-      <c r="N5" s="344"/>
-      <c r="O5" s="344"/>
-      <c r="P5" s="344"/>
-      <c r="Q5" s="344"/>
-      <c r="R5" s="344"/>
-      <c r="S5" s="344"/>
+      <c r="B5" s="359"/>
+      <c r="C5" s="359"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="359"/>
+      <c r="G5" s="359"/>
+      <c r="H5" s="359"/>
+      <c r="I5" s="359"/>
+      <c r="J5" s="359"/>
+      <c r="K5" s="359"/>
+      <c r="L5" s="359"/>
+      <c r="M5" s="359"/>
+      <c r="N5" s="359"/>
+      <c r="O5" s="359"/>
+      <c r="P5" s="359"/>
+      <c r="Q5" s="359"/>
+      <c r="R5" s="359"/>
+      <c r="S5" s="359"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="345" t="s">
+      <c r="A6" s="360" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="345"/>
-      <c r="C6" s="345"/>
-      <c r="D6" s="345"/>
-      <c r="E6" s="345"/>
-      <c r="F6" s="345"/>
-      <c r="G6" s="345"/>
-      <c r="H6" s="345"/>
-      <c r="I6" s="345"/>
-      <c r="J6" s="345"/>
-      <c r="K6" s="345"/>
-      <c r="L6" s="345"/>
-      <c r="M6" s="345"/>
-      <c r="N6" s="345"/>
-      <c r="O6" s="345"/>
-      <c r="P6" s="345"/>
-      <c r="Q6" s="345"/>
-      <c r="R6" s="345"/>
-      <c r="S6" s="345"/>
+      <c r="B6" s="360"/>
+      <c r="C6" s="360"/>
+      <c r="D6" s="360"/>
+      <c r="E6" s="360"/>
+      <c r="F6" s="360"/>
+      <c r="G6" s="360"/>
+      <c r="H6" s="360"/>
+      <c r="I6" s="360"/>
+      <c r="J6" s="360"/>
+      <c r="K6" s="360"/>
+      <c r="L6" s="360"/>
+      <c r="M6" s="360"/>
+      <c r="N6" s="360"/>
+      <c r="O6" s="360"/>
+      <c r="P6" s="360"/>
+      <c r="Q6" s="360"/>
+      <c r="R6" s="360"/>
+      <c r="S6" s="360"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -12963,8 +12963,8 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="131"/>
-      <c r="R8" s="346"/>
-      <c r="S8" s="347"/>
+      <c r="R8" s="361"/>
+      <c r="S8" s="362"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="130"/>
@@ -13236,10 +13236,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="342" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="327"/>
+      <c r="B1" s="342"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -13247,18 +13247,18 @@
       <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="348" t="s">
+      <c r="Z1" s="363" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="348"/>
-      <c r="AB1" s="348"/>
-      <c r="AC1" s="326"/>
-      <c r="AD1" s="326"/>
-      <c r="AE1" s="326"/>
-      <c r="AF1" s="326"/>
+      <c r="AA1" s="363"/>
+      <c r="AB1" s="363"/>
+      <c r="AC1" s="341"/>
+      <c r="AD1" s="341"/>
+      <c r="AE1" s="341"/>
+      <c r="AF1" s="341"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="349" t="s">
+      <c r="A2" s="364" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="107"/>
@@ -13267,45 +13267,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="349"/>
+      <c r="A3" s="364"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="349"/>
+      <c r="A4" s="364"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="349"/>
+      <c r="A5" s="364"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C7" s="339" t="s">
+      <c r="C7" s="354" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="340"/>
-      <c r="E7" s="340"/>
-      <c r="F7" s="341"/>
-      <c r="G7" s="339" t="s">
+      <c r="D7" s="355"/>
+      <c r="E7" s="355"/>
+      <c r="F7" s="356"/>
+      <c r="G7" s="354" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="340"/>
-      <c r="I7" s="340"/>
-      <c r="J7" s="341"/>
-      <c r="K7" s="339" t="s">
+      <c r="H7" s="355"/>
+      <c r="I7" s="355"/>
+      <c r="J7" s="356"/>
+      <c r="K7" s="354" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="340"/>
-      <c r="M7" s="340"/>
-      <c r="N7" s="341"/>
+      <c r="L7" s="355"/>
+      <c r="M7" s="355"/>
+      <c r="N7" s="356"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
@@ -15187,88 +15187,88 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="350" t="s">
+      <c r="A2" s="370" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="350"/>
-      <c r="C2" s="350"/>
-      <c r="D2" s="350"/>
-      <c r="E2" s="350"/>
-      <c r="F2" s="350"/>
-      <c r="G2" s="350"/>
-      <c r="H2" s="350"/>
-      <c r="I2" s="350"/>
-      <c r="J2" s="350"/>
+      <c r="B2" s="370"/>
+      <c r="C2" s="370"/>
+      <c r="D2" s="370"/>
+      <c r="E2" s="370"/>
+      <c r="F2" s="370"/>
+      <c r="G2" s="370"/>
+      <c r="H2" s="370"/>
+      <c r="I2" s="370"/>
+      <c r="J2" s="370"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="370" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="350"/>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="350"/>
-      <c r="G3" s="350"/>
-      <c r="H3" s="350"/>
-      <c r="I3" s="350"/>
-      <c r="J3" s="350"/>
+      <c r="B3" s="370"/>
+      <c r="C3" s="370"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="370"/>
+      <c r="G3" s="370"/>
+      <c r="H3" s="370"/>
+      <c r="I3" s="370"/>
+      <c r="J3" s="370"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="351"/>
-      <c r="B4" s="351"/>
-      <c r="C4" s="351"/>
-      <c r="D4" s="351"/>
-      <c r="E4" s="351"/>
-      <c r="F4" s="351"/>
-      <c r="G4" s="351"/>
-      <c r="H4" s="351"/>
-      <c r="I4" s="351"/>
-      <c r="J4" s="351"/>
-      <c r="K4" s="356" t="s">
+      <c r="A4" s="371"/>
+      <c r="B4" s="371"/>
+      <c r="C4" s="371"/>
+      <c r="D4" s="371"/>
+      <c r="E4" s="371"/>
+      <c r="F4" s="371"/>
+      <c r="G4" s="371"/>
+      <c r="H4" s="371"/>
+      <c r="I4" s="371"/>
+      <c r="J4" s="371"/>
+      <c r="K4" s="376" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="356"/>
-      <c r="M4" s="356"/>
-      <c r="N4" s="356"/>
+      <c r="L4" s="376"/>
+      <c r="M4" s="376"/>
+      <c r="N4" s="376"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="352" t="s">
+      <c r="C5" s="372" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="353"/>
-      <c r="E5" s="353"/>
-      <c r="F5" s="353"/>
-      <c r="G5" s="353"/>
-      <c r="H5" s="353"/>
-      <c r="I5" s="353"/>
-      <c r="J5" s="354"/>
+      <c r="D5" s="373"/>
+      <c r="E5" s="373"/>
+      <c r="F5" s="373"/>
+      <c r="G5" s="373"/>
+      <c r="H5" s="373"/>
+      <c r="I5" s="373"/>
+      <c r="J5" s="374"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="355" t="s">
+      <c r="L5" s="375" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="326"/>
-      <c r="N5" s="326"/>
+      <c r="M5" s="341"/>
+      <c r="N5" s="341"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="358">
+      <c r="C6" s="366">
         <v>2020</v>
       </c>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
-      <c r="G6" s="359"/>
-      <c r="H6" s="359"/>
-      <c r="I6" s="359"/>
-      <c r="J6" s="360"/>
+      <c r="D6" s="367"/>
+      <c r="E6" s="367"/>
+      <c r="F6" s="367"/>
+      <c r="G6" s="367"/>
+      <c r="H6" s="367"/>
+      <c r="I6" s="367"/>
+      <c r="J6" s="368"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15706,24 +15706,24 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="326" t="s">
+      <c r="K22" s="341" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="326"/>
-      <c r="M22" s="326"/>
-      <c r="N22" s="326"/>
-      <c r="O22" s="326" t="s">
+      <c r="L22" s="341"/>
+      <c r="M22" s="341"/>
+      <c r="N22" s="341"/>
+      <c r="O22" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="326"/>
-      <c r="Q22" s="326"/>
-      <c r="R22" s="326"/>
-      <c r="S22" s="326" t="s">
+      <c r="P22" s="341"/>
+      <c r="Q22" s="341"/>
+      <c r="R22" s="341"/>
+      <c r="S22" s="341" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="326"/>
-      <c r="U22" s="326"/>
-      <c r="V22" s="326"/>
+      <c r="T22" s="341"/>
+      <c r="U22" s="341"/>
+      <c r="V22" s="341"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C23" s="67"/>
@@ -15740,12 +15740,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="361" t="s">
+      <c r="K23" s="369" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="361"/>
-      <c r="M23" s="361"/>
-      <c r="N23" s="361"/>
+      <c r="L23" s="369"/>
+      <c r="M23" s="369"/>
+      <c r="N23" s="369"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15914,7 +15914,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="357" t="s">
+      <c r="I28" s="365" t="s">
         <v>257</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15964,7 +15964,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="357"/>
+      <c r="I29" s="365"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -16012,7 +16012,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="357"/>
+      <c r="I30" s="365"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -16060,7 +16060,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="357"/>
+      <c r="I31" s="365"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -16122,7 +16122,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="357" t="s">
+      <c r="I33" s="365" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16170,7 +16170,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="357"/>
+      <c r="I34" s="365"/>
       <c r="J34" t="s">
         <v>258</v>
       </c>
@@ -16407,6 +16407,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16414,12 +16420,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16526,30 +16526,30 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="365" t="s">
+      <c r="E6" s="378" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="365"/>
-      <c r="G6" s="365"/>
-      <c r="H6" s="365"/>
-      <c r="I6" s="365"/>
-      <c r="J6" s="365"/>
-      <c r="K6" s="365"/>
-      <c r="L6" s="365"/>
-      <c r="M6" s="365"/>
-      <c r="N6" s="365"/>
-      <c r="O6" s="365"/>
-      <c r="P6" s="365"/>
-      <c r="Q6" s="365"/>
-      <c r="R6" s="365"/>
+      <c r="F6" s="378"/>
+      <c r="G6" s="378"/>
+      <c r="H6" s="378"/>
+      <c r="I6" s="378"/>
+      <c r="J6" s="378"/>
+      <c r="K6" s="378"/>
+      <c r="L6" s="378"/>
+      <c r="M6" s="378"/>
+      <c r="N6" s="378"/>
+      <c r="O6" s="378"/>
+      <c r="P6" s="378"/>
+      <c r="Q6" s="378"/>
+      <c r="R6" s="378"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="362" t="s">
+      <c r="A7" s="377" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="362"/>
-      <c r="C7" s="362"/>
-      <c r="D7" s="362"/>
+      <c r="B7" s="377"/>
+      <c r="C7" s="377"/>
+      <c r="D7" s="377"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -16567,11 +16567,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="362" t="s">
+      <c r="B8" s="377" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="362"/>
-      <c r="D8" s="362"/>
+      <c r="C8" s="377"/>
+      <c r="D8" s="377"/>
       <c r="E8" s="42">
         <v>1717.857</v>
       </c>
@@ -16617,11 +16617,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
-      <c r="B9" s="362" t="s">
+      <c r="B9" s="377" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="362"/>
-      <c r="D9" s="362"/>
+      <c r="C9" s="377"/>
+      <c r="D9" s="377"/>
       <c r="E9" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -16667,11 +16667,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
-      <c r="B10" s="362" t="s">
+      <c r="B10" s="377" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="362"/>
-      <c r="D10" s="362"/>
+      <c r="C10" s="377"/>
+      <c r="D10" s="377"/>
       <c r="E10" s="42">
         <v>230.245</v>
       </c>
@@ -16717,11 +16717,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
-      <c r="B11" s="362" t="s">
+      <c r="B11" s="377" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="362"/>
-      <c r="D11" s="362"/>
+      <c r="C11" s="377"/>
+      <c r="D11" s="377"/>
       <c r="E11" s="42">
         <v>271.327</v>
       </c>
@@ -16816,10 +16816,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="362" t="s">
+      <c r="C13" s="377" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="362"/>
+      <c r="D13" s="377"/>
       <c r="E13" s="42">
         <v>3462.8009999999999</v>
       </c>
@@ -16970,11 +16970,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
-      <c r="B19" s="362" t="s">
+      <c r="B19" s="377" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="362"/>
-      <c r="D19" s="362"/>
+      <c r="C19" s="377"/>
+      <c r="D19" s="377"/>
       <c r="E19" s="42">
         <v>1717.857</v>
       </c>
@@ -17033,11 +17033,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
-      <c r="B20" s="362" t="s">
+      <c r="B20" s="377" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="362"/>
-      <c r="D20" s="362"/>
+      <c r="C20" s="377"/>
+      <c r="D20" s="377"/>
       <c r="E20" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -17097,11 +17097,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
-      <c r="B21" s="362" t="s">
+      <c r="B21" s="377" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="362"/>
-      <c r="D21" s="362"/>
+      <c r="C21" s="377"/>
+      <c r="D21" s="377"/>
       <c r="E21" s="42">
         <v>230.245</v>
       </c>
@@ -17160,11 +17160,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
-      <c r="B22" s="362" t="s">
+      <c r="B22" s="377" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="362"/>
-      <c r="D22" s="362"/>
+      <c r="C22" s="377"/>
+      <c r="D22" s="377"/>
       <c r="E22" s="42">
         <v>271.327</v>
       </c>
@@ -17277,21 +17277,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="363" t="s">
+      <c r="H27" s="379" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="363"/>
-      <c r="J27" s="363"/>
-      <c r="K27" s="363"/>
-      <c r="L27" s="363"/>
-      <c r="M27" s="363"/>
-      <c r="N27" s="363"/>
-      <c r="O27" s="363"/>
-      <c r="P27" s="363"/>
-      <c r="Q27" s="363"/>
-      <c r="R27" s="363"/>
-      <c r="S27" s="363"/>
-      <c r="T27" s="363"/>
+      <c r="I27" s="379"/>
+      <c r="J27" s="379"/>
+      <c r="K27" s="379"/>
+      <c r="L27" s="379"/>
+      <c r="M27" s="379"/>
+      <c r="N27" s="379"/>
+      <c r="O27" s="379"/>
+      <c r="P27" s="379"/>
+      <c r="Q27" s="379"/>
+      <c r="R27" s="379"/>
+      <c r="S27" s="379"/>
+      <c r="T27" s="379"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -17607,21 +17607,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="364" t="s">
+      <c r="F37" s="380" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="364"/>
-      <c r="H37" s="364"/>
-      <c r="I37" s="364"/>
-      <c r="J37" s="364"/>
-      <c r="K37" s="364"/>
-      <c r="L37" s="364"/>
-      <c r="M37" s="364"/>
-      <c r="N37" s="364"/>
-      <c r="O37" s="364"/>
-      <c r="P37" s="364"/>
-      <c r="Q37" s="364"/>
-      <c r="R37" s="364"/>
+      <c r="G37" s="380"/>
+      <c r="H37" s="380"/>
+      <c r="I37" s="380"/>
+      <c r="J37" s="380"/>
+      <c r="K37" s="380"/>
+      <c r="L37" s="380"/>
+      <c r="M37" s="380"/>
+      <c r="N37" s="380"/>
+      <c r="O37" s="380"/>
+      <c r="P37" s="380"/>
+      <c r="Q37" s="380"/>
+      <c r="R37" s="380"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17937,21 +17937,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="363" t="s">
+      <c r="F48" s="379" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="363"/>
-      <c r="H48" s="363"/>
-      <c r="I48" s="363"/>
-      <c r="J48" s="363"/>
-      <c r="K48" s="363"/>
-      <c r="L48" s="363"/>
-      <c r="M48" s="363"/>
-      <c r="N48" s="363"/>
-      <c r="O48" s="363"/>
-      <c r="P48" s="363"/>
-      <c r="Q48" s="363"/>
-      <c r="R48" s="363"/>
+      <c r="G48" s="379"/>
+      <c r="H48" s="379"/>
+      <c r="I48" s="379"/>
+      <c r="J48" s="379"/>
+      <c r="K48" s="379"/>
+      <c r="L48" s="379"/>
+      <c r="M48" s="379"/>
+      <c r="N48" s="379"/>
+      <c r="O48" s="379"/>
+      <c r="P48" s="379"/>
+      <c r="Q48" s="379"/>
+      <c r="R48" s="379"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -18263,12 +18263,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18277,6 +18271,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18315,50 +18315,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="343" t="s">
+      <c r="A5" s="358" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="344"/>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="344"/>
-      <c r="J5" s="344"/>
-      <c r="K5" s="344"/>
-      <c r="L5" s="344"/>
-      <c r="M5" s="344"/>
-      <c r="N5" s="344"/>
-      <c r="O5" s="344"/>
-      <c r="P5" s="344"/>
-      <c r="Q5" s="344"/>
-      <c r="R5" s="344"/>
-      <c r="S5" s="344"/>
+      <c r="B5" s="359"/>
+      <c r="C5" s="359"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="359"/>
+      <c r="G5" s="359"/>
+      <c r="H5" s="359"/>
+      <c r="I5" s="359"/>
+      <c r="J5" s="359"/>
+      <c r="K5" s="359"/>
+      <c r="L5" s="359"/>
+      <c r="M5" s="359"/>
+      <c r="N5" s="359"/>
+      <c r="O5" s="359"/>
+      <c r="P5" s="359"/>
+      <c r="Q5" s="359"/>
+      <c r="R5" s="359"/>
+      <c r="S5" s="359"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="345" t="s">
+      <c r="A6" s="360" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="345"/>
-      <c r="C6" s="345"/>
-      <c r="D6" s="345"/>
-      <c r="E6" s="345"/>
-      <c r="F6" s="345"/>
-      <c r="G6" s="345"/>
-      <c r="H6" s="345"/>
-      <c r="I6" s="345"/>
-      <c r="J6" s="345"/>
-      <c r="K6" s="345"/>
-      <c r="L6" s="345"/>
-      <c r="M6" s="345"/>
-      <c r="N6" s="345"/>
-      <c r="O6" s="345"/>
-      <c r="P6" s="345"/>
-      <c r="Q6" s="345"/>
-      <c r="R6" s="345"/>
-      <c r="S6" s="345"/>
+      <c r="B6" s="360"/>
+      <c r="C6" s="360"/>
+      <c r="D6" s="360"/>
+      <c r="E6" s="360"/>
+      <c r="F6" s="360"/>
+      <c r="G6" s="360"/>
+      <c r="H6" s="360"/>
+      <c r="I6" s="360"/>
+      <c r="J6" s="360"/>
+      <c r="K6" s="360"/>
+      <c r="L6" s="360"/>
+      <c r="M6" s="360"/>
+      <c r="N6" s="360"/>
+      <c r="O6" s="360"/>
+      <c r="P6" s="360"/>
+      <c r="Q6" s="360"/>
+      <c r="R6" s="360"/>
+      <c r="S6" s="360"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -18398,10 +18398,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="346" t="s">
+      <c r="R8" s="361" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="347"/>
+      <c r="S8" s="362"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -21272,10 +21272,10 @@
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="366" t="s">
+      <c r="D75" s="381" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="367"/>
+      <c r="E75" s="382"/>
       <c r="F75" s="25">
         <v>-75.135000000000005</v>
       </c>
@@ -22245,23 +22245,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="349" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="335"/>
+      <c r="B1" s="350"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="342" t="s">
+      <c r="J1" s="357" t="s">
         <v>279</v>
       </c>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
-      <c r="X1" s="326"/>
-      <c r="Y1" s="326"/>
+      <c r="V1" s="341"/>
+      <c r="W1" s="341"/>
+      <c r="X1" s="341"/>
+      <c r="Y1" s="341"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="351" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="126"/>
@@ -22269,68 +22269,68 @@
         <v>192</v>
       </c>
       <c r="I2" s="241"/>
-      <c r="J2" s="342"/>
+      <c r="J2" s="357"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A3" s="337"/>
+      <c r="A3" s="352"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
       <c r="I3" s="241"/>
-      <c r="J3" s="342"/>
+      <c r="J3" s="357"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A4" s="337"/>
+      <c r="A4" s="352"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A5" s="338"/>
+      <c r="A5" s="353"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="C7" s="339" t="s">
+      <c r="C7" s="354" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="340"/>
-      <c r="E7" s="340"/>
-      <c r="F7" s="341"/>
-      <c r="G7" s="339" t="s">
+      <c r="D7" s="355"/>
+      <c r="E7" s="355"/>
+      <c r="F7" s="356"/>
+      <c r="G7" s="354" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="340"/>
-      <c r="I7" s="340"/>
-      <c r="J7" s="341"/>
-      <c r="K7" s="339" t="s">
+      <c r="H7" s="355"/>
+      <c r="I7" s="355"/>
+      <c r="J7" s="356"/>
+      <c r="K7" s="354" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="340"/>
-      <c r="M7" s="340"/>
-      <c r="N7" s="340"/>
-      <c r="O7" s="339" t="s">
+      <c r="L7" s="355"/>
+      <c r="M7" s="355"/>
+      <c r="N7" s="355"/>
+      <c r="O7" s="354" t="s">
         <v>269</v>
       </c>
-      <c r="P7" s="340"/>
-      <c r="Q7" s="340"/>
-      <c r="R7" s="340"/>
-      <c r="S7" s="339" t="s">
+      <c r="P7" s="355"/>
+      <c r="Q7" s="355"/>
+      <c r="R7" s="355"/>
+      <c r="S7" s="354" t="s">
         <v>273</v>
       </c>
-      <c r="T7" s="340"/>
-      <c r="U7" s="340"/>
-      <c r="V7" s="340"/>
-      <c r="W7" s="339" t="s">
+      <c r="T7" s="355"/>
+      <c r="U7" s="355"/>
+      <c r="V7" s="355"/>
+      <c r="W7" s="354" t="s">
         <v>274</v>
       </c>
-      <c r="X7" s="340"/>
-      <c r="Y7" s="340"/>
-      <c r="Z7" s="340"/>
+      <c r="X7" s="355"/>
+      <c r="Y7" s="355"/>
+      <c r="Z7" s="355"/>
       <c r="AA7" s="222" t="s">
         <v>275</v>
       </c>
@@ -27920,36 +27920,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="D1" s="326" t="s">
+      <c r="D1" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326" t="s">
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="326"/>
-      <c r="J1" s="326"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326" t="s">
+      <c r="I1" s="341"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326" t="s">
+      <c r="M1" s="341"/>
+      <c r="N1" s="341"/>
+      <c r="O1" s="341"/>
+      <c r="P1" s="341" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
-      <c r="T1" s="326" t="s">
+      <c r="Q1" s="341"/>
+      <c r="R1" s="341"/>
+      <c r="S1" s="341"/>
+      <c r="T1" s="341" t="s">
         <v>265</v>
       </c>
-      <c r="U1" s="326"/>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
+      <c r="U1" s="341"/>
+      <c r="V1" s="341"/>
+      <c r="W1" s="341"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D2" s="197" t="s">
@@ -28359,22 +28359,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="349" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="335"/>
+      <c r="B1" s="350"/>
       <c r="C1" s="35"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="342" t="s">
+      <c r="J1" s="357" t="s">
         <v>279</v>
       </c>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
-      <c r="X1" s="326"/>
-      <c r="Y1" s="326"/>
+      <c r="V1" s="341"/>
+      <c r="W1" s="341"/>
+      <c r="X1" s="341"/>
+      <c r="Y1" s="341"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="351" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="126"/>
@@ -28383,20 +28383,20 @@
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="241"/>
-      <c r="J2" s="342"/>
+      <c r="J2" s="357"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="337"/>
+      <c r="A3" s="352"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="241"/>
-      <c r="J3" s="342"/>
+      <c r="J3" s="357"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="337"/>
+      <c r="A4" s="352"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>194</v>
@@ -28406,7 +28406,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="338"/>
+      <c r="A5" s="353"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>181</v>
@@ -28421,42 +28421,42 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="339" t="s">
+      <c r="C7" s="354" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="340"/>
-      <c r="E7" s="340"/>
-      <c r="F7" s="341"/>
-      <c r="G7" s="339" t="s">
+      <c r="D7" s="355"/>
+      <c r="E7" s="355"/>
+      <c r="F7" s="356"/>
+      <c r="G7" s="354" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="340"/>
-      <c r="I7" s="340"/>
-      <c r="J7" s="341"/>
-      <c r="K7" s="339" t="s">
+      <c r="H7" s="355"/>
+      <c r="I7" s="355"/>
+      <c r="J7" s="356"/>
+      <c r="K7" s="354" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="340"/>
-      <c r="M7" s="340"/>
-      <c r="N7" s="340"/>
-      <c r="O7" s="339" t="s">
+      <c r="L7" s="355"/>
+      <c r="M7" s="355"/>
+      <c r="N7" s="355"/>
+      <c r="O7" s="354" t="s">
         <v>269</v>
       </c>
-      <c r="P7" s="340"/>
-      <c r="Q7" s="340"/>
-      <c r="R7" s="340"/>
-      <c r="S7" s="339" t="s">
+      <c r="P7" s="355"/>
+      <c r="Q7" s="355"/>
+      <c r="R7" s="355"/>
+      <c r="S7" s="354" t="s">
         <v>273</v>
       </c>
-      <c r="T7" s="340"/>
-      <c r="U7" s="340"/>
-      <c r="V7" s="340"/>
-      <c r="W7" s="339" t="s">
+      <c r="T7" s="355"/>
+      <c r="U7" s="355"/>
+      <c r="V7" s="355"/>
+      <c r="W7" s="354" t="s">
         <v>274</v>
       </c>
-      <c r="X7" s="340"/>
-      <c r="Y7" s="340"/>
-      <c r="Z7" s="340"/>
+      <c r="X7" s="355"/>
+      <c r="Y7" s="355"/>
+      <c r="Z7" s="355"/>
       <c r="AA7" s="222" t="s">
         <v>275</v>
       </c>
@@ -32993,21 +32993,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -33224,10 +33209,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33250,20 +33261,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/add-ons/add_factors_old_sophia.xlsx
+++ b/data/add-ons/add_factors_old_sophia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/add-ons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABCC511-3C65-4953-8964-1093368B8F94}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB17B3A-452B-4F42-A200-18FDE3A85269}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3594,21 +3597,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3630,14 +3618,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4153,32 +4156,32 @@
   <dimension ref="A1:AQ124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O49" sqref="O49"/>
+      <selection pane="bottomRight" activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="3" max="4" width="10.81640625" style="35" customWidth="1"/>
-    <col min="6" max="14" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" customWidth="1"/>
-    <col min="16" max="22" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.1796875" style="35" customWidth="1"/>
-    <col min="24" max="25" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.81640625" customWidth="1"/>
-    <col min="28" max="32" width="8.81640625" customWidth="1"/>
-    <col min="33" max="33" width="15.453125" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="8.81640625" customWidth="1"/>
-    <col min="39" max="39" width="8.6328125" style="146"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="35" customWidth="1"/>
+    <col min="6" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="22" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.1640625" style="35" customWidth="1"/>
+    <col min="24" max="25" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.83203125" customWidth="1"/>
+    <col min="28" max="32" width="8.83203125" customWidth="1"/>
+    <col min="33" max="33" width="15.5" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="8.83203125" customWidth="1"/>
+    <col min="39" max="39" width="8.6640625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="342" t="s">
         <v>371</v>
       </c>
@@ -4213,7 +4216,7 @@
       <c r="AO1" s="343"/>
       <c r="AP1" s="343"/>
     </row>
-    <row r="2" spans="1:43" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F2" s="341" t="s">
         <v>21</v>
       </c>
@@ -4260,7 +4263,7 @@
       <c r="AK2" s="341"/>
       <c r="AL2" s="345"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="F3" s="197" t="s">
         <v>5</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="340" t="s">
         <v>261</v>
       </c>
@@ -4391,7 +4394,7 @@
       <c r="AK4" s="97"/>
       <c r="AL4" s="97"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>259</v>
       </c>
@@ -4488,7 +4491,7 @@
       <c r="AK5" s="97"/>
       <c r="AL5" s="97"/>
     </row>
-    <row r="6" spans="1:43" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="169" t="s">
         <v>214</v>
       </c>
@@ -4575,7 +4578,7 @@
       <c r="AL6" s="174"/>
       <c r="AM6" s="232"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>260</v>
       </c>
@@ -4672,7 +4675,7 @@
       <c r="AK7" s="97"/>
       <c r="AL7" s="97"/>
     </row>
-    <row r="8" spans="1:43" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A8" s="169" t="s">
         <v>214</v>
       </c>
@@ -4759,7 +4762,7 @@
       <c r="AL8" s="174"/>
       <c r="AM8" s="232"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="F9" s="197"/>
       <c r="G9" s="197"/>
       <c r="H9" s="197"/>
@@ -4780,7 +4783,7 @@
       <c r="AK9" s="97"/>
       <c r="AL9" s="97"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -4798,7 +4801,7 @@
       <c r="AI10" s="146"/>
       <c r="AJ10" s="146"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="176" t="s">
         <v>256</v>
       </c>
@@ -4875,7 +4878,7 @@
       <c r="AI11" s="146"/>
       <c r="AJ11" s="146"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="211" t="s">
         <v>25</v>
       </c>
@@ -4989,7 +4992,7 @@
       </c>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="212" t="s">
         <v>376</v>
       </c>
@@ -5052,7 +5055,7 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:43" s="170" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" s="170" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="212" t="s">
         <v>372</v>
       </c>
@@ -5108,7 +5111,7 @@
       <c r="AL14" s="174"/>
       <c r="AM14" s="232"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="211" t="s">
         <v>26</v>
       </c>
@@ -5218,7 +5221,7 @@
       <c r="AP15" s="35"/>
       <c r="AQ15" s="35"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="212" t="s">
         <v>376</v>
       </c>
@@ -5286,7 +5289,7 @@
       <c r="AP16" s="35"/>
       <c r="AQ16" s="35"/>
     </row>
-    <row r="17" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="212" t="s">
         <v>214</v>
       </c>
@@ -5342,7 +5345,7 @@
       <c r="AL17" s="184"/>
       <c r="AM17" s="232"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="211" t="s">
         <v>27</v>
       </c>
@@ -5456,7 +5459,7 @@
       </c>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="212" t="s">
         <v>376</v>
       </c>
@@ -5519,7 +5522,7 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="212" t="s">
         <v>214</v>
       </c>
@@ -5575,7 +5578,7 @@
       <c r="AL20" s="174"/>
       <c r="AM20" s="232"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="176" t="s">
         <v>0</v>
       </c>
@@ -5688,7 +5691,7 @@
         <v>237.052464440053</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="177" t="s">
         <v>376</v>
       </c>
@@ -5750,7 +5753,7 @@
       <c r="AI22" s="95"/>
       <c r="AJ22" s="95"/>
     </row>
-    <row r="23" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="177" t="s">
         <v>214</v>
       </c>
@@ -5808,7 +5811,7 @@
       <c r="AL23" s="174"/>
       <c r="AM23" s="232"/>
     </row>
-    <row r="24" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="169"/>
       <c r="C24" s="269"/>
       <c r="D24" s="269"/>
@@ -5846,7 +5849,7 @@
       <c r="AL24" s="174"/>
       <c r="AM24" s="232"/>
     </row>
-    <row r="25" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>262</v>
       </c>
@@ -5886,7 +5889,7 @@
       <c r="AL25" s="174"/>
       <c r="AM25" s="232"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="176" t="s">
         <v>263</v>
       </c>
@@ -5958,7 +5961,7 @@
         <v>2065.0311602877164</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="211" t="s">
         <v>22</v>
       </c>
@@ -6027,7 +6030,7 @@
         <v>559.03243371586882</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="211" t="s">
         <v>23</v>
       </c>
@@ -6096,7 +6099,7 @@
         <v>1483.6539817034845</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="211" t="s">
         <v>24</v>
       </c>
@@ -6165,7 +6168,7 @@
         <v>22.344744868362856</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="176" t="s">
         <v>0</v>
       </c>
@@ -6234,7 +6237,7 @@
         <v>100.98933505902134</v>
       </c>
     </row>
-    <row r="31" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A31" s="177" t="s">
         <v>264</v>
       </c>
@@ -6282,7 +6285,7 @@
       <c r="U31" s="193"/>
       <c r="AM31" s="234"/>
     </row>
-    <row r="32" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="194"/>
       <c r="B32" s="195"/>
       <c r="C32" s="269"/>
@@ -6330,7 +6333,7 @@
       <c r="AL32" s="174"/>
       <c r="AM32" s="232"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="F33" s="197"/>
       <c r="G33" s="197"/>
       <c r="H33" s="197"/>
@@ -6353,7 +6356,7 @@
         <v>2696.6527204036238</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="86" t="s">
         <v>14</v>
       </c>
@@ -6454,7 +6457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="86" t="s">
         <v>3</v>
       </c>
@@ -6579,7 +6582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="93" t="s">
         <v>338</v>
       </c>
@@ -6647,7 +6650,7 @@
       <c r="AL36" s="3"/>
       <c r="AM36" s="182"/>
     </row>
-    <row r="37" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="281" t="s">
         <v>339</v>
       </c>
@@ -6683,7 +6686,7 @@
       <c r="AL37" s="276"/>
       <c r="AM37" s="278"/>
     </row>
-    <row r="38" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="281" t="s">
         <v>346</v>
       </c>
@@ -6719,7 +6722,7 @@
       <c r="AL38" s="276"/>
       <c r="AM38" s="278"/>
     </row>
-    <row r="39" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="281" t="s">
         <v>350</v>
       </c>
@@ -6761,7 +6764,7 @@
       <c r="AL39" s="276"/>
       <c r="AM39" s="278"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="86" t="s">
         <v>141</v>
       </c>
@@ -6863,7 +6866,7 @@
       <c r="AL40" s="3"/>
       <c r="AM40" s="182"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="115" t="s">
         <v>332</v>
       </c>
@@ -6914,7 +6917,7 @@
       <c r="AL41" s="3"/>
       <c r="AM41" s="182"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="117" t="s">
         <v>211</v>
       </c>
@@ -6972,7 +6975,7 @@
       <c r="AL42" s="3"/>
       <c r="AM42" s="182"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="270" t="s">
         <v>138</v>
       </c>
@@ -7052,7 +7055,7 @@
       <c r="AL43" s="3"/>
       <c r="AM43" s="182"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="270" t="s">
         <v>162</v>
       </c>
@@ -7094,7 +7097,7 @@
       <c r="AL44" s="3"/>
       <c r="AM44" s="182"/>
     </row>
-    <row r="45" spans="1:39" s="274" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:39" s="274" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="273" t="s">
         <v>344</v>
       </c>
@@ -7135,7 +7138,7 @@
       <c r="AL45" s="276"/>
       <c r="AM45" s="278"/>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="117" t="s">
         <v>139</v>
       </c>
@@ -7218,7 +7221,7 @@
       <c r="AL46" s="3"/>
       <c r="AM46" s="182"/>
     </row>
-    <row r="47" spans="1:39" s="107" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:39" s="107" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="325" t="s">
         <v>147</v>
       </c>
@@ -7292,7 +7295,7 @@
       <c r="AL47" s="330"/>
       <c r="AM47" s="332"/>
     </row>
-    <row r="48" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:39" s="107" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="333" t="s">
         <v>205</v>
       </c>
@@ -7351,7 +7354,7 @@
       <c r="AL48" s="330"/>
       <c r="AM48" s="332"/>
     </row>
-    <row r="49" spans="1:41" s="107" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:41" s="107" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="333" t="s">
         <v>382</v>
       </c>
@@ -7397,7 +7400,7 @@
       <c r="AL49" s="330"/>
       <c r="AM49" s="332"/>
     </row>
-    <row r="50" spans="1:41" s="107" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:41" s="107" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="333" t="s">
         <v>383</v>
       </c>
@@ -7456,7 +7459,7 @@
       <c r="AL50" s="330"/>
       <c r="AM50" s="332"/>
     </row>
-    <row r="51" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:41" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="86" t="s">
         <v>149</v>
       </c>
@@ -7573,7 +7576,7 @@
         <v>1719.2313825604638</v>
       </c>
     </row>
-    <row r="52" spans="1:41" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A52" s="169" t="s">
         <v>214</v>
       </c>
@@ -7636,7 +7639,7 @@
       <c r="AL52" s="174"/>
       <c r="AM52" s="183"/>
     </row>
-    <row r="53" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="169" t="s">
         <v>268</v>
       </c>
@@ -7690,7 +7693,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:41" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:41" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54"/>
       <c r="E54"/>
@@ -7728,7 +7731,7 @@
       <c r="AL54" s="44"/>
       <c r="AM54" s="235"/>
     </row>
-    <row r="55" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="141" t="s">
         <v>4</v>
       </c>
@@ -7827,7 +7830,7 @@
       <c r="AF55" s="44"/>
       <c r="AM55" s="233"/>
     </row>
-    <row r="56" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:41" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="134" t="s">
         <v>200</v>
       </c>
@@ -7890,7 +7893,7 @@
       <c r="AG56" s="44"/>
       <c r="AM56" s="233"/>
     </row>
-    <row r="57" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:41" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="219" t="s">
         <v>336</v>
       </c>
@@ -7924,7 +7927,7 @@
       <c r="AG57" s="44"/>
       <c r="AM57" s="233"/>
     </row>
-    <row r="58" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:41" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="271" t="s">
         <v>334</v>
       </c>
@@ -7987,7 +7990,7 @@
       <c r="AG58" s="44"/>
       <c r="AM58" s="233"/>
     </row>
-    <row r="59" spans="1:41" s="35" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:41" s="35" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="113" t="s">
         <v>271</v>
       </c>
@@ -8050,7 +8053,7 @@
       <c r="AG59" s="44"/>
       <c r="AM59" s="233"/>
     </row>
-    <row r="60" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="272" t="s">
         <v>281</v>
       </c>
@@ -8098,7 +8101,7 @@
       <c r="AG60" s="187"/>
       <c r="AM60" s="234"/>
     </row>
-    <row r="61" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="272" t="s">
         <v>282</v>
       </c>
@@ -8146,7 +8149,7 @@
       <c r="AG61" s="187"/>
       <c r="AM61" s="234"/>
     </row>
-    <row r="62" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="272" t="s">
         <v>283</v>
       </c>
@@ -8194,7 +8197,7 @@
       <c r="AG62" s="187"/>
       <c r="AM62" s="234"/>
     </row>
-    <row r="63" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:41" s="185" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="219" t="s">
         <v>337</v>
       </c>
@@ -8230,7 +8233,7 @@
       <c r="AG63" s="187"/>
       <c r="AM63" s="234"/>
     </row>
-    <row r="64" spans="1:41" s="274" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:41" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="273" t="s">
         <v>335</v>
       </c>
@@ -8270,7 +8273,7 @@
       <c r="AG64" s="276"/>
       <c r="AM64" s="280"/>
     </row>
-    <row r="65" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="273" t="s">
         <v>348</v>
       </c>
@@ -8313,7 +8316,7 @@
       <c r="AG65" s="276"/>
       <c r="AM65" s="280"/>
     </row>
-    <row r="66" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="273" t="s">
         <v>282</v>
       </c>
@@ -8359,7 +8362,7 @@
       <c r="AG66" s="276"/>
       <c r="AM66" s="280"/>
     </row>
-    <row r="67" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="273" t="s">
         <v>351</v>
       </c>
@@ -8417,7 +8420,7 @@
       <c r="AG67" s="276"/>
       <c r="AM67" s="280"/>
     </row>
-    <row r="68" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="134"/>
       <c r="F68" s="197"/>
       <c r="G68" s="197"/>
@@ -8449,7 +8452,7 @@
       <c r="AG68" s="44"/>
       <c r="AM68" s="233"/>
     </row>
-    <row r="69" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="35" t="s">
         <v>16</v>
       </c>
@@ -8511,7 +8514,7 @@
       <c r="AF69" s="44"/>
       <c r="AM69" s="233"/>
     </row>
-    <row r="70" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C70"/>
       <c r="D70"/>
       <c r="F70" s="197"/>
@@ -8522,7 +8525,7 @@
       <c r="K70" s="202"/>
       <c r="L70" s="202">
         <f>L73-L76-L77-L79</f>
-        <v>562900</v>
+        <v>600300</v>
       </c>
       <c r="M70" s="301"/>
       <c r="N70" s="308"/>
@@ -8546,7 +8549,7 @@
       <c r="AF70" s="44"/>
       <c r="AM70" s="233"/>
     </row>
-    <row r="71" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="35" t="s">
         <v>227</v>
       </c>
@@ -8606,7 +8609,7 @@
       <c r="AG71" s="44"/>
       <c r="AM71" s="233"/>
     </row>
-    <row r="72" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="136" t="s">
         <v>228</v>
       </c>
@@ -8618,7 +8621,7 @@
       <c r="K72" s="202"/>
       <c r="L72" s="202">
         <f>L71-L73</f>
-        <v>230950</v>
+        <v>193550</v>
       </c>
       <c r="M72" s="303">
         <v>203600</v>
@@ -8684,7 +8687,7 @@
       <c r="AG72" s="44"/>
       <c r="AM72" s="233"/>
     </row>
-    <row r="73" spans="1:39" s="138" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:39" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="137" t="s">
         <v>208</v>
       </c>
@@ -8702,15 +8705,15 @@
       <c r="J73" s="205"/>
       <c r="K73" s="205"/>
       <c r="L73" s="205">
-        <f>597.9*1000 +L79+L77</f>
-        <v>653300</v>
+        <f>597.9*1000 +L80+L77</f>
+        <v>690700</v>
       </c>
       <c r="M73" s="205">
-        <f>M76+M77+M79</f>
-        <v>87800</v>
+        <f>M80+M77</f>
+        <v>39200</v>
       </c>
       <c r="N73" s="205">
-        <f>VLOOKUP($C$73,'Haver NA'!$A$1:$J$34,10,0)</f>
+        <f>N80+N77</f>
         <v>29000</v>
       </c>
       <c r="O73" s="139"/>
@@ -8734,7 +8737,7 @@
       <c r="AG73" s="140"/>
       <c r="AM73" s="236"/>
     </row>
-    <row r="74" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="134" t="s">
         <v>209</v>
       </c>
@@ -8813,7 +8816,7 @@
       <c r="AG74" s="44"/>
       <c r="AM74" s="233"/>
     </row>
-    <row r="75" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="219" t="s">
         <v>340</v>
       </c>
@@ -8883,7 +8886,7 @@
       <c r="AG75" s="44"/>
       <c r="AM75" s="233"/>
     </row>
-    <row r="76" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="113" t="s">
         <v>197</v>
       </c>
@@ -8947,7 +8950,7 @@
       <c r="AG76" s="44"/>
       <c r="AM76" s="233"/>
     </row>
-    <row r="77" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="334" t="s">
         <v>381</v>
       </c>
@@ -9001,7 +9004,7 @@
       <c r="AG77" s="330"/>
       <c r="AM77" s="338"/>
     </row>
-    <row r="78" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="334" t="s">
         <v>384</v>
       </c>
@@ -9043,7 +9046,7 @@
       <c r="AG78" s="330"/>
       <c r="AM78" s="338"/>
     </row>
-    <row r="79" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="334" t="s">
         <v>201</v>
       </c>
@@ -9097,7 +9100,7 @@
       <c r="AG79" s="330"/>
       <c r="AM79" s="338"/>
     </row>
-    <row r="80" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:39" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="334" t="s">
         <v>385</v>
       </c>
@@ -9145,7 +9148,7 @@
       <c r="AG80" s="330"/>
       <c r="AM80" s="338"/>
     </row>
-    <row r="81" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="220" t="s">
         <v>341</v>
       </c>
@@ -9215,7 +9218,7 @@
       <c r="AG81" s="44"/>
       <c r="AM81" s="233"/>
     </row>
-    <row r="82" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="282" t="s">
         <v>342</v>
       </c>
@@ -9285,7 +9288,7 @@
       <c r="AG82" s="276"/>
       <c r="AM82" s="280"/>
     </row>
-    <row r="83" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="282" t="s">
         <v>343</v>
       </c>
@@ -9355,7 +9358,7 @@
       <c r="AG83" s="276"/>
       <c r="AM83" s="280"/>
     </row>
-    <row r="84" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="282" t="s">
         <v>347</v>
       </c>
@@ -9425,7 +9428,7 @@
       <c r="AG84" s="276"/>
       <c r="AM84" s="280"/>
     </row>
-    <row r="85" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="282" t="s">
         <v>349</v>
       </c>
@@ -9495,7 +9498,7 @@
       <c r="AG85" s="276"/>
       <c r="AM85" s="280"/>
     </row>
-    <row r="86" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="145" t="s">
         <v>216</v>
       </c>
@@ -9512,7 +9515,7 @@
       </c>
       <c r="L86" s="206">
         <f>L72+L74</f>
-        <v>321350</v>
+        <v>283950</v>
       </c>
       <c r="M86" s="206">
         <f>M72+M74</f>
@@ -9579,7 +9582,7 @@
       <c r="AG86" s="44"/>
       <c r="AM86" s="233"/>
     </row>
-    <row r="87" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F87" s="197"/>
       <c r="G87" s="197"/>
       <c r="H87" s="197"/>
@@ -9610,7 +9613,7 @@
       <c r="AG87" s="44"/>
       <c r="AM87" s="233"/>
     </row>
-    <row r="88" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="35" t="s">
         <v>17</v>
       </c>
@@ -9674,7 +9677,7 @@
       <c r="AL88" s="44"/>
       <c r="AM88" s="235"/>
     </row>
-    <row r="89" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="114" t="s">
         <v>203</v>
       </c>
@@ -9752,7 +9755,7 @@
       <c r="AL89" s="44"/>
       <c r="AM89" s="235"/>
     </row>
-    <row r="90" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="114" t="s">
         <v>380</v>
       </c>
@@ -9819,7 +9822,7 @@
       <c r="AL90" s="44"/>
       <c r="AM90" s="235"/>
     </row>
-    <row r="91" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A91" s="169" t="s">
         <v>202</v>
       </c>
@@ -9884,7 +9887,7 @@
       <c r="AL91" s="187"/>
       <c r="AM91" s="237"/>
     </row>
-    <row r="92" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="114" t="s">
         <v>356</v>
       </c>
@@ -9932,7 +9935,7 @@
       <c r="AL92" s="187"/>
       <c r="AM92" s="237"/>
     </row>
-    <row r="93" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="284" t="s">
         <v>352</v>
       </c>
@@ -9980,7 +9983,7 @@
       <c r="AL93" s="287"/>
       <c r="AM93" s="288"/>
     </row>
-    <row r="94" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="284" t="s">
         <v>353</v>
       </c>
@@ -10028,7 +10031,7 @@
       <c r="AL94" s="287"/>
       <c r="AM94" s="288"/>
     </row>
-    <row r="95" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="284" t="s">
         <v>354</v>
       </c>
@@ -10076,7 +10079,7 @@
       <c r="AL95" s="287"/>
       <c r="AM95" s="288"/>
     </row>
-    <row r="96" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="35" t="s">
         <v>204</v>
       </c>
@@ -10187,7 +10190,7 @@
       <c r="AL96" s="84"/>
       <c r="AM96" s="233"/>
     </row>
-    <row r="97" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="141" t="s">
         <v>161</v>
       </c>
@@ -10278,7 +10281,7 @@
       </c>
       <c r="AM97" s="233"/>
     </row>
-    <row r="98" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="141" t="s">
         <v>213</v>
       </c>
@@ -10351,7 +10354,7 @@
       </c>
       <c r="AM98" s="233"/>
     </row>
-    <row r="99" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F99" s="197"/>
       <c r="G99" s="197"/>
       <c r="H99" s="197"/>
@@ -10363,7 +10366,7 @@
       <c r="N99" s="301"/>
       <c r="AM99" s="233"/>
     </row>
-    <row r="100" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="35" t="s">
         <v>15</v>
       </c>
@@ -10436,7 +10439,7 @@
       </c>
       <c r="AM100" s="233"/>
     </row>
-    <row r="101" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="35" t="s">
         <v>229</v>
       </c>
@@ -10509,7 +10512,7 @@
       </c>
       <c r="AM101" s="233"/>
     </row>
-    <row r="102" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F102" s="203"/>
       <c r="G102" s="197"/>
       <c r="H102" s="197"/>
@@ -10521,7 +10524,7 @@
       <c r="N102" s="301"/>
       <c r="AM102" s="233"/>
     </row>
-    <row r="103" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="35" t="s">
         <v>226</v>
       </c>
@@ -10620,7 +10623,7 @@
       <c r="AL103" s="84"/>
       <c r="AM103" s="233"/>
     </row>
-    <row r="104" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="169" t="s">
         <v>268</v>
       </c>
@@ -10656,7 +10659,7 @@
       <c r="W104" s="175"/>
       <c r="AM104" s="234"/>
     </row>
-    <row r="105" spans="1:39" s="153" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:39" s="153" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A105" s="153" t="s">
         <v>221</v>
       </c>
@@ -10703,7 +10706,7 @@
       <c r="AJ105" s="155"/>
       <c r="AM105" s="238"/>
     </row>
-    <row r="106" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="35" t="s">
         <v>18</v>
       </c>
@@ -10776,7 +10779,7 @@
       </c>
       <c r="AM106" s="233"/>
     </row>
-    <row r="107" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="169" t="s">
         <v>284</v>
       </c>
@@ -10828,7 +10831,7 @@
       <c r="Y107" s="252"/>
       <c r="AM107" s="234"/>
     </row>
-    <row r="108" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="169" t="s">
         <v>285</v>
       </c>
@@ -10884,7 +10887,7 @@
       </c>
       <c r="AM108" s="234"/>
     </row>
-    <row r="109" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="35" t="s">
         <v>215</v>
       </c>
@@ -10950,7 +10953,7 @@
       </c>
       <c r="AM109" s="233"/>
     </row>
-    <row r="110" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F110" s="197"/>
       <c r="G110" s="197"/>
       <c r="H110" s="197"/>
@@ -10997,7 +11000,7 @@
       <c r="Y110"/>
       <c r="AM110" s="233"/>
     </row>
-    <row r="111" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="169" t="s">
         <v>284</v>
       </c>
@@ -11037,7 +11040,7 @@
       <c r="Y111" s="252"/>
       <c r="AM111" s="234"/>
     </row>
-    <row r="112" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="169" t="s">
         <v>285</v>
       </c>
@@ -11088,7 +11091,7 @@
       </c>
       <c r="AM112" s="234"/>
     </row>
-    <row r="113" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="169" t="s">
         <v>372</v>
       </c>
@@ -11121,7 +11124,7 @@
       <c r="V113" s="175"/>
       <c r="AM113" s="234"/>
     </row>
-    <row r="114" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="35" t="s">
         <v>163</v>
       </c>
@@ -11206,7 +11209,7 @@
       </c>
       <c r="AM114" s="233"/>
     </row>
-    <row r="115" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="141" t="s">
         <v>212</v>
       </c>
@@ -11293,7 +11296,7 @@
       </c>
       <c r="AM115" s="233"/>
     </row>
-    <row r="116" spans="1:39" s="141" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:39" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="141" t="s">
         <v>230</v>
       </c>
@@ -11380,7 +11383,7 @@
       </c>
       <c r="AM116" s="256"/>
     </row>
-    <row r="117" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="F117" s="213"/>
       <c r="G117" s="213"/>
@@ -11401,7 +11404,7 @@
       <c r="V117"/>
       <c r="AM117" s="233"/>
     </row>
-    <row r="118" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="169"/>
       <c r="F118" s="193"/>
       <c r="G118" s="193"/>
@@ -11421,7 +11424,7 @@
       <c r="U118" s="193"/>
       <c r="AM118" s="234"/>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>158</v>
       </c>
@@ -11449,7 +11452,7 @@
       <c r="AH119" s="35"/>
       <c r="AI119" s="35"/>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.2">
       <c r="L120" s="35"/>
       <c r="M120" s="35"/>
       <c r="N120" s="35"/>
@@ -11474,7 +11477,7 @@
       <c r="AH120" s="35"/>
       <c r="AI120" s="35"/>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.2">
       <c r="L121" s="35"/>
       <c r="M121" s="35"/>
       <c r="N121" s="35"/>
@@ -11499,7 +11502,7 @@
       <c r="AH121" s="35"/>
       <c r="AI121" s="35"/>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:39" x14ac:dyDescent="0.2">
       <c r="L122" s="35"/>
       <c r="M122" s="35"/>
       <c r="N122" s="35"/>
@@ -11524,7 +11527,7 @@
       <c r="AH122" s="35"/>
       <c r="AI122" s="35"/>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.2">
       <c r="L123" s="35"/>
       <c r="M123" s="35"/>
       <c r="N123" s="35"/>
@@ -11549,7 +11552,7 @@
       <c r="AH123" s="35"/>
       <c r="AI123" s="35"/>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.2">
       <c r="L124" s="35"/>
       <c r="M124" s="35"/>
       <c r="N124" s="35"/>
@@ -11606,25 +11609,25 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" style="157" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="157" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" style="157" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="157" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="157" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="157" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="12" style="157"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="157" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="157" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="157" t="s">
         <v>233</v>
       </c>
@@ -11668,7 +11671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="157" t="s">
         <v>235</v>
       </c>
@@ -11731,7 +11734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="157" t="s">
         <v>13</v>
       </c>
@@ -11772,7 +11775,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="157" t="s">
         <v>236</v>
       </c>
@@ -11825,7 +11828,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="160" t="s">
         <v>237</v>
       </c>
@@ -11835,7 +11838,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="157" t="s">
         <v>238</v>
       </c>
@@ -11892,10 +11895,10 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D11" s="163"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="157" t="s">
         <v>239</v>
       </c>
@@ -11927,7 +11930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="157" t="s">
         <v>156</v>
       </c>
@@ -11955,7 +11958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="267" t="s">
         <v>141</v>
       </c>
@@ -11995,7 +11998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="157" t="s">
         <v>20</v>
       </c>
@@ -12041,7 +12044,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="157" t="s">
         <v>236</v>
       </c>
@@ -12078,7 +12081,7 @@
         <v>1.5888244379207488E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="157" t="s">
         <v>240</v>
       </c>
@@ -12087,7 +12090,7 @@
         <v>0.86186821348990206</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="161" t="s">
         <v>238</v>
       </c>
@@ -12129,7 +12132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="161"/>
       <c r="C21" s="161"/>
       <c r="D21" s="166">
@@ -12161,22 +12164,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="157" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="157" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C24" s="157" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="157" t="s">
         <v>34</v>
       </c>
@@ -12184,7 +12187,7 @@
         <v>5654.6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="157" t="s">
         <v>243</v>
       </c>
@@ -12196,7 +12199,7 @@
         <v>0.18843065822516181</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="157" t="s">
         <v>244</v>
       </c>
@@ -12208,7 +12211,7 @@
         <v>0.19065893255048985</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" s="157" t="s">
         <v>156</v>
       </c>
@@ -12231,25 +12234,25 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" style="157" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="157" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" style="157" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="157" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="157" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="157" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="12" style="157"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="157" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="157" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="157" t="s">
         <v>233</v>
       </c>
@@ -12293,7 +12296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="157" t="s">
         <v>235</v>
       </c>
@@ -12356,7 +12359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="157" t="s">
         <v>13</v>
       </c>
@@ -12397,7 +12400,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="157" t="s">
         <v>236</v>
       </c>
@@ -12450,7 +12453,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="160" t="s">
         <v>237</v>
       </c>
@@ -12460,7 +12463,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="157" t="s">
         <v>238</v>
       </c>
@@ -12517,10 +12520,10 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D11" s="163"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="157" t="s">
         <v>239</v>
       </c>
@@ -12552,7 +12555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="157" t="s">
         <v>156</v>
       </c>
@@ -12580,7 +12583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="267" t="s">
         <v>141</v>
       </c>
@@ -12620,7 +12623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="157" t="s">
         <v>20</v>
       </c>
@@ -12666,7 +12669,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="157" t="s">
         <v>236</v>
       </c>
@@ -12703,7 +12706,7 @@
         <v>1.5888244379207488E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="157" t="s">
         <v>240</v>
       </c>
@@ -12712,7 +12715,7 @@
         <v>0.86186821348990206</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="161" t="s">
         <v>238</v>
       </c>
@@ -12754,7 +12757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="161"/>
       <c r="C21" s="161"/>
       <c r="D21" s="166">
@@ -12786,22 +12789,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="157" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="157" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C24" s="157" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="157" t="s">
         <v>34</v>
       </c>
@@ -12809,7 +12812,7 @@
         <v>5654.6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="157" t="s">
         <v>243</v>
       </c>
@@ -12821,7 +12824,7 @@
         <v>0.18843065822516181</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="157" t="s">
         <v>244</v>
       </c>
@@ -12833,7 +12836,7 @@
         <v>0.19065893255048985</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" s="157" t="s">
         <v>156</v>
       </c>
@@ -12856,9 +12859,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -12867,7 +12870,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -12876,9 +12879,9 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="358" t="s">
         <v>32</v>
       </c>
@@ -12901,7 +12904,7 @@
       <c r="R5" s="359"/>
       <c r="S5" s="359"/>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="360" t="s">
         <v>33</v>
       </c>
@@ -12924,7 +12927,7 @@
       <c r="R6" s="360"/>
       <c r="S6" s="360"/>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -12945,7 +12948,7 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="130"/>
       <c r="B8" s="130"/>
       <c r="C8" s="11"/>
@@ -12966,7 +12969,7 @@
       <c r="R8" s="361"/>
       <c r="S8" s="362"/>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="130"/>
       <c r="B9" s="130"/>
       <c r="C9" s="14"/>
@@ -12989,7 +12992,7 @@
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -13024,7 +13027,7 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="130"/>
       <c r="B11" s="28" t="s">
         <v>2</v>
@@ -13061,7 +13064,7 @@
       <c r="R11" s="324"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="130"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -13100,7 +13103,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="130" t="s">
         <v>218</v>
       </c>
@@ -13146,7 +13149,7 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -13159,7 +13162,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>222</v>
       </c>
@@ -13192,7 +13195,7 @@
         <v>0.67846773573296415</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>220</v>
       </c>
@@ -13226,16 +13229,16 @@
       <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="4" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="118" customWidth="1"/>
-    <col min="8" max="10" width="9.36328125" style="95" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" style="118" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="4" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="118" customWidth="1"/>
+    <col min="8" max="10" width="9.33203125" style="95" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="342" t="s">
         <v>206</v>
       </c>
@@ -13257,7 +13260,7 @@
       <c r="AE1" s="341"/>
       <c r="AF1" s="341"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="364" t="s">
         <v>191</v>
       </c>
@@ -13266,28 +13269,28 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="364"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="364"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="364"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="354" t="s">
         <v>160</v>
       </c>
@@ -13307,7 +13310,7 @@
       <c r="M7" s="355"/>
       <c r="N7" s="356"/>
     </row>
-    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>199</v>
       </c>
@@ -13342,7 +13345,7 @@
       <c r="M8" s="96"/>
       <c r="N8" s="96"/>
     </row>
-    <row r="9" spans="1:32" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>164</v>
       </c>
@@ -13360,7 +13363,7 @@
       <c r="M9" s="78"/>
       <c r="N9" s="78"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
         <v>170</v>
       </c>
@@ -13389,7 +13392,7 @@
         <v>71.905190915813407</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
         <v>171</v>
       </c>
@@ -13418,7 +13421,7 @@
         <v>397.47458006632002</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
         <v>172</v>
       </c>
@@ -13447,7 +13450,7 @@
         <v>2052.5745731536199</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
         <v>173</v>
       </c>
@@ -13476,7 +13479,7 @@
         <v>61.480044477236603</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
         <v>174</v>
       </c>
@@ -13505,7 +13508,7 @@
         <v>0.61311927847613501</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
         <v>175</v>
       </c>
@@ -13534,7 +13537,7 @@
         <v>1536.3491403461601</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
         <v>166</v>
       </c>
@@ -13563,7 +13566,7 @@
         <v>2744.7441275841602</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="86" t="s">
         <v>167</v>
       </c>
@@ -13592,7 +13595,7 @@
         <v>3246.3114308992499</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="86" t="s">
         <v>168</v>
       </c>
@@ -13621,7 +13624,7 @@
         <v>252.77338989879101</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="86" t="s">
         <v>169</v>
       </c>
@@ -13650,7 +13653,7 @@
         <v>1109.9502671346299</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>195</v>
       </c>
@@ -13679,13 +13682,13 @@
         <v>748.69791667930303</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="110" t="s">
         <v>184</v>
       </c>
       <c r="B23" s="110"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>185</v>
       </c>
@@ -13723,7 +13726,7 @@
       </c>
       <c r="L24" s="100"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>186</v>
       </c>
@@ -13750,7 +13753,7 @@
         <v>-46.377972457627124</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>179</v>
       </c>
@@ -13786,7 +13789,7 @@
         <v>193.49039972658653</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>177</v>
       </c>
@@ -13823,7 +13826,7 @@
         <v>71.905190915813407</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="99" t="s">
         <v>178</v>
       </c>
@@ -13854,7 +13857,7 @@
         <v>121.58520881077312</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D29" s="102"/>
       <c r="E29" s="102"/>
       <c r="F29" s="102"/>
@@ -13864,7 +13867,7 @@
       <c r="J29" s="104"/>
       <c r="K29" s="122"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D30" s="102"/>
       <c r="E30" s="102"/>
       <c r="F30" s="102"/>
@@ -13874,13 +13877,13 @@
       <c r="J30" s="104"/>
       <c r="K30" s="122"/>
     </row>
-    <row r="31" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="110" t="s">
         <v>187</v>
       </c>
       <c r="B31" s="110"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>185</v>
       </c>
@@ -13918,7 +13921,7 @@
       </c>
       <c r="L32" s="100"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>186</v>
       </c>
@@ -13949,7 +13952,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>179</v>
       </c>
@@ -13985,7 +13988,7 @@
         <v>191.84423247697106</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>177</v>
       </c>
@@ -14022,7 +14025,7 @@
         <v>397.47458006632002</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="99" t="s">
         <v>178</v>
       </c>
@@ -14053,7 +14056,7 @@
         <v>-205.63034758934896</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="99"/>
       <c r="D37" s="103"/>
       <c r="E37" s="103"/>
@@ -14064,7 +14067,7 @@
       <c r="J37" s="103"/>
       <c r="K37" s="123"/>
     </row>
-    <row r="38" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="99"/>
       <c r="D38" s="103"/>
       <c r="E38" s="103"/>
@@ -14075,7 +14078,7 @@
       <c r="J38" s="103"/>
       <c r="K38" s="123"/>
     </row>
-    <row r="39" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="110" t="s">
         <v>183</v>
       </c>
@@ -14089,7 +14092,7 @@
       <c r="J39" s="104"/>
       <c r="K39" s="122"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>179</v>
       </c>
@@ -14118,7 +14121,7 @@
         <v>1892.015583446143</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>180</v>
       </c>
@@ -14153,7 +14156,7 @@
         <v>1890.9916822863934</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>177</v>
       </c>
@@ -14190,7 +14193,7 @@
         <v>2052.5745731536199</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="99" t="s">
         <v>178</v>
       </c>
@@ -14221,7 +14224,7 @@
         <v>-161.58289086722652</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D44" s="102"/>
       <c r="E44" s="102"/>
       <c r="F44" s="102"/>
@@ -14231,7 +14234,7 @@
       <c r="J44" s="104"/>
       <c r="K44" s="122"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D45" s="102"/>
       <c r="E45" s="102"/>
       <c r="F45" s="102"/>
@@ -14241,7 +14244,7 @@
       <c r="J45" s="104"/>
       <c r="K45" s="122"/>
     </row>
-    <row r="46" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="110" t="s">
         <v>182</v>
       </c>
@@ -14255,7 +14258,7 @@
       <c r="J46" s="104"/>
       <c r="K46" s="122"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>179</v>
       </c>
@@ -14284,7 +14287,7 @@
         <v>74.827748020610457</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>180</v>
       </c>
@@ -14319,7 +14322,7 @@
         <v>97.788296196225005</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>177</v>
       </c>
@@ -14356,7 +14359,7 @@
         <v>61.480044477236603</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="99" t="s">
         <v>178</v>
       </c>
@@ -14387,7 +14390,7 @@
         <v>36.308251718988402</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D51" s="102"/>
       <c r="E51" s="102"/>
       <c r="F51" s="102"/>
@@ -14397,13 +14400,13 @@
       <c r="J51" s="104"/>
       <c r="K51" s="122"/>
     </row>
-    <row r="53" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="105" t="s">
         <v>188</v>
       </c>
       <c r="B53" s="105"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>185</v>
       </c>
@@ -14441,7 +14444,7 @@
       </c>
       <c r="L54" s="100"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>186</v>
       </c>
@@ -14468,7 +14471,7 @@
         <v>77.568110169491518</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>179</v>
       </c>
@@ -14505,7 +14508,7 @@
         <v>1466.8336294397507</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>177</v>
       </c>
@@ -14542,7 +14545,7 @@
         <v>1536.3491403461601</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="99" t="s">
         <v>178</v>
       </c>
@@ -14573,7 +14576,7 @@
         <v>-69.515510906409418</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D59" s="102"/>
       <c r="E59" s="102"/>
       <c r="F59" s="102"/>
@@ -14583,7 +14586,7 @@
       <c r="J59" s="104"/>
       <c r="K59" s="122"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D60" s="102"/>
       <c r="E60" s="102"/>
       <c r="F60" s="102"/>
@@ -14593,13 +14596,13 @@
       <c r="J60" s="104"/>
       <c r="K60" s="122"/>
     </row>
-    <row r="61" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="105" t="s">
         <v>189</v>
       </c>
       <c r="B61" s="105"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>185</v>
       </c>
@@ -14637,7 +14640,7 @@
       </c>
       <c r="L62" s="100"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>186</v>
       </c>
@@ -14664,7 +14667,7 @@
         <v>85.98974092242338</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>179</v>
       </c>
@@ -14700,7 +14703,7 @@
         <v>2007.57447036953</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>177</v>
       </c>
@@ -14737,7 +14740,7 @@
         <v>2744.7441275841602</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="99" t="s">
         <v>178</v>
       </c>
@@ -14768,7 +14771,7 @@
         <v>-737.16965721463021</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="99"/>
       <c r="D67" s="103"/>
       <c r="E67" s="103"/>
@@ -14779,7 +14782,7 @@
       <c r="J67" s="103"/>
       <c r="K67" s="123"/>
     </row>
-    <row r="68" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="99"/>
       <c r="D68" s="103"/>
       <c r="E68" s="103"/>
@@ -14790,7 +14793,7 @@
       <c r="J68" s="103"/>
       <c r="K68" s="123"/>
     </row>
-    <row r="69" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="105" t="s">
         <v>190</v>
       </c>
@@ -14804,7 +14807,7 @@
       <c r="J69" s="104"/>
       <c r="K69" s="122"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>4</v>
       </c>
@@ -14838,7 +14841,7 @@
         <v>122.75024999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>177</v>
       </c>
@@ -14875,7 +14878,7 @@
         <v>1109.9502671346299</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="99" t="s">
         <v>178</v>
       </c>
@@ -14906,7 +14909,7 @@
         <v>-987.20001713462989</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D73" s="102"/>
       <c r="E73" s="102"/>
       <c r="F73" s="102"/>
@@ -14916,7 +14919,7 @@
       <c r="J73" s="104"/>
       <c r="K73" s="122"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D74" s="102"/>
       <c r="E74" s="102"/>
       <c r="F74" s="102"/>
@@ -14926,7 +14929,7 @@
       <c r="J74" s="104"/>
       <c r="K74" s="122"/>
     </row>
-    <row r="75" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="105" t="s">
         <v>196</v>
       </c>
@@ -14940,7 +14943,7 @@
       <c r="J75" s="104"/>
       <c r="K75" s="122"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>185</v>
       </c>
@@ -14977,7 +14980,7 @@
         <v>3301.0791480964817</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>186</v>
       </c>
@@ -15006,7 +15009,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B78" s="111" t="s">
         <v>197</v>
       </c>
@@ -15025,7 +15028,7 @@
       <c r="J78" s="102"/>
       <c r="K78" s="122"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B79" s="112" t="s">
         <v>198</v>
       </c>
@@ -15044,7 +15047,7 @@
       <c r="J79" s="102"/>
       <c r="K79" s="122"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>179</v>
       </c>
@@ -15081,7 +15084,7 @@
         <v>3421.0791480964817</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>177</v>
       </c>
@@ -15118,7 +15121,7 @@
         <v>748.69791667930303</v>
       </c>
     </row>
-    <row r="82" spans="2:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="99" t="s">
         <v>178</v>
       </c>
@@ -15173,102 +15176,102 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.453125" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="11" width="12.453125" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="11" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L1" s="46"/>
       <c r="M1" s="46"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="370" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="365" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="370"/>
-      <c r="C2" s="370"/>
-      <c r="D2" s="370"/>
-      <c r="E2" s="370"/>
-      <c r="F2" s="370"/>
-      <c r="G2" s="370"/>
-      <c r="H2" s="370"/>
-      <c r="I2" s="370"/>
-      <c r="J2" s="370"/>
+      <c r="B2" s="365"/>
+      <c r="C2" s="365"/>
+      <c r="D2" s="365"/>
+      <c r="E2" s="365"/>
+      <c r="F2" s="365"/>
+      <c r="G2" s="365"/>
+      <c r="H2" s="365"/>
+      <c r="I2" s="365"/>
+      <c r="J2" s="365"/>
       <c r="K2" s="77"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="370" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="365" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="370"/>
-      <c r="C3" s="370"/>
-      <c r="D3" s="370"/>
-      <c r="E3" s="370"/>
-      <c r="F3" s="370"/>
-      <c r="G3" s="370"/>
-      <c r="H3" s="370"/>
-      <c r="I3" s="370"/>
-      <c r="J3" s="370"/>
+      <c r="B3" s="365"/>
+      <c r="C3" s="365"/>
+      <c r="D3" s="365"/>
+      <c r="E3" s="365"/>
+      <c r="F3" s="365"/>
+      <c r="G3" s="365"/>
+      <c r="H3" s="365"/>
+      <c r="I3" s="365"/>
+      <c r="J3" s="365"/>
       <c r="K3" s="77"/>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="371"/>
-      <c r="B4" s="371"/>
-      <c r="C4" s="371"/>
-      <c r="D4" s="371"/>
-      <c r="E4" s="371"/>
-      <c r="F4" s="371"/>
-      <c r="G4" s="371"/>
-      <c r="H4" s="371"/>
-      <c r="I4" s="371"/>
-      <c r="J4" s="371"/>
-      <c r="K4" s="376" t="s">
+    <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="366"/>
+      <c r="B4" s="366"/>
+      <c r="C4" s="366"/>
+      <c r="D4" s="366"/>
+      <c r="E4" s="366"/>
+      <c r="F4" s="366"/>
+      <c r="G4" s="366"/>
+      <c r="H4" s="366"/>
+      <c r="I4" s="366"/>
+      <c r="J4" s="366"/>
+      <c r="K4" s="371" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="376"/>
-      <c r="M4" s="376"/>
-      <c r="N4" s="376"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="L4" s="371"/>
+      <c r="M4" s="371"/>
+      <c r="N4" s="371"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="372" t="s">
+      <c r="C5" s="367" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="373"/>
-      <c r="E5" s="373"/>
-      <c r="F5" s="373"/>
-      <c r="G5" s="373"/>
-      <c r="H5" s="373"/>
-      <c r="I5" s="373"/>
-      <c r="J5" s="374"/>
+      <c r="D5" s="368"/>
+      <c r="E5" s="368"/>
+      <c r="F5" s="368"/>
+      <c r="G5" s="368"/>
+      <c r="H5" s="368"/>
+      <c r="I5" s="368"/>
+      <c r="J5" s="369"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="375" t="s">
+      <c r="L5" s="370" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="341"/>
       <c r="N5" s="341"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="366">
+      <c r="C6" s="373">
         <v>2020</v>
       </c>
-      <c r="D6" s="367"/>
-      <c r="E6" s="367"/>
-      <c r="F6" s="367"/>
-      <c r="G6" s="367"/>
-      <c r="H6" s="367"/>
-      <c r="I6" s="367"/>
-      <c r="J6" s="368"/>
+      <c r="D6" s="374"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="374"/>
+      <c r="H6" s="374"/>
+      <c r="I6" s="374"/>
+      <c r="J6" s="375"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15297,7 +15300,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="51"/>
       <c r="C7" s="52" t="s">
@@ -15324,7 +15327,7 @@
       </c>
       <c r="K7" s="78"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="57">
         <v>23</v>
       </c>
@@ -15369,7 +15372,7 @@
         <v>302.39999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="74" t="s">
         <v>131</v>
       </c>
@@ -15387,7 +15390,7 @@
       <c r="N9" s="73"/>
       <c r="X9" s="72"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>24</v>
       </c>
@@ -15427,7 +15430,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="57">
         <v>25</v>
       </c>
@@ -15479,7 +15482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>26</v>
       </c>
@@ -15519,7 +15522,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K13" s="35" t="s">
         <v>140</v>
       </c>
@@ -15536,12 +15539,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>120</v>
       </c>
@@ -15601,7 +15604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="J18" s="79" t="s">
         <v>139</v>
       </c>
@@ -15658,7 +15661,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="65"/>
       <c r="D19" s="65"/>
       <c r="E19" s="65"/>
@@ -15672,7 +15675,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="3:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:23" ht="32" x14ac:dyDescent="0.2">
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
       <c r="E20" s="67"/>
@@ -15682,7 +15685,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="69" t="s">
         <v>121</v>
       </c>
@@ -15691,7 +15694,7 @@
       <c r="F21" s="70"/>
       <c r="G21" s="67"/>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="69"/>
       <c r="D22" s="71" t="s">
         <v>122</v>
@@ -15725,7 +15728,7 @@
       <c r="U22" s="341"/>
       <c r="V22" s="341"/>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="67"/>
       <c r="D23" s="69" t="s">
         <v>123</v>
@@ -15740,12 +15743,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="369" t="s">
+      <c r="K23" s="376" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="369"/>
-      <c r="M23" s="369"/>
-      <c r="N23" s="369"/>
+      <c r="L23" s="376"/>
+      <c r="M23" s="376"/>
+      <c r="N23" s="376"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15753,7 +15756,7 @@
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="67"/>
       <c r="D24" s="69" t="s">
         <v>124</v>
@@ -15805,7 +15808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="67"/>
       <c r="D25" s="69" t="s">
         <v>58</v>
@@ -15829,7 +15832,7 @@
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="67"/>
       <c r="D26" s="69"/>
       <c r="E26" s="67"/>
@@ -15888,7 +15891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:23" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:23" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="67"/>
       <c r="D27" s="69"/>
       <c r="E27" s="216" t="s">
@@ -15913,8 +15916,8 @@
       <c r="R27" s="35"/>
       <c r="S27" s="72"/>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="365" t="s">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="I28" s="372" t="s">
         <v>257</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15950,7 +15953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>126</v>
       </c>
@@ -15964,7 +15967,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="365"/>
+      <c r="I29" s="372"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15996,7 +15999,7 @@
       </c>
       <c r="S29" s="72"/>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>127</v>
       </c>
@@ -16012,7 +16015,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="365"/>
+      <c r="I30" s="372"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -16044,7 +16047,7 @@
       </c>
       <c r="S30" s="72"/>
     </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="176" t="s">
         <v>128</v>
       </c>
@@ -16060,7 +16063,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="365"/>
+      <c r="I31" s="372"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -16088,7 +16091,7 @@
       </c>
       <c r="S31" s="72"/>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="176" t="s">
         <v>129</v>
       </c>
@@ -16106,7 +16109,7 @@
       </c>
       <c r="N32" s="72"/>
     </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>145</v>
       </c>
@@ -16122,7 +16125,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="365" t="s">
+      <c r="I33" s="372" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16169,8 +16172,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="365"/>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="I34" s="372"/>
       <c r="J34" t="s">
         <v>258</v>
       </c>
@@ -16216,19 +16219,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:23" x14ac:dyDescent="0.2">
       <c r="N35" s="72">
         <f>SUM(K34:N34)</f>
         <v>137.33333333333337</v>
       </c>
       <c r="R35" s="72"/>
     </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>267</v>
       </c>
@@ -16277,7 +16280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:23" x14ac:dyDescent="0.2">
       <c r="F38">
         <v>433</v>
       </c>
@@ -16329,19 +16332,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:23" x14ac:dyDescent="0.2">
       <c r="O40" s="72"/>
       <c r="P40" s="72"/>
       <c r="Q40" s="72"/>
       <c r="R40" s="72"/>
       <c r="S40" s="72"/>
     </row>
-    <row r="42" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:23" x14ac:dyDescent="0.2">
       <c r="O42" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="43" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:23" x14ac:dyDescent="0.2">
       <c r="N43" s="82" t="s">
         <v>144</v>
       </c>
@@ -16349,7 +16352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:23" x14ac:dyDescent="0.2">
       <c r="N44" s="82" t="s">
         <v>143</v>
       </c>
@@ -16357,7 +16360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:23" x14ac:dyDescent="0.2">
       <c r="N45" s="82" t="s">
         <v>142</v>
       </c>
@@ -16365,7 +16368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:23" x14ac:dyDescent="0.2">
       <c r="N46" s="35" t="s">
         <v>140</v>
       </c>
@@ -16373,7 +16376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:23" x14ac:dyDescent="0.2">
       <c r="N47" s="316" t="s">
         <v>257</v>
       </c>
@@ -16381,7 +16384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:23" x14ac:dyDescent="0.2">
       <c r="N48" t="s">
         <v>258</v>
       </c>
@@ -16389,7 +16392,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="49" spans="14:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N49" t="s">
         <v>145</v>
       </c>
@@ -16397,7 +16400,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="14:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N50" t="s">
         <v>129</v>
       </c>
@@ -16407,12 +16410,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16420,6 +16417,12 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16433,19 +16436,19 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>94</v>
       </c>
@@ -16473,7 +16476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -16521,29 +16524,29 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="378" t="s">
+      <c r="E6" s="380" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="378"/>
-      <c r="G6" s="378"/>
-      <c r="H6" s="378"/>
-      <c r="I6" s="378"/>
-      <c r="J6" s="378"/>
-      <c r="K6" s="378"/>
-      <c r="L6" s="378"/>
-      <c r="M6" s="378"/>
-      <c r="N6" s="378"/>
-      <c r="O6" s="378"/>
-      <c r="P6" s="378"/>
-      <c r="Q6" s="378"/>
-      <c r="R6" s="378"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="F6" s="380"/>
+      <c r="G6" s="380"/>
+      <c r="H6" s="380"/>
+      <c r="I6" s="380"/>
+      <c r="J6" s="380"/>
+      <c r="K6" s="380"/>
+      <c r="L6" s="380"/>
+      <c r="M6" s="380"/>
+      <c r="N6" s="380"/>
+      <c r="O6" s="380"/>
+      <c r="P6" s="380"/>
+      <c r="Q6" s="380"/>
+      <c r="R6" s="380"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="377" t="s">
         <v>88</v>
       </c>
@@ -16565,7 +16568,7 @@
       <c r="Q7" s="36"/>
       <c r="R7" s="36"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
       <c r="B8" s="377" t="s">
         <v>89</v>
@@ -16615,7 +16618,7 @@
         <v>22653.71</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
       <c r="B9" s="377" t="s">
         <v>90</v>
@@ -16665,7 +16668,7 @@
         <v>15406.718999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="377" t="s">
         <v>91</v>
@@ -16715,7 +16718,7 @@
         <v>3152.433</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="377" t="s">
         <v>58</v>
@@ -16765,7 +16768,7 @@
         <v>3725.3310000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -16813,7 +16816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="377" t="s">
@@ -16863,7 +16866,7 @@
         <v>44938.192999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -16913,7 +16916,7 @@
         <v>33837.324000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -16963,12 +16966,12 @@
         <v>11100.869000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="377" t="s">
         <v>89</v>
@@ -17031,7 +17034,7 @@
         <v>22863.275999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="377" t="s">
         <v>90</v>
@@ -17095,7 +17098,7 @@
       </c>
       <c r="S20" s="42"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="377" t="s">
         <v>91</v>
@@ -17158,7 +17161,7 @@
         <v>3314.95</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
       <c r="B22" s="377" t="s">
         <v>58</v>
@@ -17221,7 +17224,7 @@
         <v>3821.0209999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -17269,7 +17272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="10"/>
       <c r="C27" s="24"/>
@@ -17277,23 +17280,23 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="379" t="s">
+      <c r="H27" s="378" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="379"/>
-      <c r="J27" s="379"/>
-      <c r="K27" s="379"/>
-      <c r="L27" s="379"/>
-      <c r="M27" s="379"/>
-      <c r="N27" s="379"/>
-      <c r="O27" s="379"/>
-      <c r="P27" s="379"/>
-      <c r="Q27" s="379"/>
-      <c r="R27" s="379"/>
-      <c r="S27" s="379"/>
-      <c r="T27" s="379"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I27" s="378"/>
+      <c r="J27" s="378"/>
+      <c r="K27" s="378"/>
+      <c r="L27" s="378"/>
+      <c r="M27" s="378"/>
+      <c r="N27" s="378"/>
+      <c r="O27" s="378"/>
+      <c r="P27" s="378"/>
+      <c r="Q27" s="378"/>
+      <c r="R27" s="378"/>
+      <c r="S27" s="378"/>
+      <c r="T27" s="378"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>96</v>
       </c>
@@ -17317,7 +17320,7 @@
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="10" t="s">
         <v>89</v>
@@ -17365,7 +17368,7 @@
         <v>-1551.309</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="10" t="s">
         <v>90</v>
@@ -17413,7 +17416,7 @@
         <v>-656.35500000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="10" t="s">
         <v>91</v>
@@ -17461,7 +17464,7 @@
         <v>-276.72699999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
       <c r="B32" s="10" t="s">
         <v>58</v>
@@ -17509,7 +17512,7 @@
         <v>407.49900000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="10"/>
       <c r="C33" s="24"/>
@@ -17553,7 +17556,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
       <c r="B34" s="10"/>
       <c r="C34" s="24"/>
@@ -17601,29 +17604,29 @@
         <v>-2076.8919999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="380" t="s">
+      <c r="F37" s="379" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="380"/>
-      <c r="H37" s="380"/>
-      <c r="I37" s="380"/>
-      <c r="J37" s="380"/>
-      <c r="K37" s="380"/>
-      <c r="L37" s="380"/>
-      <c r="M37" s="380"/>
-      <c r="N37" s="380"/>
-      <c r="O37" s="380"/>
-      <c r="P37" s="380"/>
-      <c r="Q37" s="380"/>
-      <c r="R37" s="380"/>
-    </row>
-    <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
+      <c r="G37" s="379"/>
+      <c r="H37" s="379"/>
+      <c r="I37" s="379"/>
+      <c r="J37" s="379"/>
+      <c r="K37" s="379"/>
+      <c r="L37" s="379"/>
+      <c r="M37" s="379"/>
+      <c r="N37" s="379"/>
+      <c r="O37" s="379"/>
+      <c r="P37" s="379"/>
+      <c r="Q37" s="379"/>
+      <c r="R37" s="379"/>
+    </row>
+    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
         <v>100</v>
       </c>
@@ -17645,7 +17648,7 @@
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
       <c r="B39" s="10" t="s">
         <v>89</v>
@@ -17693,7 +17696,7 @@
         <v>114.194</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="24"/>
       <c r="B40" s="10" t="s">
         <v>91</v>
@@ -17741,7 +17744,7 @@
         <v>44.915999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="24"/>
       <c r="B41" s="10" t="s">
         <v>90</v>
@@ -17789,7 +17792,7 @@
         <v>-4.3769999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="24"/>
       <c r="B42" s="10" t="s">
         <v>58</v>
@@ -17837,7 +17840,7 @@
         <v>-1.5840000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="10"/>
       <c r="C43" s="24"/>
@@ -17883,7 +17886,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="24"/>
       <c r="B44" s="10"/>
       <c r="C44" s="24" t="s">
@@ -17931,29 +17934,29 @@
         <v>153.149</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="24"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="379" t="s">
+      <c r="F48" s="378" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="379"/>
-      <c r="H48" s="379"/>
-      <c r="I48" s="379"/>
-      <c r="J48" s="379"/>
-      <c r="K48" s="379"/>
-      <c r="L48" s="379"/>
-      <c r="M48" s="379"/>
-      <c r="N48" s="379"/>
-      <c r="O48" s="379"/>
-      <c r="P48" s="379"/>
-      <c r="Q48" s="379"/>
-      <c r="R48" s="379"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G48" s="378"/>
+      <c r="H48" s="378"/>
+      <c r="I48" s="378"/>
+      <c r="J48" s="378"/>
+      <c r="K48" s="378"/>
+      <c r="L48" s="378"/>
+      <c r="M48" s="378"/>
+      <c r="N48" s="378"/>
+      <c r="O48" s="378"/>
+      <c r="P48" s="378"/>
+      <c r="Q48" s="378"/>
+      <c r="R48" s="378"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
         <v>96</v>
       </c>
@@ -17975,7 +17978,7 @@
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="24"/>
       <c r="B50" s="10" t="s">
         <v>89</v>
@@ -18023,7 +18026,7 @@
         <v>-323.76</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>91</v>
@@ -18071,7 +18074,7 @@
         <v>-207.43299999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>90</v>
@@ -18119,7 +18122,7 @@
         <v>-109.739</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>58</v>
@@ -18167,7 +18170,7 @@
         <v>-94.105999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -18213,7 +18216,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="24"/>
       <c r="C55" s="10"/>
@@ -18263,6 +18266,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18271,12 +18280,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18292,9 +18295,9 @@
       <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -18303,7 +18306,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -18312,9 +18315,9 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="358" t="s">
         <v>32</v>
       </c>
@@ -18337,7 +18340,7 @@
       <c r="R5" s="359"/>
       <c r="S5" s="359"/>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="360" t="s">
         <v>33</v>
       </c>
@@ -18360,7 +18363,7 @@
       <c r="R6" s="360"/>
       <c r="S6" s="360"/>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -18381,7 +18384,7 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -18403,7 +18406,7 @@
       </c>
       <c r="S8" s="362"/>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="14"/>
@@ -18430,7 +18433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -18479,7 +18482,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -18502,7 +18505,7 @@
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>38</v>
@@ -18553,7 +18556,7 @@
         <v>12876.373</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>39</v>
@@ -18604,7 +18607,7 @@
         <v>1805.0319999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -18653,7 +18656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -18704,7 +18707,7 @@
         <v>14681.405000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -18725,7 +18728,7 @@
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>43</v>
       </c>
@@ -18748,7 +18751,7 @@
       <c r="R17" s="24"/>
       <c r="S17" s="24"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="28" t="s">
         <v>44</v>
@@ -18799,7 +18802,7 @@
         <v>12109.843000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="28" t="s">
         <v>2</v>
@@ -18850,7 +18853,7 @@
         <v>5805.7169999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="28" t="s">
         <v>45</v>
@@ -18901,7 +18904,7 @@
         <v>601.34900000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="28" t="s">
         <v>46</v>
@@ -18952,7 +18955,7 @@
         <v>168.07</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -19001,7 +19004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -19053,7 +19056,7 @@
       </c>
       <c r="T23" s="25"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -19077,7 +19080,7 @@
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
     </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>48</v>
       </c>
@@ -19100,7 +19103,7 @@
       <c r="R25" s="23"/>
       <c r="S25" s="23"/>
     </row>
-    <row r="26" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>49</v>
@@ -19151,7 +19154,7 @@
         <v>930.94100000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>50</v>
@@ -19202,7 +19205,7 @@
         <v>875.31100000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>51</v>
@@ -19253,7 +19256,7 @@
         <v>682.72</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>52</v>
@@ -19304,7 +19307,7 @@
         <v>610.42399999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>53</v>
@@ -19355,7 +19358,7 @@
         <v>340.57900000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>54</v>
@@ -19406,7 +19409,7 @@
         <v>298.62400000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -19455,7 +19458,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -19506,7 +19509,7 @@
         <v>3738.5990000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -19537,7 +19540,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>55</v>
       </c>
@@ -19573,7 +19576,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>56</v>
@@ -19637,7 +19640,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>57</v>
@@ -19701,7 +19704,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>58</v>
@@ -19765,7 +19768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -19814,7 +19817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -19878,7 +19881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -19912,7 +19915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>59</v>
       </c>
@@ -19948,7 +19951,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>60</v>
@@ -20004,7 +20007,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>58</v>
@@ -20055,7 +20058,7 @@
         <v>183.27699999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -20104,7 +20107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -20155,7 +20158,7 @@
         <v>1517.9280000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="89"/>
       <c r="B47" s="89"/>
       <c r="C47" s="89"/>
@@ -20188,7 +20191,7 @@
       <c r="R47" s="90"/>
       <c r="S47" s="90"/>
     </row>
-    <row r="48" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="89" t="s">
         <v>148</v>
       </c>
@@ -20214,7 +20217,7 @@
       <c r="R48" s="90"/>
       <c r="S48" s="90"/>
     </row>
-    <row r="49" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="89" t="s">
         <v>156</v>
       </c>
@@ -20246,7 +20249,7 @@
       <c r="R49" s="90"/>
       <c r="S49" s="90"/>
     </row>
-    <row r="50" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="89" t="s">
         <v>157</v>
       </c>
@@ -20278,7 +20281,7 @@
       <c r="R50" s="90"/>
       <c r="S50" s="90"/>
     </row>
-    <row r="51" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="89"/>
       <c r="B51" s="89"/>
       <c r="C51" s="89"/>
@@ -20299,7 +20302,7 @@
       <c r="R51" s="92"/>
       <c r="S51" s="92"/>
     </row>
-    <row r="52" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>61</v>
       </c>
@@ -20322,7 +20325,7 @@
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
     </row>
-    <row r="53" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>62</v>
@@ -20373,7 +20376,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>63</v>
@@ -20424,7 +20427,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>64</v>
@@ -20475,7 +20478,7 @@
         <v>179.15</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>65</v>
@@ -20526,7 +20529,7 @@
         <v>-42.021999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>66</v>
@@ -20577,7 +20580,7 @@
         <v>140.99100000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
       <c r="B58" s="28" t="s">
         <v>67</v>
@@ -20628,7 +20631,7 @@
         <v>51.79</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>68</v>
@@ -20679,7 +20682,7 @@
         <v>29.829000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>58</v>
@@ -20730,7 +20733,7 @@
         <v>697.76099999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -20779,7 +20782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -20830,7 +20833,7 @@
         <v>1057.6969999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -20851,7 +20854,7 @@
       <c r="R63" s="25"/>
       <c r="S63" s="25"/>
     </row>
-    <row r="64" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>69</v>
       </c>
@@ -20874,7 +20877,7 @@
       <c r="R64" s="25"/>
       <c r="S64" s="25"/>
     </row>
-    <row r="65" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>70</v>
       </c>
@@ -20925,7 +20928,7 @@
         <v>41712.921000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -20946,7 +20949,7 @@
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
     </row>
-    <row r="67" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>71</v>
       </c>
@@ -20969,7 +20972,7 @@
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
     </row>
-    <row r="68" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>72</v>
@@ -21020,7 +21023,7 @@
         <v>-2166.04</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>73</v>
@@ -21043,7 +21046,7 @@
       <c r="R69" s="23"/>
       <c r="S69" s="23"/>
     </row>
-    <row r="70" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>74</v>
@@ -21066,7 +21069,7 @@
       <c r="R70" s="23"/>
       <c r="S70" s="23"/>
     </row>
-    <row r="71" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="28" t="s">
@@ -21117,7 +21120,7 @@
         <v>-537.75800000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="28" t="s">
@@ -21168,7 +21171,7 @@
         <v>-265.04899999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="28" t="s">
@@ -21219,7 +21222,7 @@
         <v>-210.17099999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -21268,7 +21271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -21319,7 +21322,7 @@
         <v>-1012.978</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="10"/>
       <c r="B76" s="28"/>
       <c r="C76" s="10"/>
@@ -21340,7 +21343,7 @@
       <c r="R76" s="23"/>
       <c r="S76" s="23"/>
     </row>
-    <row r="77" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="10"/>
       <c r="B77" s="28" t="s">
         <v>77</v>
@@ -21391,7 +21394,7 @@
         <v>-120.02500000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="10"/>
       <c r="B78" s="28" t="s">
         <v>66</v>
@@ -21442,7 +21445,7 @@
         <v>-108.732</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="10"/>
       <c r="B79" s="28" t="s">
         <v>67</v>
@@ -21493,7 +21496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="10"/>
       <c r="B80" s="28" t="s">
         <v>58</v>
@@ -21544,7 +21547,7 @@
         <v>-326.91500000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="10"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
@@ -21593,7 +21596,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="10"/>
       <c r="B82" s="28"/>
       <c r="C82" s="10"/>
@@ -21644,7 +21647,7 @@
         <v>-3734.69</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -21665,7 +21668,7 @@
       <c r="R83" s="24"/>
       <c r="S83" s="24"/>
     </row>
-    <row r="84" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -21688,7 +21691,7 @@
       <c r="R84" s="24"/>
       <c r="S84" s="24"/>
     </row>
-    <row r="85" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -21740,7 +21743,7 @@
       </c>
       <c r="T85" s="25"/>
     </row>
-    <row r="86" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -21762,7 +21765,7 @@
       <c r="S86" s="25"/>
       <c r="T86" s="25"/>
     </row>
-    <row r="87" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="30" t="s">
         <v>80</v>
       </c>
@@ -21786,7 +21789,7 @@
       <c r="S87" s="25"/>
       <c r="T87" s="25"/>
     </row>
-    <row r="88" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
         <v>81</v>
       </c>
@@ -21809,7 +21812,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="23"/>
     </row>
-    <row r="89" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>82</v>
@@ -21860,7 +21863,7 @@
         <v>9943.8029999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="19"/>
       <c r="B90" s="19" t="s">
         <v>83</v>
@@ -21911,7 +21914,7 @@
         <v>16518.938999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="31"/>
@@ -21954,14 +21957,14 @@
       <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="97" t="s">
         <v>355</v>
       </c>
@@ -21972,7 +21975,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="289" t="s">
         <v>360</v>
       </c>
@@ -21984,7 +21987,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="289" t="s">
         <v>361</v>
       </c>
@@ -21996,7 +21999,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="289" t="s">
         <v>20</v>
       </c>
@@ -22008,7 +22011,7 @@
         <v>166000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="289" t="s">
         <v>198</v>
       </c>
@@ -22020,7 +22023,7 @@
         <v>82000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="289" t="s">
         <v>362</v>
       </c>
@@ -22032,7 +22035,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="291" t="s">
         <v>352</v>
       </c>
@@ -22044,7 +22047,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="176" t="s">
         <v>353</v>
       </c>
@@ -22056,7 +22059,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="176" t="s">
         <v>354</v>
       </c>
@@ -22068,7 +22071,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="291" t="s">
         <v>58</v>
       </c>
@@ -22081,7 +22084,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="292" t="s">
         <v>363</v>
       </c>
@@ -22093,7 +22096,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="291" t="s">
         <v>364</v>
       </c>
@@ -22105,7 +22108,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="291" t="s">
         <v>58</v>
       </c>
@@ -22118,7 +22121,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="292" t="s">
         <v>365</v>
       </c>
@@ -22130,7 +22133,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="291" t="s">
         <v>346</v>
       </c>
@@ -22142,7 +22145,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="291" t="s">
         <v>58</v>
       </c>
@@ -22155,7 +22158,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="292" t="s">
         <v>366</v>
       </c>
@@ -22167,7 +22170,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="291" t="s">
         <v>367</v>
       </c>
@@ -22179,7 +22182,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="291" t="s">
         <v>368</v>
       </c>
@@ -22191,7 +22194,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="293" t="s">
         <v>369</v>
       </c>
@@ -22203,7 +22206,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="292" t="s">
         <v>34</v>
       </c>
@@ -22229,22 +22232,22 @@
       <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="146" customWidth="1"/>
-    <col min="8" max="10" width="9.36328125" style="95" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" style="146" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.6328125" customWidth="1"/>
-    <col min="15" max="15" width="8.6328125" style="146"/>
-    <col min="19" max="19" width="8.6328125" style="146"/>
-    <col min="23" max="23" width="8.6328125" style="146"/>
-    <col min="27" max="27" width="8.6328125" style="146"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="146" customWidth="1"/>
+    <col min="8" max="10" width="9.33203125" style="95" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="146" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="146"/>
+    <col min="19" max="19" width="8.6640625" style="146"/>
+    <col min="23" max="23" width="8.6640625" style="146"/>
+    <col min="27" max="27" width="8.6640625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="349" t="s">
         <v>206</v>
       </c>
@@ -22260,7 +22263,7 @@
       <c r="X1" s="341"/>
       <c r="Y1" s="341"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="351" t="s">
         <v>191</v>
       </c>
@@ -22271,7 +22274,7 @@
       <c r="I2" s="241"/>
       <c r="J2" s="357"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="352"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
@@ -22280,21 +22283,21 @@
       <c r="I3" s="241"/>
       <c r="J3" s="357"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="352"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="353"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C7" s="354" t="s">
         <v>160</v>
       </c>
@@ -22335,7 +22338,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>199</v>
       </c>
@@ -22415,7 +22418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:50" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>164</v>
       </c>
@@ -22437,7 +22440,7 @@
       <c r="W9" s="148"/>
       <c r="AA9" s="148"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
         <v>170</v>
       </c>
@@ -22583,7 +22586,7 @@
         <v>255.15376528416061</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
         <v>171</v>
       </c>
@@ -22717,7 +22720,7 @@
         <v>186.47180988614599</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
         <v>172</v>
       </c>
@@ -22851,7 +22854,7 @@
         <v>2875.95246504137</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
         <v>173</v>
       </c>
@@ -22985,7 +22988,7 @@
         <v>105.012474965631</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
         <v>175</v>
       </c>
@@ -23131,7 +23134,7 @@
         <v>2522.4454963431522</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
         <v>166</v>
       </c>
@@ -23265,7 +23268,7 @@
         <v>2011.1030125773</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
         <v>169</v>
       </c>
@@ -23411,7 +23414,7 @@
         <v>738.77122724603657</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>195</v>
       </c>
@@ -23548,7 +23551,7 @@
         <v>313.40886978539112</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
       <c r="E19" s="95"/>
       <c r="F19" s="95"/>
       <c r="L19" s="95"/>
@@ -23565,7 +23568,7 @@
       <c r="Z19" s="95"/>
       <c r="AB19" s="95"/>
     </row>
-    <row r="20" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="110" t="s">
         <v>184</v>
       </c>
@@ -23586,7 +23589,7 @@
       <c r="Z20" s="95"/>
       <c r="AB20" s="95"/>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>184</v>
       </c>
@@ -23688,7 +23691,7 @@
       </c>
       <c r="AB21" s="95"/>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>177</v>
       </c>
@@ -23790,7 +23793,7 @@
       </c>
       <c r="AB22" s="95"/>
     </row>
-    <row r="23" spans="1:47" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B23" s="210" t="s">
         <v>277</v>
       </c>
@@ -23862,7 +23865,7 @@
       </c>
       <c r="AB23" s="243"/>
     </row>
-    <row r="24" spans="1:47" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="99" t="s">
         <v>178</v>
       </c>
@@ -23958,7 +23961,7 @@
       </c>
       <c r="AB24" s="244"/>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="D25" s="102"/>
       <c r="E25" s="104"/>
       <c r="F25" s="104"/>
@@ -23981,7 +23984,7 @@
       <c r="Z25" s="95"/>
       <c r="AB25" s="95"/>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
       <c r="D26" s="102"/>
       <c r="E26" s="104"/>
       <c r="F26" s="104"/>
@@ -24004,7 +24007,7 @@
       <c r="Z26" s="95"/>
       <c r="AB26" s="95"/>
     </row>
-    <row r="27" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="110" t="s">
         <v>187</v>
       </c>
@@ -24031,7 +24034,7 @@
       <c r="Z27" s="95"/>
       <c r="AB27" s="95"/>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>187</v>
       </c>
@@ -24130,7 +24133,7 @@
       </c>
       <c r="AB28" s="95"/>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>177</v>
       </c>
@@ -24232,7 +24235,7 @@
       </c>
       <c r="AB29" s="95"/>
     </row>
-    <row r="30" spans="1:47" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B30" s="210" t="s">
         <v>277</v>
       </c>
@@ -24307,7 +24310,7 @@
       </c>
       <c r="AB30" s="243"/>
     </row>
-    <row r="31" spans="1:47" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="99" t="s">
         <v>178</v>
       </c>
@@ -24403,7 +24406,7 @@
       </c>
       <c r="AB31" s="244"/>
     </row>
-    <row r="32" spans="1:47" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="99"/>
       <c r="D32" s="103"/>
       <c r="E32" s="217"/>
@@ -24431,7 +24434,7 @@
       <c r="AA32" s="181"/>
       <c r="AB32" s="244"/>
     </row>
-    <row r="33" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="99"/>
       <c r="D33" s="103"/>
       <c r="E33" s="217"/>
@@ -24459,7 +24462,7 @@
       <c r="AA33" s="181"/>
       <c r="AB33" s="244"/>
     </row>
-    <row r="34" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="110" t="s">
         <v>183</v>
       </c>
@@ -24486,7 +24489,7 @@
       <c r="Z34" s="95"/>
       <c r="AB34" s="95"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>270</v>
       </c>
@@ -24533,7 +24536,7 @@
       <c r="Z35" s="95"/>
       <c r="AB35" s="95"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>177</v>
       </c>
@@ -24583,7 +24586,7 @@
       <c r="Z36" s="95"/>
       <c r="AB36" s="95"/>
     </row>
-    <row r="37" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="99" t="s">
         <v>178</v>
       </c>
@@ -24663,7 +24666,7 @@
       </c>
       <c r="AB37" s="244"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D38" s="102"/>
       <c r="E38" s="104"/>
       <c r="F38" s="104"/>
@@ -24686,7 +24689,7 @@
       <c r="Z38" s="95"/>
       <c r="AB38" s="95"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D39" s="102"/>
       <c r="E39" s="104"/>
       <c r="F39" s="104"/>
@@ -24709,7 +24712,7 @@
       <c r="Z39" s="95"/>
       <c r="AB39" s="95"/>
     </row>
-    <row r="40" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="110" t="s">
         <v>182</v>
       </c>
@@ -24736,7 +24739,7 @@
       <c r="Z40" s="95"/>
       <c r="AB40" s="95"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>270</v>
       </c>
@@ -24783,7 +24786,7 @@
       <c r="Z41" s="95"/>
       <c r="AB41" s="95"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>177</v>
       </c>
@@ -24835,7 +24838,7 @@
       <c r="Z42" s="95"/>
       <c r="AB42" s="95"/>
     </row>
-    <row r="43" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="99" t="s">
         <v>178</v>
       </c>
@@ -24915,7 +24918,7 @@
       </c>
       <c r="AB43" s="244"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D44" s="102"/>
       <c r="E44" s="104"/>
       <c r="F44" s="104"/>
@@ -24938,7 +24941,7 @@
       <c r="Z44" s="95"/>
       <c r="AB44" s="95"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D45" s="102"/>
       <c r="E45" s="104"/>
       <c r="F45" s="104"/>
@@ -24961,7 +24964,7 @@
       <c r="Z45" s="95"/>
       <c r="AB45" s="95"/>
     </row>
-    <row r="46" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="105" t="s">
         <v>188</v>
       </c>
@@ -24988,7 +24991,7 @@
       <c r="Z46" s="95"/>
       <c r="AB46" s="95"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>188</v>
       </c>
@@ -25087,7 +25090,7 @@
       </c>
       <c r="AB47" s="95"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>177</v>
       </c>
@@ -25189,7 +25192,7 @@
       </c>
       <c r="AB48" s="95"/>
     </row>
-    <row r="49" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B49" s="210" t="s">
         <v>277</v>
       </c>
@@ -25270,7 +25273,7 @@
       </c>
       <c r="AB49" s="243"/>
     </row>
-    <row r="50" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="99" t="s">
         <v>178</v>
       </c>
@@ -25366,7 +25369,7 @@
       </c>
       <c r="AB50" s="244"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D51" s="102"/>
       <c r="E51" s="104"/>
       <c r="F51" s="104"/>
@@ -25389,7 +25392,7 @@
       <c r="Z51" s="95"/>
       <c r="AB51" s="95"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D52" s="102"/>
       <c r="E52" s="104"/>
       <c r="F52" s="104"/>
@@ -25412,7 +25415,7 @@
       <c r="Z52" s="95"/>
       <c r="AB52" s="95"/>
     </row>
-    <row r="53" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="105" t="s">
         <v>189</v>
       </c>
@@ -25439,7 +25442,7 @@
       <c r="Z53" s="95"/>
       <c r="AB53" s="95"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="86" t="s">
         <v>189</v>
       </c>
@@ -25541,7 +25544,7 @@
       </c>
       <c r="AB54" s="95"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>177</v>
       </c>
@@ -25643,7 +25646,7 @@
       </c>
       <c r="AB55" s="95"/>
     </row>
-    <row r="56" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B56" s="210" t="s">
         <v>277</v>
       </c>
@@ -25721,7 +25724,7 @@
       </c>
       <c r="AB56" s="243"/>
     </row>
-    <row r="57" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="99" t="s">
         <v>178</v>
       </c>
@@ -25817,7 +25820,7 @@
       </c>
       <c r="AB57" s="244"/>
     </row>
-    <row r="58" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="99"/>
       <c r="D58" s="103"/>
       <c r="E58" s="217"/>
@@ -25845,7 +25848,7 @@
       <c r="AA58" s="181"/>
       <c r="AB58" s="244"/>
     </row>
-    <row r="59" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="99"/>
       <c r="D59" s="103"/>
       <c r="E59" s="217"/>
@@ -25873,7 +25876,7 @@
       <c r="AA59" s="181"/>
       <c r="AB59" s="244"/>
     </row>
-    <row r="60" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="105" t="s">
         <v>190</v>
       </c>
@@ -25900,7 +25903,7 @@
       <c r="Z60" s="95"/>
       <c r="AB60" s="95"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>210</v>
       </c>
@@ -25999,7 +26002,7 @@
       </c>
       <c r="AB61" s="95"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>177</v>
       </c>
@@ -26101,7 +26104,7 @@
       </c>
       <c r="AB62" s="95"/>
     </row>
-    <row r="63" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B63" s="210" t="s">
         <v>277</v>
       </c>
@@ -26176,7 +26179,7 @@
       </c>
       <c r="AB63" s="243"/>
     </row>
-    <row r="64" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="99" t="s">
         <v>178</v>
       </c>
@@ -26276,7 +26279,7 @@
       <c r="AE64" s="150"/>
       <c r="AF64" s="150"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D65" s="102"/>
       <c r="E65" s="104"/>
       <c r="F65" s="104"/>
@@ -26299,7 +26302,7 @@
       <c r="Z65" s="95"/>
       <c r="AB65" s="95"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D66" s="102"/>
       <c r="E66" s="104"/>
       <c r="F66" s="104"/>
@@ -26322,7 +26325,7 @@
       <c r="Z66" s="95"/>
       <c r="AB66" s="95"/>
     </row>
-    <row r="67" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="105" t="s">
         <v>196</v>
       </c>
@@ -26349,14 +26352,14 @@
       <c r="Z67" s="95"/>
       <c r="AB67" s="95"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>207</v>
       </c>
       <c r="D68" s="100"/>
       <c r="E68" s="218">
         <f>main!L86/1000</f>
-        <v>321.35000000000002</v>
+        <v>283.95</v>
       </c>
       <c r="F68" s="218">
         <f>main!M86/1000</f>
@@ -26445,7 +26448,7 @@
       </c>
       <c r="AB68" s="95"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>177</v>
       </c>
@@ -26547,7 +26550,7 @@
       </c>
       <c r="AB69" s="95"/>
     </row>
-    <row r="70" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B70" s="210" t="s">
         <v>277</v>
       </c>
@@ -26610,7 +26613,7 @@
       </c>
       <c r="AB70" s="243"/>
     </row>
-    <row r="71" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="99" t="s">
         <v>178</v>
       </c>
@@ -26706,7 +26709,7 @@
       </c>
       <c r="AB71" s="244"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E72" s="95"/>
       <c r="F72" s="95"/>
       <c r="L72" s="95"/>
@@ -26723,7 +26726,7 @@
       <c r="Z72" s="95"/>
       <c r="AB72" s="95"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E73" s="95"/>
       <c r="F73" s="95"/>
       <c r="L73" s="95"/>
@@ -26767,13 +26770,13 @@
       <selection pane="topRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>255</v>
       </c>
@@ -26823,7 +26826,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="188">
         <v>44012</v>
       </c>
@@ -26853,7 +26856,7 @@
       </c>
       <c r="J2" s="102">
         <f>'add-ons calculations'!E68</f>
-        <v>321.35000000000002</v>
+        <v>283.95</v>
       </c>
       <c r="K2" s="102">
         <v>1084.5999999999999</v>
@@ -26875,7 +26878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="188">
         <v>44104</v>
       </c>
@@ -26935,7 +26938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="188">
         <v>44196</v>
       </c>
@@ -26987,7 +26990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="188">
         <v>44286</v>
       </c>
@@ -27037,7 +27040,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="188">
         <v>44377</v>
       </c>
@@ -27088,7 +27091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="188">
         <v>44469</v>
       </c>
@@ -27139,7 +27142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="188">
         <v>44561</v>
       </c>
@@ -27190,7 +27193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="188">
         <v>44651</v>
       </c>
@@ -27240,7 +27243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="188">
         <v>44742</v>
       </c>
@@ -27290,7 +27293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="188">
         <v>44834</v>
       </c>
@@ -27340,7 +27343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="188">
         <v>44926</v>
       </c>
@@ -27390,7 +27393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="188">
         <v>45016</v>
       </c>
@@ -27438,7 +27441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="188">
         <v>45107</v>
       </c>
@@ -27480,7 +27483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="188">
         <v>45199</v>
       </c>
@@ -27522,7 +27525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="188">
         <v>45291</v>
       </c>
@@ -27564,7 +27567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="188">
         <v>45382</v>
       </c>
@@ -27606,7 +27609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="188">
         <v>45473</v>
       </c>
@@ -27648,7 +27651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="188">
         <v>45565</v>
       </c>
@@ -27690,7 +27693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="188">
         <v>45657</v>
       </c>
@@ -27732,7 +27735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="188">
         <v>45747</v>
       </c>
@@ -27774,7 +27777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="188">
         <v>45838</v>
       </c>
@@ -27816,7 +27819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="188">
         <v>45930</v>
       </c>
@@ -27858,7 +27861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="188">
         <v>46022</v>
       </c>
@@ -27913,13 +27916,13 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="23" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D1" s="341" t="s">
         <v>21</v>
       </c>
@@ -27951,7 +27954,7 @@
       <c r="V1" s="341"/>
       <c r="W1" s="341"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D2" s="197" t="s">
         <v>5</v>
       </c>
@@ -28013,7 +28016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
@@ -28090,7 +28093,7 @@
       <c r="W3" s="255"/>
       <c r="AJ3" s="233"/>
     </row>
-    <row r="4" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>213</v>
       </c>
@@ -28176,7 +28179,7 @@
       </c>
       <c r="AJ4" s="233"/>
     </row>
-    <row r="5" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>15</v>
       </c>
@@ -28253,7 +28256,7 @@
       <c r="W5" s="262"/>
       <c r="AJ5" s="258"/>
     </row>
-    <row r="6" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>212</v>
       </c>
@@ -28347,18 +28350,18 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.1796875" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="146"/>
-    <col min="11" max="11" width="10.81640625" style="146"/>
-    <col min="15" max="15" width="10.81640625" style="146"/>
-    <col min="19" max="19" width="10.81640625" style="146"/>
-    <col min="23" max="23" width="10.81640625" style="146"/>
-    <col min="27" max="27" width="12.1796875" style="146" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="146"/>
+    <col min="11" max="11" width="10.83203125" style="146"/>
+    <col min="15" max="15" width="10.83203125" style="146"/>
+    <col min="19" max="19" width="10.83203125" style="146"/>
+    <col min="23" max="23" width="10.83203125" style="146"/>
+    <col min="27" max="27" width="12.1640625" style="146" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="349" t="s">
         <v>206</v>
       </c>
@@ -28373,7 +28376,7 @@
       <c r="X1" s="341"/>
       <c r="Y1" s="341"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="351" t="s">
         <v>191</v>
       </c>
@@ -28385,7 +28388,7 @@
       <c r="I2" s="241"/>
       <c r="J2" s="357"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="352"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
@@ -28395,7 +28398,7 @@
       <c r="I3" s="241"/>
       <c r="J3" s="357"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="352"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
@@ -28405,7 +28408,7 @@
       <c r="I4" s="95"/>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="353"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
@@ -28415,12 +28418,12 @@
       <c r="I5" s="95"/>
       <c r="J5" s="95"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H6" s="95"/>
       <c r="I6" s="95"/>
       <c r="J6" s="95"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="354" t="s">
         <v>160</v>
       </c>
@@ -28461,7 +28464,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="257" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" s="257" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="257" t="s">
         <v>199</v>
       </c>
@@ -28541,7 +28544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="257" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" s="257" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>164</v>
       </c>
@@ -28563,7 +28566,7 @@
       <c r="W9" s="148"/>
       <c r="AA9" s="148"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
         <v>170</v>
       </c>
@@ -28640,7 +28643,7 @@
         <v>828.6749765144433</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
         <v>171</v>
       </c>
@@ -28717,7 +28720,7 @@
         <v>169.9444832776542</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
         <v>172</v>
       </c>
@@ -28794,7 +28797,7 @@
         <v>2355.9885775604512</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
         <v>173</v>
       </c>
@@ -28871,7 +28874,7 @@
         <v>80.167011412978511</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
         <v>174</v>
       </c>
@@ -28948,7 +28951,7 @@
         <v>0.65670630121913887</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
         <v>175</v>
       </c>
@@ -29025,7 +29028,7 @@
         <v>1151.8062286849761</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
         <v>166</v>
       </c>
@@ -29102,7 +29105,7 @@
         <v>1961.095884519679</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="86" t="s">
         <v>167</v>
       </c>
@@ -29179,7 +29182,7 @@
         <v>4091.8476387732821</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="86" t="s">
         <v>168</v>
       </c>
@@ -29256,7 +29259,7 @@
         <v>587.36016206119621</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="86" t="s">
         <v>169</v>
       </c>
@@ -29333,7 +29336,7 @@
         <v>1326.2183753120521</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>195</v>
       </c>
@@ -29410,12 +29413,12 @@
         <v>869.9054194417273</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H21" s="95"/>
       <c r="I21" s="95"/>
       <c r="J21" s="95"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E22" s="95"/>
       <c r="F22" s="95"/>
       <c r="H22" s="95"/>
@@ -29435,7 +29438,7 @@
       <c r="Z22" s="95"/>
       <c r="AB22" s="95"/>
     </row>
-    <row r="23" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="110" t="s">
         <v>184</v>
       </c>
@@ -29459,7 +29462,7 @@
       <c r="Z23" s="95"/>
       <c r="AB23" s="95"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>184</v>
       </c>
@@ -29561,7 +29564,7 @@
       </c>
       <c r="AB24" s="95"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>177</v>
       </c>
@@ -29663,7 +29666,7 @@
       </c>
       <c r="AB25" s="95"/>
     </row>
-    <row r="26" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B26" s="210" t="s">
         <v>277</v>
       </c>
@@ -29735,7 +29738,7 @@
       </c>
       <c r="AB26" s="243"/>
     </row>
-    <row r="27" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="99" t="s">
         <v>178</v>
       </c>
@@ -29831,7 +29834,7 @@
       </c>
       <c r="AB27" s="244"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D28" s="102"/>
       <c r="E28" s="104"/>
       <c r="F28" s="104"/>
@@ -29854,7 +29857,7 @@
       <c r="Z28" s="95"/>
       <c r="AB28" s="95"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D29" s="102"/>
       <c r="E29" s="104"/>
       <c r="F29" s="104"/>
@@ -29877,7 +29880,7 @@
       <c r="Z29" s="95"/>
       <c r="AB29" s="95"/>
     </row>
-    <row r="30" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="110" t="s">
         <v>187</v>
       </c>
@@ -29904,7 +29907,7 @@
       <c r="Z30" s="95"/>
       <c r="AB30" s="95"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>187</v>
       </c>
@@ -30003,7 +30006,7 @@
       </c>
       <c r="AB31" s="95"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>177</v>
       </c>
@@ -30105,7 +30108,7 @@
       </c>
       <c r="AB32" s="95"/>
     </row>
-    <row r="33" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B33" s="210" t="s">
         <v>277</v>
       </c>
@@ -30180,7 +30183,7 @@
       </c>
       <c r="AB33" s="243"/>
     </row>
-    <row r="34" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="99" t="s">
         <v>178</v>
       </c>
@@ -30276,7 +30279,7 @@
       </c>
       <c r="AB34" s="244"/>
     </row>
-    <row r="35" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="99"/>
       <c r="D35" s="103"/>
       <c r="E35" s="217"/>
@@ -30304,7 +30307,7 @@
       <c r="AA35" s="181"/>
       <c r="AB35" s="244"/>
     </row>
-    <row r="36" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="99"/>
       <c r="D36" s="103"/>
       <c r="E36" s="217"/>
@@ -30332,7 +30335,7 @@
       <c r="AA36" s="181"/>
       <c r="AB36" s="244"/>
     </row>
-    <row r="37" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="105" t="s">
         <v>188</v>
       </c>
@@ -30359,7 +30362,7 @@
       <c r="Z37" s="95"/>
       <c r="AB37" s="95"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>188</v>
       </c>
@@ -30458,7 +30461,7 @@
       </c>
       <c r="AB38" s="95"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>177</v>
       </c>
@@ -30560,7 +30563,7 @@
       </c>
       <c r="AB39" s="95"/>
     </row>
-    <row r="40" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B40" s="210" t="s">
         <v>277</v>
       </c>
@@ -30641,7 +30644,7 @@
       </c>
       <c r="AB40" s="243"/>
     </row>
-    <row r="41" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="99" t="s">
         <v>178</v>
       </c>
@@ -30737,7 +30740,7 @@
       </c>
       <c r="AB41" s="244"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D42" s="102"/>
       <c r="E42" s="104"/>
       <c r="F42" s="104"/>
@@ -30760,7 +30763,7 @@
       <c r="Z42" s="95"/>
       <c r="AB42" s="95"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D43" s="102"/>
       <c r="E43" s="104"/>
       <c r="F43" s="104"/>
@@ -30783,7 +30786,7 @@
       <c r="Z43" s="95"/>
       <c r="AB43" s="95"/>
     </row>
-    <row r="44" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="105" t="s">
         <v>189</v>
       </c>
@@ -30810,7 +30813,7 @@
       <c r="Z44" s="95"/>
       <c r="AB44" s="95"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="86" t="s">
         <v>189</v>
       </c>
@@ -30912,7 +30915,7 @@
       </c>
       <c r="AB45" s="95"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>177</v>
       </c>
@@ -31014,7 +31017,7 @@
       </c>
       <c r="AB46" s="95"/>
     </row>
-    <row r="47" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B47" s="210" t="s">
         <v>277</v>
       </c>
@@ -31092,7 +31095,7 @@
       </c>
       <c r="AB47" s="243"/>
     </row>
-    <row r="48" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="99" t="s">
         <v>178</v>
       </c>
@@ -31188,7 +31191,7 @@
       </c>
       <c r="AB48" s="244"/>
     </row>
-    <row r="49" spans="2:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="99"/>
       <c r="D49" s="103"/>
       <c r="E49" s="217"/>
@@ -31216,7 +31219,7 @@
       <c r="AA49" s="181"/>
       <c r="AB49" s="244"/>
     </row>
-    <row r="50" spans="2:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="99"/>
       <c r="D50" s="103"/>
       <c r="E50" s="217"/>
@@ -31269,20 +31272,20 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="259" t="s">
         <v>255</v>
       </c>
@@ -31311,7 +31314,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="260">
         <v>44104</v>
       </c>
@@ -31348,7 +31351,7 @@
         <v>-9.2000000000000455</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="260">
         <v>44196</v>
       </c>
@@ -31377,7 +31380,7 @@
         <v>-19.800000000000011</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="260">
         <v>44286</v>
       </c>
@@ -31406,7 +31409,7 @@
         <v>118.48521772294498</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="260">
         <v>44377</v>
       </c>
@@ -31435,7 +31438,7 @@
         <v>91.070987120173811</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="260">
         <v>44469</v>
       </c>
@@ -31464,7 +31467,7 @@
         <v>108.2731768418378</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="260">
         <v>44561</v>
       </c>
@@ -31493,7 +31496,7 @@
         <v>97.918975558200771</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="260">
         <v>44651</v>
       </c>
@@ -31522,7 +31525,7 @@
         <v>86.862558765131354</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="260">
         <v>44742</v>
       </c>
@@ -31551,7 +31554,7 @@
         <v>82.127767407325109</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="260">
         <v>44834</v>
       </c>
@@ -31580,7 +31583,7 @@
         <v>77.353129721712861</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="260">
         <v>44926</v>
       </c>
@@ -31609,7 +31612,7 @@
         <v>64.474970584203191</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="260">
         <v>45016</v>
       </c>
@@ -31638,7 +31641,7 @@
         <v>51.59860482993048</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="260">
         <v>45107</v>
       </c>
@@ -31667,7 +31670,7 @@
         <v>55.115350410659346</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="260">
         <v>45199</v>
       </c>
@@ -31696,7 +31699,7 @@
         <v>41.140887976761235</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="260">
         <v>45291</v>
       </c>
@@ -31725,7 +31728,7 @@
         <v>36.20171054730281</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="260">
         <v>45382</v>
       </c>
@@ -31754,7 +31757,7 @@
         <v>36.828990157049986</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="260">
         <v>45473</v>
       </c>
@@ -31783,7 +31786,7 @@
         <v>37.463678233921371</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="260">
         <v>45565</v>
       </c>
@@ -31812,7 +31815,7 @@
         <v>38.110892014683543</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="260">
         <v>45657</v>
       </c>
@@ -31841,7 +31844,7 @@
         <v>38.157160115537408</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="260">
         <v>45747</v>
       </c>
@@ -31870,7 +31873,7 @@
         <v>38.208074215356021</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="260">
         <v>45838</v>
       </c>
@@ -31899,7 +31902,7 @@
         <v>38.264934161420854</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="260">
         <v>45930</v>
       </c>
@@ -31928,7 +31931,7 @@
         <v>38.326825369819289</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="260">
         <v>46022</v>
       </c>
@@ -31970,9 +31973,9 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="297" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="297" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="297" t="s">
         <v>321</v>
       </c>
@@ -32004,7 +32007,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>291</v>
       </c>
@@ -32036,7 +32039,7 @@
         <v>21479.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>292</v>
       </c>
@@ -32068,7 +32071,7 @@
         <v>18780.3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>293</v>
       </c>
@@ -32100,7 +32103,7 @@
         <v>1710.3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -32132,7 +32135,7 @@
         <v>151.30000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>295</v>
       </c>
@@ -32164,7 +32167,7 @@
         <v>1451.6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -32193,7 +32196,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -32225,7 +32228,7 @@
         <v>516.4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>298</v>
       </c>
@@ -32257,7 +32260,7 @@
         <v>1352.4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>330</v>
       </c>
@@ -32289,7 +32292,7 @@
         <v>8536</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>331</v>
       </c>
@@ -32321,7 +32324,7 @@
         <v>13303</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>300</v>
       </c>
@@ -32350,7 +32353,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>301</v>
       </c>
@@ -32382,7 +32385,7 @@
         <v>2925056</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>302</v>
       </c>
@@ -32414,7 +32417,7 @@
         <v>860594</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>303</v>
       </c>
@@ -32428,7 +32431,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>304</v>
       </c>
@@ -32460,7 +32463,7 @@
         <v>302369</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>305</v>
       </c>
@@ -32474,7 +32477,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>306</v>
       </c>
@@ -32488,7 +32491,7 @@
         <v>34500</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>307</v>
       </c>
@@ -32520,7 +32523,7 @@
         <v>610536</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>308</v>
       </c>
@@ -32534,7 +32537,7 @@
         <v>260300</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>309</v>
       </c>
@@ -32548,7 +32551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>310</v>
       </c>
@@ -32562,7 +32565,7 @@
         <v>73300</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>311</v>
       </c>
@@ -32576,7 +32579,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>312</v>
       </c>
@@ -32608,7 +32611,7 @@
         <v>738144</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>315</v>
       </c>
@@ -32640,7 +32643,7 @@
         <v>1493553</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>314</v>
       </c>
@@ -32672,7 +32675,7 @@
         <v>1333307</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>316</v>
       </c>
@@ -32704,7 +32707,7 @@
         <v>512193</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>317</v>
       </c>
@@ -32736,7 +32739,7 @@
         <v>818740</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>318</v>
       </c>
@@ -32768,7 +32771,7 @@
         <v>673632</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>319</v>
       </c>
@@ -32800,7 +32803,7 @@
         <v>1984547</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>320</v>
       </c>
@@ -32832,7 +32835,7 @@
         <v>2337201</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>299</v>
       </c>
@@ -32864,7 +32867,7 @@
         <v>21.838999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>333</v>
       </c>
@@ -32878,7 +32881,7 @@
         <v>213400</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>313</v>
       </c>
@@ -32905,9 +32908,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>255</v>
       </c>
@@ -32915,7 +32918,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="188">
         <v>44104</v>
       </c>
@@ -32923,7 +32926,7 @@
         <v>337800</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="188">
         <v>44196</v>
       </c>
@@ -32931,7 +32934,7 @@
         <v>244000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="188">
         <v>44286</v>
       </c>
@@ -32939,7 +32942,7 @@
         <v>152000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="188">
         <v>44377</v>
       </c>
@@ -32947,7 +32950,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="188">
         <v>44469</v>
       </c>
@@ -32955,7 +32958,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="188">
         <v>44561</v>
       </c>
@@ -32963,7 +32966,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="188">
         <v>44651</v>
       </c>
@@ -32971,7 +32974,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="188">
         <v>44742</v>
       </c>
@@ -32979,7 +32982,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="188">
         <v>44834</v>
       </c>
@@ -32993,6 +32996,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -33209,12 +33218,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -33225,6 +33228,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33243,23 +33263,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
